--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\uni ani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1182,8 +1182,8 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1618,12 +1618,15 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6"/>
+      <c r="H15">
+        <v>18</v>
+      </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2009,6 +2012,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="6"/>
+      <c r="H31">
+        <v>18</v>
+      </c>
       <c r="I31">
         <v>10</v>
       </c>
@@ -2017,7 +2023,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2168,6 +2174,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="6"/>
+      <c r="H37">
+        <v>18</v>
+      </c>
       <c r="I37">
         <v>10</v>
       </c>
@@ -2176,7 +2185,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2299,12 +2308,15 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="6"/>
+      <c r="H42">
+        <v>18</v>
+      </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,6 +2931,9 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="6"/>
+      <c r="H65">
+        <v>18</v>
+      </c>
       <c r="I65">
         <v>10</v>
       </c>
@@ -2927,7 +2942,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2972,12 +2987,15 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="6"/>
+      <c r="H67">
+        <v>18</v>
+      </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N96" si="1">IF((H67+I67+J67+L67+M67+O67)&lt;70,IF((H67+I67+J67+L67+M67+O67)&gt;59,70,(H67+I67+J67+L67+M67+O67)),(H67+I67+J67+L67+M67+O67))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3103,6 +3121,9 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="6"/>
+      <c r="H72">
+        <v>18</v>
+      </c>
       <c r="I72">
         <v>10</v>
       </c>
@@ -3111,7 +3132,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3128,6 +3149,9 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="6"/>
+      <c r="H73">
+        <v>18</v>
+      </c>
       <c r="I73">
         <v>10</v>
       </c>
@@ -3136,7 +3160,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3153,6 +3177,9 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
+      <c r="H74">
+        <v>18</v>
+      </c>
       <c r="I74">
         <v>10</v>
       </c>
@@ -3161,7 +3188,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1181,9 +1181,9 @@
   </sheetPr>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1350,11 +1350,14 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,11 +1381,14 @@
         <v>10</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>17</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1455,9 +1461,12 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1577,9 +1586,12 @@
       <c r="K13">
         <v>1</v>
       </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1750,11 +1762,14 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1794,11 +1809,14 @@
       <c r="F22" s="2"/>
       <c r="G22" s="6"/>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1841,11 +1859,14 @@
         <v>18</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1893,9 +1914,12 @@
       <c r="K26">
         <v>1</v>
       </c>
+      <c r="L26">
+        <v>16</v>
+      </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1916,11 +1940,14 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,11 +1968,14 @@
         <v>15</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>18</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2100,11 +2130,14 @@
         <v>18</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>15</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2181,11 +2214,14 @@
         <v>10</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>18</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,9 +2325,12 @@
       <c r="K41">
         <v>1</v>
       </c>
+      <c r="L41">
+        <v>18</v>
+      </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2421,11 +2460,14 @@
         <v>10</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>16</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2477,11 +2519,14 @@
         <v>10</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,11 +2550,14 @@
         <v>10</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2533,11 +2581,14 @@
         <v>10</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2558,11 +2609,14 @@
         <v>10</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,11 +2690,14 @@
         <v>10</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>17</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,9 +2804,12 @@
       <c r="K58">
         <v>1</v>
       </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2803,9 +2863,12 @@
       <c r="K60">
         <v>1</v>
       </c>
+      <c r="L60">
+        <v>17</v>
+      </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2831,9 +2894,12 @@
       <c r="K61">
         <v>1</v>
       </c>
+      <c r="L61">
+        <v>17</v>
+      </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2857,11 +2923,14 @@
         <v>10</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2885,11 +2954,14 @@
         <v>10</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>17</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2912,9 +2984,12 @@
       <c r="K64">
         <v>1</v>
       </c>
+      <c r="L64">
+        <v>17</v>
+      </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2938,11 +3013,14 @@
         <v>10</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>15</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2966,11 +3044,14 @@
         <v>10</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>16</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,9 +3102,12 @@
       <c r="K68">
         <v>1</v>
       </c>
+      <c r="L68">
+        <v>18</v>
+      </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3046,9 +3130,12 @@
       <c r="K69">
         <v>1</v>
       </c>
+      <c r="L69">
+        <v>17</v>
+      </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,9 +3161,12 @@
       <c r="K70">
         <v>1</v>
       </c>
+      <c r="L70">
+        <v>20</v>
+      </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3128,11 +3218,14 @@
         <v>10</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>16</v>
       </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3186,9 +3279,12 @@
       <c r="K74">
         <v>1</v>
       </c>
+      <c r="L74">
+        <v>15</v>
+      </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,11 +3308,14 @@
         <v>10</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>17</v>
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3240,11 +3339,14 @@
         <v>10</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>16</v>
       </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3270,9 +3372,12 @@
       <c r="K77">
         <v>1</v>
       </c>
+      <c r="L77">
+        <v>16</v>
+      </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,9 +3403,12 @@
       <c r="K78">
         <v>1</v>
       </c>
+      <c r="L78">
+        <v>16</v>
+      </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3380,11 +3488,14 @@
         <v>10</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>17</v>
       </c>
       <c r="N81">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3517,11 +3628,14 @@
         <v>10</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>16</v>
       </c>
       <c r="N86">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3547,9 +3661,12 @@
       <c r="K87">
         <v>1</v>
       </c>
+      <c r="L87">
+        <v>16</v>
+      </c>
       <c r="N87">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3575,9 +3692,12 @@
       <c r="K88">
         <v>1</v>
       </c>
+      <c r="L88">
+        <v>18</v>
+      </c>
       <c r="N88">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,9 +3798,12 @@
       <c r="K92">
         <v>1</v>
       </c>
+      <c r="L92">
+        <v>17</v>
+      </c>
       <c r="N92">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,9 +3829,12 @@
       <c r="K93">
         <v>1</v>
       </c>
+      <c r="L93">
+        <v>17</v>
+      </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3756,9 +3882,12 @@
       <c r="K95">
         <v>1</v>
       </c>
+      <c r="L95">
+        <v>18</v>
+      </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -1181,9 +1181,9 @@
   </sheetPr>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1321,12 +1321,15 @@
       <c r="I3">
         <v>10</v>
       </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">IF((H3+I3+J3+L3+M3+O3)&lt;70,IF((H3+I3+J3+L3+M3+O3)&gt;59,70,(H3+I3+J3+L3+M3+O3)),(H3+I3+J3+L3+M3+O3))</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1411,12 +1414,15 @@
       <c r="I6">
         <v>10</v>
       </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,6 +1589,9 @@
       <c r="I13">
         <v>10</v>
       </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -1591,7 +1600,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1761,6 +1770,9 @@
       <c r="I20">
         <v>10</v>
       </c>
+      <c r="J20">
+        <v>14</v>
+      </c>
       <c r="K20">
         <v>2</v>
       </c>
@@ -1769,7 +1781,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1939,6 +1951,9 @@
       <c r="I27">
         <v>10</v>
       </c>
+      <c r="J27">
+        <v>14</v>
+      </c>
       <c r="K27">
         <v>2</v>
       </c>
@@ -1947,7 +1962,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1967,6 +1982,9 @@
       <c r="H28">
         <v>15</v>
       </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
       <c r="K28">
         <v>2</v>
       </c>
@@ -1975,7 +1993,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2020,12 +2038,15 @@
       <c r="H30">
         <v>18</v>
       </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2048,12 +2069,15 @@
       <c r="I31">
         <v>10</v>
       </c>
+      <c r="J31">
+        <v>16</v>
+      </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2076,12 +2100,15 @@
       <c r="I32">
         <v>10</v>
       </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,12 +2131,15 @@
       <c r="I33">
         <v>10</v>
       </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2129,6 +2159,9 @@
       <c r="H34">
         <v>18</v>
       </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
       <c r="K34">
         <v>2</v>
       </c>
@@ -2137,7 +2170,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2185,12 +2218,15 @@
       <c r="I36">
         <v>10</v>
       </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2244,12 +2280,15 @@
       <c r="I38">
         <v>10</v>
       </c>
+      <c r="J38">
+        <v>18</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2322,6 +2361,9 @@
       <c r="H41">
         <v>14</v>
       </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
@@ -2330,7 +2372,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2431,12 +2473,15 @@
       <c r="I45">
         <v>10</v>
       </c>
+      <c r="J45">
+        <v>18</v>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,6 +2504,9 @@
       <c r="I46">
         <v>10</v>
       </c>
+      <c r="J46">
+        <v>18</v>
+      </c>
       <c r="K46">
         <v>2</v>
       </c>
@@ -2467,7 +2515,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,12 +2538,15 @@
       <c r="I47">
         <v>10</v>
       </c>
+      <c r="J47">
+        <v>18</v>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2580,6 +2631,9 @@
       <c r="I50">
         <v>10</v>
       </c>
+      <c r="J50">
+        <v>18</v>
+      </c>
       <c r="K50">
         <v>2</v>
       </c>
@@ -2588,7 +2642,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2608,6 +2662,9 @@
       <c r="I51">
         <v>10</v>
       </c>
+      <c r="J51">
+        <v>18</v>
+      </c>
       <c r="K51">
         <v>2</v>
       </c>
@@ -2616,7 +2673,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2639,12 +2696,15 @@
       <c r="I52">
         <v>10</v>
       </c>
+      <c r="J52">
+        <v>16</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2689,6 +2749,9 @@
       <c r="I54">
         <v>10</v>
       </c>
+      <c r="J54">
+        <v>14</v>
+      </c>
       <c r="K54">
         <v>2</v>
       </c>
@@ -2697,7 +2760,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2720,12 +2783,15 @@
       <c r="I55">
         <v>10</v>
       </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,12 +2839,15 @@
       <c r="H57">
         <v>15</v>
       </c>
+      <c r="J57">
+        <v>18</v>
+      </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2801,6 +2870,9 @@
       <c r="I58">
         <v>10</v>
       </c>
+      <c r="J58">
+        <v>18</v>
+      </c>
       <c r="K58">
         <v>1</v>
       </c>
@@ -2809,7 +2881,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2832,12 +2904,15 @@
       <c r="I59">
         <v>10</v>
       </c>
+      <c r="J59">
+        <v>18</v>
+      </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2860,6 +2935,9 @@
       <c r="I60">
         <v>10</v>
       </c>
+      <c r="J60">
+        <v>18</v>
+      </c>
       <c r="K60">
         <v>1</v>
       </c>
@@ -2868,7 +2946,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2891,6 +2969,9 @@
       <c r="I61">
         <v>10</v>
       </c>
+      <c r="J61">
+        <v>18</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
@@ -2899,7 +2980,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2922,6 +3003,9 @@
       <c r="I62">
         <v>10</v>
       </c>
+      <c r="J62">
+        <v>18</v>
+      </c>
       <c r="K62">
         <v>2</v>
       </c>
@@ -2930,7 +3014,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2953,6 +3037,9 @@
       <c r="I63">
         <v>10</v>
       </c>
+      <c r="J63">
+        <v>18</v>
+      </c>
       <c r="K63">
         <v>2</v>
       </c>
@@ -2961,7 +3048,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2981,6 +3068,9 @@
       <c r="H64">
         <v>16</v>
       </c>
+      <c r="J64">
+        <v>14</v>
+      </c>
       <c r="K64">
         <v>1</v>
       </c>
@@ -2989,7 +3079,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3012,6 +3102,9 @@
       <c r="I65">
         <v>10</v>
       </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
       <c r="K65">
         <v>2</v>
       </c>
@@ -3020,7 +3113,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3043,6 +3136,9 @@
       <c r="I66">
         <v>10</v>
       </c>
+      <c r="J66">
+        <v>18</v>
+      </c>
       <c r="K66">
         <v>2</v>
       </c>
@@ -3051,7 +3147,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3099,6 +3195,9 @@
       <c r="I68">
         <v>10</v>
       </c>
+      <c r="J68">
+        <v>18</v>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
@@ -3107,7 +3206,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3127,6 +3226,9 @@
       <c r="H69">
         <v>16</v>
       </c>
+      <c r="J69">
+        <v>20</v>
+      </c>
       <c r="K69">
         <v>1</v>
       </c>
@@ -3135,7 +3237,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3158,6 +3260,9 @@
       <c r="I70">
         <v>10</v>
       </c>
+      <c r="J70">
+        <v>16</v>
+      </c>
       <c r="K70">
         <v>1</v>
       </c>
@@ -3166,7 +3271,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3217,6 +3322,9 @@
       <c r="I72">
         <v>10</v>
       </c>
+      <c r="J72">
+        <v>14</v>
+      </c>
       <c r="K72">
         <v>2</v>
       </c>
@@ -3225,7 +3333,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3248,12 +3356,15 @@
       <c r="I73">
         <v>10</v>
       </c>
+      <c r="J73">
+        <v>18</v>
+      </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3276,6 +3387,9 @@
       <c r="I74">
         <v>10</v>
       </c>
+      <c r="J74">
+        <v>18</v>
+      </c>
       <c r="K74">
         <v>1</v>
       </c>
@@ -3284,7 +3398,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,6 +3421,9 @@
       <c r="I75">
         <v>10</v>
       </c>
+      <c r="J75">
+        <v>18</v>
+      </c>
       <c r="K75">
         <v>2</v>
       </c>
@@ -3315,7 +3432,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,6 +3455,9 @@
       <c r="I76">
         <v>10</v>
       </c>
+      <c r="J76">
+        <v>20</v>
+      </c>
       <c r="K76">
         <v>2</v>
       </c>
@@ -3346,7 +3466,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3369,6 +3489,9 @@
       <c r="I77">
         <v>10</v>
       </c>
+      <c r="J77">
+        <v>20</v>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
@@ -3377,7 +3500,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3400,6 +3523,9 @@
       <c r="I78">
         <v>10</v>
       </c>
+      <c r="J78">
+        <v>16</v>
+      </c>
       <c r="K78">
         <v>1</v>
       </c>
@@ -3408,7 +3534,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3431,12 +3557,15 @@
       <c r="I79">
         <v>10</v>
       </c>
+      <c r="J79">
+        <v>16</v>
+      </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3518,12 +3647,15 @@
       <c r="I82">
         <v>10</v>
       </c>
+      <c r="J82">
+        <v>18</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,6 +3759,9 @@
       <c r="I86">
         <v>10</v>
       </c>
+      <c r="J86">
+        <v>18</v>
+      </c>
       <c r="K86">
         <v>2</v>
       </c>
@@ -3635,7 +3770,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3658,6 +3793,9 @@
       <c r="I87">
         <v>10</v>
       </c>
+      <c r="J87">
+        <v>18</v>
+      </c>
       <c r="K87">
         <v>1</v>
       </c>
@@ -3666,7 +3804,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,6 +3827,9 @@
       <c r="I88">
         <v>10</v>
       </c>
+      <c r="J88">
+        <v>18</v>
+      </c>
       <c r="K88">
         <v>1</v>
       </c>
@@ -3697,7 +3838,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3742,12 +3883,15 @@
       <c r="H90">
         <v>14</v>
       </c>
+      <c r="J90">
+        <v>18</v>
+      </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="N90">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3879,6 +4023,9 @@
       <c r="H95">
         <v>18</v>
       </c>
+      <c r="J95">
+        <v>18</v>
+      </c>
       <c r="K95">
         <v>1</v>
       </c>
@@ -3887,7 +4034,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -635,12 +635,24 @@
   </si>
   <si>
     <t>JOSAILICE AIMER CASANOVA MONTERO</t>
+  </si>
+  <si>
+    <t>17-EIIN-1-087</t>
+  </si>
+  <si>
+    <t>Julio Lebron</t>
+  </si>
+  <si>
+    <t>16-SIIT-1-022</t>
+  </si>
+  <si>
+    <t>Darlin Mojica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -680,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -744,11 +756,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -776,6 +797,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,11 +1203,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1352,6 +1376,9 @@
       <c r="I4">
         <v>10</v>
       </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
       <c r="K4">
         <v>2</v>
       </c>
@@ -1360,7 +1387,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1383,6 +1410,9 @@
       <c r="I5">
         <v>10</v>
       </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
       <c r="K5">
         <v>2</v>
       </c>
@@ -1391,7 +1421,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1420,9 +1450,12 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1492,12 +1525,15 @@
       <c r="I9">
         <v>10</v>
       </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1539,12 +1575,15 @@
       <c r="I11">
         <v>10</v>
       </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,12 +1600,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6"/>
+      <c r="J12">
+        <v>13</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1642,12 +1684,15 @@
       <c r="H15">
         <v>18</v>
       </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1692,12 +1737,15 @@
       <c r="I17">
         <v>10</v>
       </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1720,12 +1768,15 @@
       <c r="I18">
         <v>10</v>
       </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1745,12 +1796,15 @@
       <c r="I19">
         <v>10</v>
       </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1798,12 +1852,15 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="6"/>
+      <c r="J21">
+        <v>6</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,6 +1877,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="6"/>
+      <c r="J22">
+        <v>20</v>
+      </c>
       <c r="K22">
         <v>2</v>
       </c>
@@ -1828,7 +1888,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1870,6 +1930,9 @@
       <c r="H24">
         <v>18</v>
       </c>
+      <c r="J24">
+        <v>17</v>
+      </c>
       <c r="K24">
         <v>2</v>
       </c>
@@ -1878,7 +1941,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1923,6 +1986,9 @@
       <c r="I26">
         <v>10</v>
       </c>
+      <c r="J26">
+        <v>13</v>
+      </c>
       <c r="K26">
         <v>1</v>
       </c>
@@ -1931,7 +1997,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2013,12 +2079,18 @@
       <c r="I29">
         <v>10</v>
       </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2044,9 +2116,12 @@
       <c r="K30">
         <v>1</v>
       </c>
+      <c r="L30">
+        <v>18</v>
+      </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2075,9 +2150,12 @@
       <c r="K31">
         <v>1</v>
       </c>
+      <c r="L31">
+        <v>16</v>
+      </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,11 +2182,14 @@
         <v>16</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>18</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2249,6 +2330,9 @@
       <c r="I37">
         <v>10</v>
       </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
       <c r="K37">
         <v>2</v>
       </c>
@@ -2257,7 +2341,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2311,12 +2395,15 @@
       <c r="I39">
         <v>10</v>
       </c>
+      <c r="J39">
+        <v>13</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2420,12 +2507,18 @@
       <c r="I43">
         <v>10</v>
       </c>
+      <c r="J43">
+        <v>14</v>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
+      <c r="L43">
+        <v>17</v>
+      </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2445,12 +2538,18 @@
       <c r="H44">
         <v>14</v>
       </c>
+      <c r="J44">
+        <v>13</v>
+      </c>
       <c r="K44">
         <v>1</v>
       </c>
+      <c r="L44">
+        <v>18</v>
+      </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2569,6 +2668,9 @@
       <c r="I48">
         <v>10</v>
       </c>
+      <c r="J48">
+        <v>14</v>
+      </c>
       <c r="K48">
         <v>2</v>
       </c>
@@ -2577,7 +2679,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2600,6 +2702,9 @@
       <c r="I49">
         <v>10</v>
       </c>
+      <c r="J49">
+        <v>15</v>
+      </c>
       <c r="K49">
         <v>2</v>
       </c>
@@ -2608,7 +2713,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2787,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -2815,11 +2920,14 @@
         <v>10</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>17</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3294,12 +3402,15 @@
       <c r="I71">
         <v>10</v>
       </c>
+      <c r="J71">
+        <v>13</v>
+      </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3362,9 +3473,12 @@
       <c r="K73">
         <v>1</v>
       </c>
+      <c r="L73">
+        <v>16</v>
+      </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3588,12 +3702,15 @@
       <c r="I80">
         <v>10</v>
       </c>
+      <c r="J80">
+        <v>13</v>
+      </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3616,6 +3733,9 @@
       <c r="I81">
         <v>10</v>
       </c>
+      <c r="J81">
+        <v>15</v>
+      </c>
       <c r="K81">
         <v>2</v>
       </c>
@@ -3624,7 +3744,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,12 +3798,15 @@
       <c r="I83">
         <v>10</v>
       </c>
+      <c r="J83">
+        <v>15</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,12 +3829,15 @@
       <c r="I84">
         <v>10</v>
       </c>
+      <c r="J84">
+        <v>15</v>
+      </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="N84">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3887,11 +4013,14 @@
         <v>18</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>18</v>
       </c>
       <c r="N90">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3914,12 +4043,15 @@
       <c r="I91">
         <v>10</v>
       </c>
+      <c r="J91">
+        <v>13</v>
+      </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="N91">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,6 +4071,9 @@
       <c r="H92">
         <v>14</v>
       </c>
+      <c r="J92">
+        <v>13</v>
+      </c>
       <c r="K92">
         <v>1</v>
       </c>
@@ -3947,7 +4082,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3970,6 +4105,9 @@
       <c r="I93">
         <v>10</v>
       </c>
+      <c r="J93">
+        <v>13</v>
+      </c>
       <c r="K93">
         <v>1</v>
       </c>
@@ -3978,7 +4116,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3998,12 +4136,15 @@
       <c r="H94">
         <v>14</v>
       </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4057,6 +4198,28 @@
       <c r="N96">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B97" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B98" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J98">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -647,13 +647,16 @@
   </si>
   <si>
     <t>Darlin Mojica</t>
+  </si>
+  <si>
+    <t>Diego feliz 17-EIIT-1-024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -676,6 +679,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -769,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -801,6 +809,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,11 +1212,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1349,11 +1358,17 @@
         <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">IF((H3+I3+J3+L3+M3+O3)&lt;70,IF((H3+I3+J3+L3+M3+O3)&gt;59,70,(H3+I3+J3+L3+M3+O3)),(H3+I3+J3+L3+M3+O3))</f>
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,9 +1468,12 @@
       <c r="L6">
         <v>16</v>
       </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1690,9 +1708,15 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,9 +1767,12 @@
       <c r="K17">
         <v>1</v>
       </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1886,9 +1913,12 @@
       <c r="L22">
         <v>17</v>
       </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1939,9 +1969,12 @@
       <c r="L24">
         <v>17</v>
       </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2026,9 +2059,12 @@
       <c r="L27">
         <v>15</v>
       </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,9 +2155,12 @@
       <c r="L30">
         <v>18</v>
       </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2153,9 +2192,12 @@
       <c r="L31">
         <v>16</v>
       </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2218,9 +2260,12 @@
       <c r="K33">
         <v>1</v>
       </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,9 +2350,12 @@
       <c r="K36">
         <v>1</v>
       </c>
+      <c r="M36">
+        <v>29</v>
+      </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2339,9 +2387,12 @@
       <c r="L37">
         <v>18</v>
       </c>
+      <c r="M37">
+        <v>29</v>
+      </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2370,9 +2421,15 @@
       <c r="K38">
         <v>1</v>
       </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+      <c r="M38">
+        <v>29</v>
+      </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2401,9 +2458,15 @@
       <c r="K39">
         <v>1</v>
       </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,9 +2520,12 @@
       <c r="L41">
         <v>18</v>
       </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2516,9 +2582,12 @@
       <c r="L43">
         <v>17</v>
       </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2547,9 +2616,12 @@
       <c r="L44">
         <v>18</v>
       </c>
+      <c r="M44">
+        <v>15</v>
+      </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2578,9 +2650,15 @@
       <c r="K45">
         <v>1</v>
       </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>29</v>
+      </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2612,9 +2690,12 @@
       <c r="L46">
         <v>16</v>
       </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,9 +2724,15 @@
       <c r="K47">
         <v>1</v>
       </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>29</v>
+      </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2805,11 +2892,14 @@
         <v>16</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>18</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2894,9 +2984,12 @@
       <c r="K55">
         <v>2</v>
       </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2987,9 +3080,12 @@
       <c r="L58">
         <v>16</v>
       </c>
+      <c r="M58">
+        <v>29</v>
+      </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3018,9 +3114,12 @@
       <c r="K59">
         <v>1</v>
       </c>
+      <c r="M59">
+        <v>29</v>
+      </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3052,9 +3151,12 @@
       <c r="L60">
         <v>17</v>
       </c>
+      <c r="M60">
+        <v>29</v>
+      </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,9 +3188,12 @@
       <c r="L61">
         <v>17</v>
       </c>
+      <c r="M61">
+        <v>29</v>
+      </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3185,9 +3290,12 @@
       <c r="L64">
         <v>17</v>
       </c>
+      <c r="M64">
+        <v>30</v>
+      </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3219,9 +3327,12 @@
       <c r="L65">
         <v>15</v>
       </c>
+      <c r="M65">
+        <v>29</v>
+      </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,9 +3364,12 @@
       <c r="L66">
         <v>16</v>
       </c>
+      <c r="M66">
+        <v>15</v>
+      </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3312,9 +3426,12 @@
       <c r="L68">
         <v>18</v>
       </c>
+      <c r="M68">
+        <v>30</v>
+      </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3377,9 +3494,12 @@
       <c r="L70">
         <v>20</v>
       </c>
+      <c r="M70">
+        <v>30</v>
+      </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3408,9 +3528,12 @@
       <c r="K71">
         <v>1</v>
       </c>
+      <c r="M71">
+        <v>30</v>
+      </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3442,9 +3565,12 @@
       <c r="L72">
         <v>16</v>
       </c>
+      <c r="M72">
+        <v>29</v>
+      </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,9 +3602,12 @@
       <c r="L73">
         <v>16</v>
       </c>
+      <c r="M73">
+        <v>29</v>
+      </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3510,9 +3639,12 @@
       <c r="L74">
         <v>15</v>
       </c>
+      <c r="M74">
+        <v>29</v>
+      </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3544,9 +3676,12 @@
       <c r="L75">
         <v>17</v>
       </c>
+      <c r="M75">
+        <v>30</v>
+      </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3578,9 +3713,12 @@
       <c r="L76">
         <v>16</v>
       </c>
+      <c r="M76">
+        <v>30</v>
+      </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3646,9 +3784,12 @@
       <c r="L78">
         <v>16</v>
       </c>
+      <c r="M78">
+        <v>30</v>
+      </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3677,9 +3818,15 @@
       <c r="K79">
         <v>1</v>
       </c>
+      <c r="L79">
+        <v>14</v>
+      </c>
+      <c r="M79">
+        <v>15</v>
+      </c>
       <c r="N79">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,9 +4041,12 @@
       <c r="L86">
         <v>16</v>
       </c>
+      <c r="M86">
+        <v>30</v>
+      </c>
       <c r="N86">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3928,9 +4078,12 @@
       <c r="L87">
         <v>16</v>
       </c>
+      <c r="M87">
+        <v>30</v>
+      </c>
       <c r="N87">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3962,9 +4115,12 @@
       <c r="L88">
         <v>18</v>
       </c>
+      <c r="M88">
+        <v>30</v>
+      </c>
       <c r="N88">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4018,9 +4174,12 @@
       <c r="L90">
         <v>18</v>
       </c>
+      <c r="M90">
+        <v>28</v>
+      </c>
       <c r="N90">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4049,9 +4208,12 @@
       <c r="K91">
         <v>1</v>
       </c>
+      <c r="M91">
+        <v>28</v>
+      </c>
       <c r="N91">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4080,9 +4242,12 @@
       <c r="L92">
         <v>17</v>
       </c>
+      <c r="M92">
+        <v>15</v>
+      </c>
       <c r="N92">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4142,9 +4307,12 @@
       <c r="K94">
         <v>1</v>
       </c>
+      <c r="M94">
+        <v>28</v>
+      </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4173,9 +4341,12 @@
       <c r="L95">
         <v>18</v>
       </c>
+      <c r="M95">
+        <v>20</v>
+      </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4200,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="12" t="s">
         <v>204</v>
       </c>
@@ -4210,8 +4381,14 @@
       <c r="J97">
         <v>15</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>14</v>
+      </c>
+      <c r="M97">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="12" t="s">
         <v>206</v>
       </c>
@@ -4220,6 +4397,17 @@
       </c>
       <c r="J98">
         <v>15</v>
+      </c>
+      <c r="L98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C99" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="M99">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -1215,8 +1215,8 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1400,9 +1400,12 @@
       <c r="L4">
         <v>18</v>
       </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,12 +1770,15 @@
       <c r="K17">
         <v>1</v>
       </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
       <c r="M17">
         <v>20</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1801,9 +1807,12 @@
       <c r="K18">
         <v>1</v>
       </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2258,14 +2267,17 @@
         <v>14</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>20</v>
       </c>
       <c r="M33">
         <v>15</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2350,12 +2362,15 @@
       <c r="K36">
         <v>1</v>
       </c>
+      <c r="L36">
+        <v>15</v>
+      </c>
       <c r="M36">
         <v>29</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2798,9 +2813,12 @@
       <c r="L49">
         <v>17</v>
       </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3112,14 +3130,17 @@
         <v>18</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>20</v>
       </c>
       <c r="M59">
         <v>29</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3225,9 +3246,12 @@
       <c r="L62">
         <v>18</v>
       </c>
+      <c r="M62">
+        <v>30</v>
+      </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3528,12 +3552,15 @@
       <c r="K71">
         <v>1</v>
       </c>
+      <c r="L71">
+        <v>15</v>
+      </c>
       <c r="M71">
         <v>30</v>
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3853,11 +3880,14 @@
         <v>13</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>20</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,11 +3948,14 @@
         <v>18</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>20</v>
       </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3949,11 +3982,14 @@
         <v>15</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>20</v>
       </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3980,11 +4016,14 @@
         <v>15</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>20</v>
       </c>
       <c r="N84">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4206,14 +4245,17 @@
         <v>13</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>20</v>
       </c>
       <c r="M91">
         <v>28</v>
       </c>
       <c r="N91">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4305,14 +4347,17 @@
         <v>10</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>20</v>
       </c>
       <c r="M94">
         <v>28</v>
       </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -15,7 +15,7 @@
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$99</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -777,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -809,7 +809,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,8 +1220,8 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1344,10 +1349,22 @@
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="6">
+        <f>IF((N3)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <f>IF((N3)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <f>IF((N3)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <f>IF((N3)&gt;=70,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <v>23</v>
+      </c>
       <c r="H3">
         <v>14</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">IF((H3+I3+J3+L3+M3+O3)&lt;70,IF((H3+I3+J3+L3+M3+O3)&gt;59,70,(H3+I3+J3+L3+M3+O3)),(H3+I3+J3+L3+M3+O3))</f>
+        <f>IF((H3+I3+J3+L3+M3+O3)&lt;70,IF((H3+I3+J3+L3+M3+O3)&gt;59,70,(H3+I3+J3+L3+M3+O3)),(H3+I3+J3+L3+M3+O3))</f>
         <v>73</v>
       </c>
     </row>
@@ -1381,10 +1398,22 @@
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="6">
+        <f>IF((N4)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <f>IF((N4)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <f>IF((N4)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <f>IF((N4)&gt;=70,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
+        <v>41</v>
+      </c>
       <c r="H4">
         <v>18</v>
       </c>
@@ -1404,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f>IF((H4+I4+J4+L4+M4+O4)&lt;70,IF((H4+I4+J4+L4+M4+O4)&gt;59,70,(H4+I4+J4+L4+M4+O4)),(H4+I4+J4+L4+M4+O4))</f>
         <v>91</v>
       </c>
     </row>
@@ -1418,10 +1447,22 @@
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="6">
+        <f>IF((N5)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f>IF((N5)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <f>IF((N5)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <f>IF((N5)&gt;=70,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H5">
         <v>16</v>
       </c>
@@ -1437,9 +1478,12 @@
       <c r="L5">
         <v>17</v>
       </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>IF((H5+I5+J5+L5+M5+O5)&lt;70,IF((H5+I5+J5+L5+M5+O5)&gt;59,70,(H5+I5+J5+L5+M5+O5)),(H5+I5+J5+L5+M5+O5))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1452,10 +1496,22 @@
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="6">
+        <f>IF((N6)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <f>IF((N6)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <f>IF((N6)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G6" s="6">
+        <f>IF((N6)&gt;=70,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
+        <v>25</v>
+      </c>
       <c r="H6">
         <v>14</v>
       </c>
@@ -1475,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f>IF((H6+I6+J6+L6+M6+O6)&lt;70,IF((H6+I6+J6+L6+M6+O6)&gt;59,70,(H6+I6+J6+L6+M6+O6)),(H6+I6+J6+L6+M6+O6))</f>
         <v>75</v>
       </c>
     </row>
@@ -1489,15 +1545,27 @@
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="6" t="str">
+        <f>IF((N7)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IF((N7)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IF((N7)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>IF((N7)&gt;=70,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f>IF((H7+I7+J7+L7+M7+O7)&lt;70,IF((H7+I7+J7+L7+M7+O7)&gt;59,70,(H7+I7+J7+L7+M7+O7)),(H7+I7+J7+L7+M7+O7))</f>
         <v>0</v>
       </c>
     </row>
@@ -1511,10 +1579,22 @@
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="6" t="str">
+        <f>IF((N8)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IF((N8)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IF((N8)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f>IF((N8)&gt;=70,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H8">
         <v>15</v>
       </c>
@@ -1525,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f>IF((H8+I8+J8+L8+M8+O8)&lt;70,IF((H8+I8+J8+L8+M8+O8)&gt;59,70,(H8+I8+J8+L8+M8+O8)),(H8+I8+J8+L8+M8+O8))</f>
         <v>32</v>
       </c>
     </row>
@@ -1539,10 +1619,22 @@
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="6" t="str">
+        <f>IF((N9)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IF((N9)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IF((N9)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f>IF((N9)&gt;=70,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
+        <v/>
+      </c>
       <c r="I9">
         <v>10</v>
       </c>
@@ -1553,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f>IF((H9+I9+J9+L9+M9+O9)&lt;70,IF((H9+I9+J9+L9+M9+O9)&gt;59,70,(H9+I9+J9+L9+M9+O9)),(H9+I9+J9+L9+M9+O9))</f>
         <v>16</v>
       </c>
     </row>
@@ -1567,15 +1659,27 @@
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="6" t="str">
+        <f>IF((N10)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IF((N10)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>IF((N10)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>IF((N10)&gt;=70,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f>IF((H10+I10+J10+L10+M10+O10)&lt;70,IF((H10+I10+J10+L10+M10+O10)&gt;59,70,(H10+I10+J10+L10+M10+O10)),(H10+I10+J10+L10+M10+O10))</f>
         <v>0</v>
       </c>
     </row>
@@ -1589,10 +1693,22 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="6" t="str">
+        <f>IF((N11)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IF((N11)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IF((N11)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>IF((N11)&gt;=70,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
+        <v/>
+      </c>
       <c r="I11">
         <v>10</v>
       </c>
@@ -1603,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f>IF((H11+I11+J11+L11+M11+O11)&lt;70,IF((H11+I11+J11+L11+M11+O11)&gt;59,70,(H11+I11+J11+L11+M11+O11)),(H11+I11+J11+L11+M11+O11))</f>
         <v>16</v>
       </c>
     </row>
@@ -1617,10 +1733,22 @@
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="6" t="str">
+        <f>IF((N12)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IF((N12)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>IF((N12)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f>IF((N12)&gt;=70,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
+        <v/>
+      </c>
       <c r="J12">
         <v>13</v>
       </c>
@@ -1628,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f>IF((H12+I12+J12+L12+M12+O12)&lt;70,IF((H12+I12+J12+L12+M12+O12)&gt;59,70,(H12+I12+J12+L12+M12+O12)),(H12+I12+J12+L12+M12+O12))</f>
         <v>13</v>
       </c>
     </row>
@@ -1642,10 +1770,22 @@
       <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="6" t="str">
+        <f>IF((N13)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>IF((N13)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>IF((N13)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>IF((N13)&gt;=70,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H13">
         <v>14</v>
       </c>
@@ -1662,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f>IF((H13+I13+J13+L13+M13+O13)&lt;70,IF((H13+I13+J13+L13+M13+O13)&gt;59,70,(H13+I13+J13+L13+M13+O13)),(H13+I13+J13+L13+M13+O13))</f>
         <v>54</v>
       </c>
     </row>
@@ -1676,15 +1816,27 @@
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="6" t="str">
+        <f>IF((N14)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>IF((N14)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>IF((N14)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f>IF((N14)&gt;=70,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f>IF((H14+I14+J14+L14+M14+O14)&lt;70,IF((H14+I14+J14+L14+M14+O14)&gt;59,70,(H14+I14+J14+L14+M14+O14)),(H14+I14+J14+L14+M14+O14))</f>
         <v>0</v>
       </c>
     </row>
@@ -1698,10 +1850,22 @@
       <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="6">
+        <f>IF((N15)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <f>IF((N15)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <f>IF((N15)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G15" s="6">
+        <f>IF((N15)&gt;=70,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
+        <v>27</v>
+      </c>
       <c r="H15">
         <v>18</v>
       </c>
@@ -1718,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f>IF((H15+I15+J15+L15+M15+O15)&lt;70,IF((H15+I15+J15+L15+M15+O15)&gt;59,70,(H15+I15+J15+L15+M15+O15)),(H15+I15+J15+L15+M15+O15))</f>
         <v>77</v>
       </c>
     </row>
@@ -1732,15 +1896,27 @@
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="6" t="str">
+        <f>IF((N16)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>IF((N16)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>IF((N16)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f>IF((N16)&gt;=70,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f>IF((H16+I16+J16+L16+M16+O16)&lt;70,IF((H16+I16+J16+L16+M16+O16)&gt;59,70,(H16+I16+J16+L16+M16+O16)),(H16+I16+J16+L16+M16+O16))</f>
         <v>0</v>
       </c>
     </row>
@@ -1754,10 +1930,22 @@
       <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="6">
+        <f>IF((N17)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f>IF((N17)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <f>IF((N17)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G17" s="6">
+        <f>IF((N17)&gt;=70,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H17">
         <v>18</v>
       </c>
@@ -1777,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f>IF((H17+I17+J17+L17+M17+O17)&lt;70,IF((H17+I17+J17+L17+M17+O17)&gt;59,70,(H17+I17+J17+L17+M17+O17)),(H17+I17+J17+L17+M17+O17))</f>
         <v>70</v>
       </c>
     </row>
@@ -1791,10 +1979,22 @@
       <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="6" t="str">
+        <f>IF((N18)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>IF((N18)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f>IF((N18)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f>IF((N18)&gt;=70,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H18">
         <v>14</v>
       </c>
@@ -1811,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f>IF((H18+I18+J18+L18+M18+O18)&lt;70,IF((H18+I18+J18+L18+M18+O18)&gt;59,70,(H18+I18+J18+L18+M18+O18)),(H18+I18+J18+L18+M18+O18))</f>
         <v>51</v>
       </c>
     </row>
@@ -1825,10 +2025,22 @@
       <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="6" t="str">
+        <f>IF((N19)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>IF((N19)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>IF((N19)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f>IF((N19)&gt;=70,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
+        <v/>
+      </c>
       <c r="I19">
         <v>10</v>
       </c>
@@ -1839,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f>IF((H19+I19+J19+L19+M19+O19)&lt;70,IF((H19+I19+J19+L19+M19+O19)&gt;59,70,(H19+I19+J19+L19+M19+O19)),(H19+I19+J19+L19+M19+O19))</f>
         <v>16</v>
       </c>
     </row>
@@ -1853,10 +2065,22 @@
       <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="6">
+        <f>IF((N20)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <f>IF((N20)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <f>IF((N20)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="6">
+        <f>IF((N20)&gt;=70,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="I20">
         <v>10</v>
       </c>
@@ -1869,9 +2093,12 @@
       <c r="L20">
         <v>14</v>
       </c>
+      <c r="M20">
+        <v>29</v>
+      </c>
       <c r="N20">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f>IF((H20+I20+J20+L20+M20+O20)&lt;70,IF((H20+I20+J20+L20+M20+O20)&gt;59,70,(H20+I20+J20+L20+M20+O20)),(H20+I20+J20+L20+M20+O20))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1884,10 +2111,22 @@
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="6" t="str">
+        <f>IF((N21)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>IF((N21)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f>IF((N21)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f>IF((N21)&gt;=70,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
+        <v/>
+      </c>
       <c r="J21">
         <v>6</v>
       </c>
@@ -1895,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f>IF((H21+I21+J21+L21+M21+O21)&lt;70,IF((H21+I21+J21+L21+M21+O21)&gt;59,70,(H21+I21+J21+L21+M21+O21)),(H21+I21+J21+L21+M21+O21))</f>
         <v>6</v>
       </c>
     </row>
@@ -1909,10 +2148,22 @@
       <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="6">
+        <f>IF((N22)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <f>IF((N22)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <f>IF((N22)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <f>IF((N22)&gt;=70,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="J22">
         <v>20</v>
       </c>
@@ -1923,11 +2174,11 @@
         <v>17</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f>IF((H22+I22+J22+L22+M22+O22)&lt;70,IF((H22+I22+J22+L22+M22+O22)&gt;59,70,(H22+I22+J22+L22+M22+O22)),(H22+I22+J22+L22+M22+O22))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1940,15 +2191,27 @@
       <c r="C23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="6" t="str">
+        <f>IF((N23)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>IF((N23)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f>IF((N23)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f>IF((N23)&gt;=70,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f>IF((H23+I23+J23+L23+M23+O23)&lt;70,IF((H23+I23+J23+L23+M23+O23)&gt;59,70,(H23+I23+J23+L23+M23+O23)),(H23+I23+J23+L23+M23+O23))</f>
         <v>0</v>
       </c>
     </row>
@@ -1962,10 +2225,22 @@
       <c r="C24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="6">
+        <f>IF((N24)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <f>IF((N24)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <f>IF((N24)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G24" s="6">
+        <f>IF((N24)&gt;=70,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
+        <v>22</v>
+      </c>
       <c r="H24">
         <v>18</v>
       </c>
@@ -1982,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f>IF((H24+I24+J24+L24+M24+O24)&lt;70,IF((H24+I24+J24+L24+M24+O24)&gt;59,70,(H24+I24+J24+L24+M24+O24)),(H24+I24+J24+L24+M24+O24))</f>
         <v>72</v>
       </c>
     </row>
@@ -1996,15 +2271,27 @@
       <c r="C25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="6" t="str">
+        <f>IF((N25)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>IF((N25)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>IF((N25)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f>IF((N25)&gt;=70,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f>IF((H25+I25+J25+L25+M25+O25)&lt;70,IF((H25+I25+J25+L25+M25+O25)&gt;59,70,(H25+I25+J25+L25+M25+O25)),(H25+I25+J25+L25+M25+O25))</f>
         <v>0</v>
       </c>
     </row>
@@ -2018,10 +2305,22 @@
       <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="6" t="str">
+        <f>IF((N26)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>IF((N26)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f>IF((N26)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f>IF((N26)&gt;=70,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H26">
         <v>14</v>
       </c>
@@ -2038,7 +2337,7 @@
         <v>16</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f>IF((H26+I26+J26+L26+M26+O26)&lt;70,IF((H26+I26+J26+L26+M26+O26)&gt;59,70,(H26+I26+J26+L26+M26+O26)),(H26+I26+J26+L26+M26+O26))</f>
         <v>53</v>
       </c>
     </row>
@@ -2052,10 +2351,22 @@
       <c r="C27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="6">
+        <f>IF((N27)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <f>IF((N27)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <f>IF((N27)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G27" s="6">
+        <f>IF((N27)&gt;=70,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="I27">
         <v>10</v>
       </c>
@@ -2069,11 +2380,11 @@
         <v>15</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>IF((H27+I27+J27+L27+M27+O27)&lt;70,IF((H27+I27+J27+L27+M27+O27)&gt;59,70,(H27+I27+J27+L27+M27+O27)),(H27+I27+J27+L27+M27+O27))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2086,10 +2397,22 @@
       <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="6">
+        <f>IF((N28)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <f>IF((N28)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <f>IF((N28)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G28" s="6">
+        <f>IF((N28)&gt;=70,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H28">
         <v>15</v>
       </c>
@@ -2102,9 +2425,12 @@
       <c r="L28">
         <v>18</v>
       </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
       <c r="N28">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>IF((H28+I28+J28+L28+M28+O28)&lt;70,IF((H28+I28+J28+L28+M28+O28)&gt;59,70,(H28+I28+J28+L28+M28+O28)),(H28+I28+J28+L28+M28+O28))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2117,10 +2443,22 @@
       <c r="C29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="6">
+        <f>IF((N29)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <f>IF((N29)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <f>IF((N29)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <f>IF((N29)&gt;=70,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="I29">
         <v>10</v>
       </c>
@@ -2133,9 +2471,12 @@
       <c r="L29">
         <v>16</v>
       </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
       <c r="N29">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>IF((H29+I29+J29+L29+M29+O29)&lt;70,IF((H29+I29+J29+L29+M29+O29)&gt;59,70,(H29+I29+J29+L29+M29+O29)),(H29+I29+J29+L29+M29+O29))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,10 +2489,22 @@
       <c r="C30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="6">
+        <f>IF((N30)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <f>IF((N30)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <f>IF((N30)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G30" s="6">
+        <f>IF((N30)&gt;=70,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
+        <v>24</v>
+      </c>
       <c r="H30">
         <v>18</v>
       </c>
@@ -2168,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f>IF((H30+I30+J30+L30+M30+O30)&lt;70,IF((H30+I30+J30+L30+M30+O30)&gt;59,70,(H30+I30+J30+L30+M30+O30)),(H30+I30+J30+L30+M30+O30))</f>
         <v>74</v>
       </c>
     </row>
@@ -2182,10 +2535,22 @@
       <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="6">
+        <f>IF((N31)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <f>IF((N31)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F31" s="2">
+        <f>IF((N31)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G31" s="6">
+        <f>IF((N31)&gt;=70,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
+        <v>40</v>
+      </c>
       <c r="H31">
         <v>18</v>
       </c>
@@ -2205,7 +2570,7 @@
         <v>30</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f>IF((H31+I31+J31+L31+M31+O31)&lt;70,IF((H31+I31+J31+L31+M31+O31)&gt;59,70,(H31+I31+J31+L31+M31+O31)),(H31+I31+J31+L31+M31+O31))</f>
         <v>90</v>
       </c>
     </row>
@@ -2219,10 +2584,22 @@
       <c r="C32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="6">
+        <f>IF((N32)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <f>IF((N32)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F32" s="2">
+        <f>IF((N32)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G32" s="6">
+        <f>IF((N32)&gt;=70,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
+        <v>30</v>
+      </c>
       <c r="H32">
         <v>15</v>
       </c>
@@ -2238,9 +2615,12 @@
       <c r="L32">
         <v>18</v>
       </c>
+      <c r="M32">
+        <v>21</v>
+      </c>
       <c r="N32">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>IF((H32+I32+J32+L32+M32+O32)&lt;70,IF((H32+I32+J32+L32+M32+O32)&gt;59,70,(H32+I32+J32+L32+M32+O32)),(H32+I32+J32+L32+M32+O32))</f>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,10 +2633,22 @@
       <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="6">
+        <f>IF((N33)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <f>IF((N33)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <f>IF((N33)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G33" s="6">
+        <f>IF((N33)&gt;=70,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
+        <v>23</v>
+      </c>
       <c r="H33">
         <v>14</v>
       </c>
@@ -2276,7 +2668,7 @@
         <v>15</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f>IF((H33+I33+J33+L33+M33+O33)&lt;70,IF((H33+I33+J33+L33+M33+O33)&gt;59,70,(H33+I33+J33+L33+M33+O33)),(H33+I33+J33+L33+M33+O33))</f>
         <v>73</v>
       </c>
     </row>
@@ -2290,10 +2682,22 @@
       <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="6">
+        <f>IF((N34)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <f>IF((N34)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <f>IF((N34)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G34" s="6">
+        <f>IF((N34)&gt;=70,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H34">
         <v>18</v>
       </c>
@@ -2306,9 +2710,12 @@
       <c r="L34">
         <v>15</v>
       </c>
+      <c r="M34">
+        <v>11</v>
+      </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f>IF((H34+I34+J34+L34+M34+O34)&lt;70,IF((H34+I34+J34+L34+M34+O34)&gt;59,70,(H34+I34+J34+L34+M34+O34)),(H34+I34+J34+L34+M34+O34))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2321,10 +2728,22 @@
       <c r="C35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="6" t="str">
+        <f>IF((N35)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f>IF((N35)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f>IF((N35)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f>IF((N35)&gt;=70,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
+        <v/>
+      </c>
       <c r="I35">
         <v>10</v>
       </c>
@@ -2332,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f>IF((H35+I35+J35+L35+M35+O35)&lt;70,IF((H35+I35+J35+L35+M35+O35)&gt;59,70,(H35+I35+J35+L35+M35+O35)),(H35+I35+J35+L35+M35+O35))</f>
         <v>10</v>
       </c>
     </row>
@@ -2346,10 +2765,22 @@
       <c r="C36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="6">
+        <f>IF((N36)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
+        <f>IF((N36)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F36" s="2">
+        <f>IF((N36)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G36" s="6">
+        <f>IF((N36)&gt;=70,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
+        <v>39</v>
+      </c>
       <c r="H36">
         <v>17</v>
       </c>
@@ -2369,7 +2800,7 @@
         <v>29</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f>IF((H36+I36+J36+L36+M36+O36)&lt;70,IF((H36+I36+J36+L36+M36+O36)&gt;59,70,(H36+I36+J36+L36+M36+O36)),(H36+I36+J36+L36+M36+O36))</f>
         <v>89</v>
       </c>
     </row>
@@ -2383,10 +2814,22 @@
       <c r="C37" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="6">
+        <f>IF((N37)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <f>IF((N37)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <f>IF((N37)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G37" s="6">
+        <f>IF((N37)&gt;=70,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
+        <v>45</v>
+      </c>
       <c r="H37">
         <v>18</v>
       </c>
@@ -2406,7 +2849,7 @@
         <v>29</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f>IF((H37+I37+J37+L37+M37+O37)&lt;70,IF((H37+I37+J37+L37+M37+O37)&gt;59,70,(H37+I37+J37+L37+M37+O37)),(H37+I37+J37+L37+M37+O37))</f>
         <v>95</v>
       </c>
     </row>
@@ -2420,10 +2863,22 @@
       <c r="C38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="6">
+        <f>IF((N38)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <f>IF((N38)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <f>IF((N38)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G38" s="6">
+        <f>IF((N38)&gt;=70,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
+        <v>38</v>
+      </c>
       <c r="H38">
         <v>16</v>
       </c>
@@ -2443,7 +2898,7 @@
         <v>29</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f>IF((H38+I38+J38+L38+M38+O38)&lt;70,IF((H38+I38+J38+L38+M38+O38)&gt;59,70,(H38+I38+J38+L38+M38+O38)),(H38+I38+J38+L38+M38+O38))</f>
         <v>88</v>
       </c>
     </row>
@@ -2457,10 +2912,22 @@
       <c r="C39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="6"/>
+      <c r="D39" s="6">
+        <f>IF((N39)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <f>IF((N39)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <f>IF((N39)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G39" s="6">
+        <f>IF((N39)&gt;=70,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
+        <v>33</v>
+      </c>
       <c r="H39">
         <v>16</v>
       </c>
@@ -2480,7 +2947,7 @@
         <v>29</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f>IF((H39+I39+J39+L39+M39+O39)&lt;70,IF((H39+I39+J39+L39+M39+O39)&gt;59,70,(H39+I39+J39+L39+M39+O39)),(H39+I39+J39+L39+M39+O39))</f>
         <v>83</v>
       </c>
     </row>
@@ -2494,10 +2961,22 @@
       <c r="C40" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="6"/>
+      <c r="D40" s="6" t="str">
+        <f>IF((N40)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f>IF((N40)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f>IF((N40)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f>IF((N40)&gt;=70,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
+        <v/>
+      </c>
       <c r="I40">
         <v>10</v>
       </c>
@@ -2505,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f>IF((H40+I40+J40+L40+M40+O40)&lt;70,IF((H40+I40+J40+L40+M40+O40)&gt;59,70,(H40+I40+J40+L40+M40+O40)),(H40+I40+J40+L40+M40+O40))</f>
         <v>10</v>
       </c>
     </row>
@@ -2519,10 +2998,22 @@
       <c r="C41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="6"/>
+      <c r="D41" s="6">
+        <f>IF((N41)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <f>IF((N41)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <f>IF((N41)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G41" s="6">
+        <f>IF((N41)&gt;=70,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H41">
         <v>14</v>
       </c>
@@ -2539,7 +3030,7 @@
         <v>15</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f>IF((H41+I41+J41+L41+M41+O41)&lt;70,IF((H41+I41+J41+L41+M41+O41)&gt;59,70,(H41+I41+J41+L41+M41+O41)),(H41+I41+J41+L41+M41+O41))</f>
         <v>70</v>
       </c>
     </row>
@@ -2553,10 +3044,22 @@
       <c r="C42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="6"/>
+      <c r="D42" s="6" t="str">
+        <f>IF((N42)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f>IF((N42)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f>IF((N42)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G42" s="6" t="str">
+        <f>IF((N42)&gt;=70,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H42">
         <v>18</v>
       </c>
@@ -2564,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f>IF((H42+I42+J42+L42+M42+O42)&lt;70,IF((H42+I42+J42+L42+M42+O42)&gt;59,70,(H42+I42+J42+L42+M42+O42)),(H42+I42+J42+L42+M42+O42))</f>
         <v>18</v>
       </c>
     </row>
@@ -2578,10 +3081,22 @@
       <c r="C43" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="6">
+        <f>IF((N43)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <f>IF((N43)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <f>IF((N43)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G43" s="6">
+        <f>IF((N43)&gt;=70,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H43">
         <v>14</v>
       </c>
@@ -2601,7 +3116,7 @@
         <v>15</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f>IF((H43+I43+J43+L43+M43+O43)&lt;70,IF((H43+I43+J43+L43+M43+O43)&gt;59,70,(H43+I43+J43+L43+M43+O43)),(H43+I43+J43+L43+M43+O43))</f>
         <v>70</v>
       </c>
     </row>
@@ -2615,10 +3130,22 @@
       <c r="C44" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="6"/>
+      <c r="D44" s="6">
+        <f>IF((N44)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <f>IF((N44)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <f>IF((N44)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G44" s="6">
+        <f>IF((N44)&gt;=70,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H44">
         <v>14</v>
       </c>
@@ -2635,7 +3162,7 @@
         <v>15</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f>IF((H44+I44+J44+L44+M44+O44)&lt;70,IF((H44+I44+J44+L44+M44+O44)&gt;59,70,(H44+I44+J44+L44+M44+O44)),(H44+I44+J44+L44+M44+O44))</f>
         <v>70</v>
       </c>
     </row>
@@ -2649,10 +3176,22 @@
       <c r="C45" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="6"/>
+      <c r="D45" s="6">
+        <f>IF((N45)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <f>IF((N45)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F45" s="2">
+        <f>IF((N45)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G45" s="6">
+        <f>IF((N45)&gt;=70,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
+        <v>37</v>
+      </c>
       <c r="H45">
         <v>16</v>
       </c>
@@ -2672,7 +3211,7 @@
         <v>29</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f>IF((H45+I45+J45+L45+M45+O45)&lt;70,IF((H45+I45+J45+L45+M45+O45)&gt;59,70,(H45+I45+J45+L45+M45+O45)),(H45+I45+J45+L45+M45+O45))</f>
         <v>87</v>
       </c>
     </row>
@@ -2686,10 +3225,22 @@
       <c r="C46" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="6"/>
+      <c r="D46" s="6">
+        <f>IF((N46)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <f>IF((N46)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F46" s="2">
+        <f>IF((N46)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G46" s="6">
+        <f>IF((N46)&gt;=70,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
+        <v>23</v>
+      </c>
       <c r="H46">
         <v>14</v>
       </c>
@@ -2709,7 +3260,7 @@
         <v>15</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f>IF((H46+I46+J46+L46+M46+O46)&lt;70,IF((H46+I46+J46+L46+M46+O46)&gt;59,70,(H46+I46+J46+L46+M46+O46)),(H46+I46+J46+L46+M46+O46))</f>
         <v>73</v>
       </c>
     </row>
@@ -2723,10 +3274,22 @@
       <c r="C47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="6"/>
+      <c r="D47" s="6">
+        <f>IF((N47)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <f>IF((N47)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <f>IF((N47)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G47" s="6">
+        <f>IF((N47)&gt;=70,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
+        <v>37</v>
+      </c>
       <c r="H47">
         <v>16</v>
       </c>
@@ -2746,7 +3309,7 @@
         <v>29</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f>IF((H47+I47+J47+L47+M47+O47)&lt;70,IF((H47+I47+J47+L47+M47+O47)&gt;59,70,(H47+I47+J47+L47+M47+O47)),(H47+I47+J47+L47+M47+O47))</f>
         <v>87</v>
       </c>
     </row>
@@ -2760,10 +3323,22 @@
       <c r="C48" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="6"/>
+      <c r="D48" s="6">
+        <f>IF((N48)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E48" s="2">
+        <f>IF((N48)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F48" s="2">
+        <f>IF((N48)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G48" s="6">
+        <f>IF((N48)&gt;=70,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H48">
         <v>18</v>
       </c>
@@ -2779,9 +3354,12 @@
       <c r="L48">
         <v>15</v>
       </c>
+      <c r="M48">
+        <v>13</v>
+      </c>
       <c r="N48">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f>IF((H48+I48+J48+L48+M48+O48)&lt;70,IF((H48+I48+J48+L48+M48+O48)&gt;59,70,(H48+I48+J48+L48+M48+O48)),(H48+I48+J48+L48+M48+O48))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,10 +3372,22 @@
       <c r="C49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="6"/>
+      <c r="D49" s="6">
+        <f>IF((N49)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E49" s="2">
+        <f>IF((N49)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F49" s="2">
+        <f>IF((N49)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G49" s="6">
+        <f>IF((N49)&gt;=70,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
+        <v>40</v>
+      </c>
       <c r="H49">
         <v>18</v>
       </c>
@@ -2817,7 +3407,7 @@
         <v>30</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f>IF((H49+I49+J49+L49+M49+O49)&lt;70,IF((H49+I49+J49+L49+M49+O49)&gt;59,70,(H49+I49+J49+L49+M49+O49)),(H49+I49+J49+L49+M49+O49))</f>
         <v>90</v>
       </c>
     </row>
@@ -2831,10 +3421,22 @@
       <c r="C50" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="6"/>
+      <c r="D50" s="6">
+        <f>IF((N50)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
+        <f>IF((N50)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F50" s="2">
+        <f>IF((N50)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G50" s="6">
+        <f>IF((N50)&gt;=70,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H50">
         <v>16</v>
       </c>
@@ -2851,7 +3453,7 @@
         <v>18</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f>IF((H50+I50+J50+L50+M50+O50)&lt;70,IF((H50+I50+J50+L50+M50+O50)&gt;59,70,(H50+I50+J50+L50+M50+O50)),(H50+I50+J50+L50+M50+O50))</f>
         <v>70</v>
       </c>
     </row>
@@ -2865,10 +3467,22 @@
       <c r="C51" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="6"/>
+      <c r="D51" s="6">
+        <f>IF((N51)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <f>IF((N51)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F51" s="2">
+        <f>IF((N51)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G51" s="6">
+        <f>IF((N51)&gt;=70,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="I51">
         <v>10</v>
       </c>
@@ -2881,9 +3495,12 @@
       <c r="L51">
         <v>17</v>
       </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
       <c r="N51">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>IF((H51+I51+J51+L51+M51+O51)&lt;70,IF((H51+I51+J51+L51+M51+O51)&gt;59,70,(H51+I51+J51+L51+M51+O51)),(H51+I51+J51+L51+M51+O51))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,10 +3513,22 @@
       <c r="C52" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="6"/>
+      <c r="D52" s="6">
+        <f>IF((N52)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <f>IF((N52)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F52" s="2">
+        <f>IF((N52)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G52" s="6">
+        <f>IF((N52)&gt;=70,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H52">
         <v>16</v>
       </c>
@@ -2916,7 +3545,7 @@
         <v>18</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f>IF((H52+I52+J52+L52+M52+O52)&lt;70,IF((H52+I52+J52+L52+M52+O52)&gt;59,70,(H52+I52+J52+L52+M52+O52)),(H52+I52+J52+L52+M52+O52))</f>
         <v>70</v>
       </c>
     </row>
@@ -2930,15 +3559,27 @@
       <c r="C53" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="6"/>
+      <c r="D53" s="6" t="str">
+        <f>IF((N53)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f>IF((N53)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f>IF((N53)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G53" s="6" t="str">
+        <f>IF((N53)&gt;=70,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f>IF((H53+I53+J53+L53+M53+O53)&lt;70,IF((H53+I53+J53+L53+M53+O53)&gt;59,70,(H53+I53+J53+L53+M53+O53)),(H53+I53+J53+L53+M53+O53))</f>
         <v>0</v>
       </c>
     </row>
@@ -2952,10 +3593,22 @@
       <c r="C54" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="6"/>
+      <c r="D54" s="6">
+        <f>IF((N54)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <f>IF((N54)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F54" s="2">
+        <f>IF((N54)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G54" s="6">
+        <f>IF((N54)&gt;=70,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H54">
         <v>16</v>
       </c>
@@ -2971,9 +3624,12 @@
       <c r="L54">
         <v>17</v>
       </c>
+      <c r="M54">
+        <v>13</v>
+      </c>
       <c r="N54">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f>IF((H54+I54+J54+L54+M54+O54)&lt;70,IF((H54+I54+J54+L54+M54+O54)&gt;59,70,(H54+I54+J54+L54+M54+O54)),(H54+I54+J54+L54+M54+O54))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2986,10 +3642,22 @@
       <c r="C55" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="6"/>
+      <c r="D55" s="6">
+        <f>IF((N55)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <f>IF((N55)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F55" s="2">
+        <f>IF((N55)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G55" s="6">
+        <f>IF((N55)&gt;=70,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H55">
         <v>15</v>
       </c>
@@ -3005,9 +3673,12 @@
       <c r="L55">
         <v>14</v>
       </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
       <c r="N55">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>IF((H55+I55+J55+L55+M55+O55)&lt;70,IF((H55+I55+J55+L55+M55+O55)&gt;59,70,(H55+I55+J55+L55+M55+O55)),(H55+I55+J55+L55+M55+O55))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3020,10 +3691,22 @@
       <c r="C56" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="6"/>
+      <c r="D56" s="6">
+        <f>IF((N56)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E56" s="2">
+        <f>IF((N56)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F56" s="2">
+        <f>IF((N56)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G56" s="6">
+        <f>IF((N56)&gt;=70,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H56">
         <v>15</v>
       </c>
@@ -3036,9 +3719,12 @@
       <c r="L56">
         <v>17</v>
       </c>
+      <c r="M56">
+        <v>20</v>
+      </c>
       <c r="N56">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>IF((H56+I56+J56+L56+M56+O56)&lt;70,IF((H56+I56+J56+L56+M56+O56)&gt;59,70,(H56+I56+J56+L56+M56+O56)),(H56+I56+J56+L56+M56+O56))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3051,10 +3737,22 @@
       <c r="C57" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="6"/>
+      <c r="D57" s="6" t="str">
+        <f>IF((N57)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f>IF((N57)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f>IF((N57)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G57" s="6" t="str">
+        <f>IF((N57)&gt;=70,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H57">
         <v>15</v>
       </c>
@@ -3065,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f>IF((H57+I57+J57+L57+M57+O57)&lt;70,IF((H57+I57+J57+L57+M57+O57)&gt;59,70,(H57+I57+J57+L57+M57+O57)),(H57+I57+J57+L57+M57+O57))</f>
         <v>33</v>
       </c>
     </row>
@@ -3079,10 +3777,22 @@
       <c r="C58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="6"/>
+      <c r="D58" s="6">
+        <f>IF((N58)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
+        <f>IF((N58)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F58" s="2">
+        <f>IF((N58)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G58" s="6">
+        <f>IF((N58)&gt;=70,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
+        <v>40</v>
+      </c>
       <c r="H58">
         <v>17</v>
       </c>
@@ -3102,7 +3812,7 @@
         <v>29</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f>IF((H58+I58+J58+L58+M58+O58)&lt;70,IF((H58+I58+J58+L58+M58+O58)&gt;59,70,(H58+I58+J58+L58+M58+O58)),(H58+I58+J58+L58+M58+O58))</f>
         <v>90</v>
       </c>
     </row>
@@ -3116,10 +3826,22 @@
       <c r="C59" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="6"/>
+      <c r="D59" s="6">
+        <f>IF((N59)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
+        <f>IF((N59)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F59" s="2">
+        <f>IF((N59)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G59" s="6">
+        <f>IF((N59)&gt;=70,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
+        <v>44</v>
+      </c>
       <c r="H59">
         <v>17</v>
       </c>
@@ -3139,7 +3861,7 @@
         <v>29</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
+        <f>IF((H59+I59+J59+L59+M59+O59)&lt;70,IF((H59+I59+J59+L59+M59+O59)&gt;59,70,(H59+I59+J59+L59+M59+O59)),(H59+I59+J59+L59+M59+O59))</f>
         <v>94</v>
       </c>
     </row>
@@ -3153,10 +3875,22 @@
       <c r="C60" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="6"/>
+      <c r="D60" s="6">
+        <f>IF((N60)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E60" s="2">
+        <f>IF((N60)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F60" s="2">
+        <f>IF((N60)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G60" s="6">
+        <f>IF((N60)&gt;=70,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
+        <v>41</v>
+      </c>
       <c r="H60">
         <v>17</v>
       </c>
@@ -3176,7 +3910,7 @@
         <v>29</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f>IF((H60+I60+J60+L60+M60+O60)&lt;70,IF((H60+I60+J60+L60+M60+O60)&gt;59,70,(H60+I60+J60+L60+M60+O60)),(H60+I60+J60+L60+M60+O60))</f>
         <v>91</v>
       </c>
     </row>
@@ -3190,10 +3924,22 @@
       <c r="C61" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="6"/>
+      <c r="D61" s="6">
+        <f>IF((N61)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E61" s="2">
+        <f>IF((N61)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F61" s="2">
+        <f>IF((N61)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G61" s="6">
+        <f>IF((N61)&gt;=70,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
+        <v>41</v>
+      </c>
       <c r="H61">
         <v>17</v>
       </c>
@@ -3213,7 +3959,7 @@
         <v>29</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f>IF((H61+I61+J61+L61+M61+O61)&lt;70,IF((H61+I61+J61+L61+M61+O61)&gt;59,70,(H61+I61+J61+L61+M61+O61)),(H61+I61+J61+L61+M61+O61))</f>
         <v>91</v>
       </c>
     </row>
@@ -3227,10 +3973,22 @@
       <c r="C62" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="6"/>
+      <c r="D62" s="6">
+        <f>IF((N62)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E62" s="2">
+        <f>IF((N62)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F62" s="2">
+        <f>IF((N62)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G62" s="6">
+        <f>IF((N62)&gt;=70,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
+        <v>44</v>
+      </c>
       <c r="H62">
         <v>18</v>
       </c>
@@ -3250,7 +4008,7 @@
         <v>30</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f>IF((H62+I62+J62+L62+M62+O62)&lt;70,IF((H62+I62+J62+L62+M62+O62)&gt;59,70,(H62+I62+J62+L62+M62+O62)),(H62+I62+J62+L62+M62+O62))</f>
         <v>94</v>
       </c>
     </row>
@@ -3264,10 +4022,22 @@
       <c r="C63" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="6"/>
+      <c r="D63" s="6">
+        <f>IF((N63)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E63" s="2">
+        <f>IF((N63)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F63" s="2">
+        <f>IF((N63)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G63" s="6">
+        <f>IF((N63)&gt;=70,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H63">
         <v>16</v>
       </c>
@@ -3284,7 +4054,7 @@
         <v>17</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f>IF((H63+I63+J63+L63+M63+O63)&lt;70,IF((H63+I63+J63+L63+M63+O63)&gt;59,70,(H63+I63+J63+L63+M63+O63)),(H63+I63+J63+L63+M63+O63))</f>
         <v>70</v>
       </c>
     </row>
@@ -3298,10 +4068,22 @@
       <c r="C64" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="6"/>
+      <c r="D64" s="6">
+        <f>IF((N64)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E64" s="2">
+        <f>IF((N64)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F64" s="2">
+        <f>IF((N64)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G64" s="6">
+        <f>IF((N64)&gt;=70,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
+        <v>27</v>
+      </c>
       <c r="H64">
         <v>16</v>
       </c>
@@ -3318,7 +4100,7 @@
         <v>30</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f>IF((H64+I64+J64+L64+M64+O64)&lt;70,IF((H64+I64+J64+L64+M64+O64)&gt;59,70,(H64+I64+J64+L64+M64+O64)),(H64+I64+J64+L64+M64+O64))</f>
         <v>77</v>
       </c>
     </row>
@@ -3332,10 +4114,22 @@
       <c r="C65" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="6"/>
+      <c r="D65" s="6">
+        <f>IF((N65)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
+        <f>IF((N65)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F65" s="2">
+        <f>IF((N65)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G65" s="6">
+        <f>IF((N65)&gt;=70,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
+        <v>32</v>
+      </c>
       <c r="H65">
         <v>18</v>
       </c>
@@ -3355,7 +4149,7 @@
         <v>29</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f>IF((H65+I65+J65+L65+M65+O65)&lt;70,IF((H65+I65+J65+L65+M65+O65)&gt;59,70,(H65+I65+J65+L65+M65+O65)),(H65+I65+J65+L65+M65+O65))</f>
         <v>82</v>
       </c>
     </row>
@@ -3369,10 +4163,22 @@
       <c r="C66" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="6"/>
+      <c r="D66" s="6">
+        <f>IF((N66)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E66" s="2">
+        <f>IF((N66)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F66" s="2">
+        <f>IF((N66)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G66" s="6">
+        <f>IF((N66)&gt;=70,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
+        <v>25</v>
+      </c>
       <c r="H66">
         <v>16</v>
       </c>
@@ -3392,7 +4198,7 @@
         <v>15</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
+        <f>IF((H66+I66+J66+L66+M66+O66)&lt;70,IF((H66+I66+J66+L66+M66+O66)&gt;59,70,(H66+I66+J66+L66+M66+O66)),(H66+I66+J66+L66+M66+O66))</f>
         <v>75</v>
       </c>
     </row>
@@ -3406,10 +4212,22 @@
       <c r="C67" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="6"/>
+      <c r="D67" s="6" t="str">
+        <f>IF((N67)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f>IF((N67)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f>IF((N67)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G67" s="6" t="str">
+        <f>IF((N67)&gt;=70,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H67">
         <v>18</v>
       </c>
@@ -3417,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N96" si="1">IF((H67+I67+J67+L67+M67+O67)&lt;70,IF((H67+I67+J67+L67+M67+O67)&gt;59,70,(H67+I67+J67+L67+M67+O67)),(H67+I67+J67+L67+M67+O67))</f>
+        <f>IF((H67+I67+J67+L67+M67+O67)&lt;70,IF((H67+I67+J67+L67+M67+O67)&gt;59,70,(H67+I67+J67+L67+M67+O67)),(H67+I67+J67+L67+M67+O67))</f>
         <v>18</v>
       </c>
     </row>
@@ -3431,10 +4249,22 @@
       <c r="C68" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="6"/>
+      <c r="D68" s="6">
+        <f>IF((N68)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E68" s="2">
+        <f>IF((N68)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F68" s="2">
+        <f>IF((N68)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G68" s="6">
+        <f>IF((N68)&gt;=70,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
+        <v>42</v>
+      </c>
       <c r="H68">
         <v>16</v>
       </c>
@@ -3454,7 +4284,7 @@
         <v>30</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f>IF((H68+I68+J68+L68+M68+O68)&lt;70,IF((H68+I68+J68+L68+M68+O68)&gt;59,70,(H68+I68+J68+L68+M68+O68)),(H68+I68+J68+L68+M68+O68))</f>
         <v>92</v>
       </c>
     </row>
@@ -3468,10 +4298,22 @@
       <c r="C69" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="6"/>
+      <c r="D69" s="6" t="str">
+        <f>IF((N69)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f>IF((N69)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F69" s="2" t="str">
+        <f>IF((N69)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G69" s="6" t="str">
+        <f>IF((N69)&gt;=70,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H69">
         <v>16</v>
       </c>
@@ -3485,7 +4327,7 @@
         <v>17</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f>IF((H69+I69+J69+L69+M69+O69)&lt;70,IF((H69+I69+J69+L69+M69+O69)&gt;59,70,(H69+I69+J69+L69+M69+O69)),(H69+I69+J69+L69+M69+O69))</f>
         <v>53</v>
       </c>
     </row>
@@ -3499,10 +4341,22 @@
       <c r="C70" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="6"/>
+      <c r="D70" s="6">
+        <f>IF((N70)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <f>IF((N70)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F70" s="2">
+        <f>IF((N70)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G70" s="6">
+        <f>IF((N70)&gt;=70,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
+        <v>42</v>
+      </c>
       <c r="H70">
         <v>16</v>
       </c>
@@ -3522,7 +4376,7 @@
         <v>30</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f>IF((H70+I70+J70+L70+M70+O70)&lt;70,IF((H70+I70+J70+L70+M70+O70)&gt;59,70,(H70+I70+J70+L70+M70+O70)),(H70+I70+J70+L70+M70+O70))</f>
         <v>92</v>
       </c>
     </row>
@@ -3536,10 +4390,22 @@
       <c r="C71" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="6"/>
+      <c r="D71" s="6">
+        <f>IF((N71)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E71" s="2">
+        <f>IF((N71)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <f>IF((N71)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G71" s="6">
+        <f>IF((N71)&gt;=70,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
+        <v>34</v>
+      </c>
       <c r="H71">
         <v>16</v>
       </c>
@@ -3559,7 +4425,7 @@
         <v>30</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f>IF((H71+I71+J71+L71+M71+O71)&lt;70,IF((H71+I71+J71+L71+M71+O71)&gt;59,70,(H71+I71+J71+L71+M71+O71)),(H71+I71+J71+L71+M71+O71))</f>
         <v>84</v>
       </c>
     </row>
@@ -3573,10 +4439,22 @@
       <c r="C72" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="6"/>
+      <c r="D72" s="6">
+        <f>IF((N72)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E72" s="2">
+        <f>IF((N72)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F72" s="2">
+        <f>IF((N72)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G72" s="6">
+        <f>IF((N72)&gt;=70,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
+        <v>37</v>
+      </c>
       <c r="H72">
         <v>18</v>
       </c>
@@ -3596,7 +4474,7 @@
         <v>29</v>
       </c>
       <c r="N72">
-        <f t="shared" si="1"/>
+        <f>IF((H72+I72+J72+L72+M72+O72)&lt;70,IF((H72+I72+J72+L72+M72+O72)&gt;59,70,(H72+I72+J72+L72+M72+O72)),(H72+I72+J72+L72+M72+O72))</f>
         <v>87</v>
       </c>
     </row>
@@ -3610,10 +4488,22 @@
       <c r="C73" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="6"/>
+      <c r="D73" s="6">
+        <f>IF((N73)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E73" s="2">
+        <f>IF((N73)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F73" s="2">
+        <f>IF((N73)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G73" s="6">
+        <f>IF((N73)&gt;=70,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
+        <v>41</v>
+      </c>
       <c r="H73">
         <v>18</v>
       </c>
@@ -3633,7 +4523,7 @@
         <v>29</v>
       </c>
       <c r="N73">
-        <f t="shared" si="1"/>
+        <f>IF((H73+I73+J73+L73+M73+O73)&lt;70,IF((H73+I73+J73+L73+M73+O73)&gt;59,70,(H73+I73+J73+L73+M73+O73)),(H73+I73+J73+L73+M73+O73))</f>
         <v>91</v>
       </c>
     </row>
@@ -3647,10 +4537,22 @@
       <c r="C74" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="6"/>
+      <c r="D74" s="6">
+        <f>IF((N74)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E74" s="2">
+        <f>IF((N74)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F74" s="2">
+        <f>IF((N74)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G74" s="6">
+        <f>IF((N74)&gt;=70,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
+        <v>40</v>
+      </c>
       <c r="H74">
         <v>18</v>
       </c>
@@ -3670,7 +4572,7 @@
         <v>29</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
+        <f>IF((H74+I74+J74+L74+M74+O74)&lt;70,IF((H74+I74+J74+L74+M74+O74)&gt;59,70,(H74+I74+J74+L74+M74+O74)),(H74+I74+J74+L74+M74+O74))</f>
         <v>90</v>
       </c>
     </row>
@@ -3684,10 +4586,22 @@
       <c r="C75" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="6"/>
+      <c r="D75" s="6">
+        <f>IF((N75)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <f>IF((N75)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F75" s="2">
+        <f>IF((N75)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G75" s="6">
+        <f>IF((N75)&gt;=70,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
+        <v>41</v>
+      </c>
       <c r="H75">
         <v>16</v>
       </c>
@@ -3707,7 +4621,7 @@
         <v>30</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
+        <f>IF((H75+I75+J75+L75+M75+O75)&lt;70,IF((H75+I75+J75+L75+M75+O75)&gt;59,70,(H75+I75+J75+L75+M75+O75)),(H75+I75+J75+L75+M75+O75))</f>
         <v>91</v>
       </c>
     </row>
@@ -3721,10 +4635,22 @@
       <c r="C76" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="6"/>
+      <c r="D76" s="6">
+        <f>IF((N76)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E76" s="2">
+        <f>IF((N76)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F76" s="2">
+        <f>IF((N76)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G76" s="6">
+        <f>IF((N76)&gt;=70,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
+        <v>42</v>
+      </c>
       <c r="H76">
         <v>16</v>
       </c>
@@ -3744,7 +4670,7 @@
         <v>30</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
+        <f>IF((H76+I76+J76+L76+M76+O76)&lt;70,IF((H76+I76+J76+L76+M76+O76)&gt;59,70,(H76+I76+J76+L76+M76+O76)),(H76+I76+J76+L76+M76+O76))</f>
         <v>92</v>
       </c>
     </row>
@@ -3758,10 +4684,22 @@
       <c r="C77" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="6"/>
+      <c r="D77" s="6">
+        <f>IF((N77)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E77" s="2">
+        <f>IF((N77)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <f>IF((N77)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G77" s="6">
+        <f>IF((N77)&gt;=70,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H77">
         <v>16</v>
       </c>
@@ -3778,7 +4716,7 @@
         <v>16</v>
       </c>
       <c r="N77">
-        <f t="shared" si="1"/>
+        <f>IF((H77+I77+J77+L77+M77+O77)&lt;70,IF((H77+I77+J77+L77+M77+O77)&gt;59,70,(H77+I77+J77+L77+M77+O77)),(H77+I77+J77+L77+M77+O77))</f>
         <v>70</v>
       </c>
     </row>
@@ -3792,10 +4730,22 @@
       <c r="C78" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="6"/>
+      <c r="D78" s="6">
+        <f>IF((N78)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <f>IF((N78)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F78" s="2">
+        <f>IF((N78)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G78" s="6">
+        <f>IF((N78)&gt;=70,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
+        <v>38</v>
+      </c>
       <c r="H78">
         <v>16</v>
       </c>
@@ -3815,7 +4765,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
+        <f>IF((H78+I78+J78+L78+M78+O78)&lt;70,IF((H78+I78+J78+L78+M78+O78)&gt;59,70,(H78+I78+J78+L78+M78+O78)),(H78+I78+J78+L78+M78+O78))</f>
         <v>88</v>
       </c>
     </row>
@@ -3829,10 +4779,22 @@
       <c r="C79" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="6"/>
+      <c r="D79" s="6">
+        <f>IF((N79)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E79" s="2">
+        <f>IF((N79)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F79" s="2">
+        <f>IF((N79)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G79" s="6">
+        <f>IF((N79)&gt;=70,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
+        <v>21</v>
+      </c>
       <c r="H79">
         <v>16</v>
       </c>
@@ -3852,7 +4814,7 @@
         <v>15</v>
       </c>
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f>IF((H79+I79+J79+L79+M79+O79)&lt;70,IF((H79+I79+J79+L79+M79+O79)&gt;59,70,(H79+I79+J79+L79+M79+O79)),(H79+I79+J79+L79+M79+O79))</f>
         <v>71</v>
       </c>
     </row>
@@ -3866,10 +4828,22 @@
       <c r="C80" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="6"/>
+      <c r="D80" s="6">
+        <f>IF((N80)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <f>IF((N80)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F80" s="2">
+        <f>IF((N80)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G80" s="6">
+        <f>IF((N80)&gt;=70,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H80">
         <v>18</v>
       </c>
@@ -3886,7 +4860,7 @@
         <v>20</v>
       </c>
       <c r="N80">
-        <f t="shared" si="1"/>
+        <f>IF((H80+I80+J80+L80+M80+O80)&lt;70,IF((H80+I80+J80+L80+M80+O80)&gt;59,70,(H80+I80+J80+L80+M80+O80)),(H80+I80+J80+L80+M80+O80))</f>
         <v>70</v>
       </c>
     </row>
@@ -3900,10 +4874,22 @@
       <c r="C81" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="6"/>
+      <c r="D81" s="6">
+        <f>IF((N81)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E81" s="2">
+        <f>IF((N81)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F81" s="2">
+        <f>IF((N81)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G81" s="6">
+        <f>IF((N81)&gt;=70,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H81">
         <v>18</v>
       </c>
@@ -3920,7 +4906,7 @@
         <v>17</v>
       </c>
       <c r="N81">
-        <f t="shared" si="1"/>
+        <f>IF((H81+I81+J81+L81+M81+O81)&lt;70,IF((H81+I81+J81+L81+M81+O81)&gt;59,70,(H81+I81+J81+L81+M81+O81)),(H81+I81+J81+L81+M81+O81))</f>
         <v>70</v>
       </c>
     </row>
@@ -3934,10 +4920,22 @@
       <c r="C82" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="6"/>
+      <c r="D82" s="6">
+        <f>IF((N82)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E82" s="2">
+        <f>IF((N82)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F82" s="2">
+        <f>IF((N82)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G82" s="6">
+        <f>IF((N82)&gt;=70,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H82">
         <v>16</v>
       </c>
@@ -3954,7 +4952,7 @@
         <v>20</v>
       </c>
       <c r="N82">
-        <f t="shared" si="1"/>
+        <f>IF((H82+I82+J82+L82+M82+O82)&lt;70,IF((H82+I82+J82+L82+M82+O82)&gt;59,70,(H82+I82+J82+L82+M82+O82)),(H82+I82+J82+L82+M82+O82))</f>
         <v>70</v>
       </c>
     </row>
@@ -3968,10 +4966,22 @@
       <c r="C83" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="6"/>
+      <c r="D83" s="6">
+        <f>IF((N83)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
+        <f>IF((N83)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F83" s="2">
+        <f>IF((N83)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G83" s="6">
+        <f>IF((N83)&gt;=70,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H83">
         <v>18</v>
       </c>
@@ -3988,7 +4998,7 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f t="shared" si="1"/>
+        <f>IF((H83+I83+J83+L83+M83+O83)&lt;70,IF((H83+I83+J83+L83+M83+O83)&gt;59,70,(H83+I83+J83+L83+M83+O83)),(H83+I83+J83+L83+M83+O83))</f>
         <v>70</v>
       </c>
     </row>
@@ -4002,10 +5012,22 @@
       <c r="C84" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="6"/>
+      <c r="D84" s="6">
+        <f>IF((N84)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
+        <f>IF((N84)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F84" s="2">
+        <f>IF((N84)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G84" s="6">
+        <f>IF((N84)&gt;=70,IF((N84-50)&gt;50,50,IF((N84-50)&lt;0,0,(N84-50))), "" )</f>
+        <v>20</v>
+      </c>
       <c r="H84">
         <v>18</v>
       </c>
@@ -4022,7 +5044,7 @@
         <v>20</v>
       </c>
       <c r="N84">
-        <f t="shared" si="1"/>
+        <f>IF((H84+I84+J84+L84+M84+O84)&lt;70,IF((H84+I84+J84+L84+M84+O84)&gt;59,70,(H84+I84+J84+L84+M84+O84)),(H84+I84+J84+L84+M84+O84))</f>
         <v>70</v>
       </c>
     </row>
@@ -4036,10 +5058,22 @@
       <c r="C85" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="6"/>
+      <c r="D85" s="6" t="str">
+        <f>IF((N85)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f>IF((N85)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f>IF((N85)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G85" s="6" t="str">
+        <f>IF((N85)&gt;=70,IF((N85-50)&gt;50,50,IF((N85-50)&lt;0,0,(N85-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H85">
         <v>18</v>
       </c>
@@ -4047,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="1"/>
+        <f>IF((H85+I85+J85+L85+M85+O85)&lt;70,IF((H85+I85+J85+L85+M85+O85)&gt;59,70,(H85+I85+J85+L85+M85+O85)),(H85+I85+J85+L85+M85+O85))</f>
         <v>18</v>
       </c>
     </row>
@@ -4061,10 +5095,22 @@
       <c r="C86" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="6"/>
+      <c r="D86" s="6">
+        <f>IF((N86)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E86" s="2">
+        <f>IF((N86)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F86" s="2">
+        <f>IF((N86)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G86" s="6">
+        <f>IF((N86)&gt;=70,IF((N86-50)&gt;50,50,IF((N86-50)&lt;0,0,(N86-50))), "" )</f>
+        <v>40</v>
+      </c>
       <c r="H86">
         <v>16</v>
       </c>
@@ -4084,7 +5130,7 @@
         <v>30</v>
       </c>
       <c r="N86">
-        <f t="shared" si="1"/>
+        <f>IF((H86+I86+J86+L86+M86+O86)&lt;70,IF((H86+I86+J86+L86+M86+O86)&gt;59,70,(H86+I86+J86+L86+M86+O86)),(H86+I86+J86+L86+M86+O86))</f>
         <v>90</v>
       </c>
     </row>
@@ -4098,10 +5144,22 @@
       <c r="C87" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="6"/>
+      <c r="D87" s="6">
+        <f>IF((N87)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E87" s="2">
+        <f>IF((N87)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F87" s="2">
+        <f>IF((N87)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G87" s="6">
+        <f>IF((N87)&gt;=70,IF((N87-50)&gt;50,50,IF((N87-50)&lt;0,0,(N87-50))), "" )</f>
+        <v>40</v>
+      </c>
       <c r="H87">
         <v>16</v>
       </c>
@@ -4121,7 +5179,7 @@
         <v>30</v>
       </c>
       <c r="N87">
-        <f t="shared" si="1"/>
+        <f>IF((H87+I87+J87+L87+M87+O87)&lt;70,IF((H87+I87+J87+L87+M87+O87)&gt;59,70,(H87+I87+J87+L87+M87+O87)),(H87+I87+J87+L87+M87+O87))</f>
         <v>90</v>
       </c>
     </row>
@@ -4135,10 +5193,22 @@
       <c r="C88" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="6"/>
+      <c r="D88" s="6">
+        <f>IF((N88)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E88" s="2">
+        <f>IF((N88)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F88" s="2">
+        <f>IF((N88)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G88" s="6">
+        <f>IF((N88)&gt;=70,IF((N88-50)&gt;50,50,IF((N88-50)&lt;0,0,(N88-50))), "" )</f>
+        <v>42</v>
+      </c>
       <c r="H88">
         <v>16</v>
       </c>
@@ -4158,7 +5228,7 @@
         <v>30</v>
       </c>
       <c r="N88">
-        <f t="shared" si="1"/>
+        <f>IF((H88+I88+J88+L88+M88+O88)&lt;70,IF((H88+I88+J88+L88+M88+O88)&gt;59,70,(H88+I88+J88+L88+M88+O88)),(H88+I88+J88+L88+M88+O88))</f>
         <v>92</v>
       </c>
     </row>
@@ -4172,10 +5242,22 @@
       <c r="C89" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="6"/>
+      <c r="D89" s="6" t="str">
+        <f>IF((N89)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f>IF((N89)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F89" s="2" t="str">
+        <f>IF((N89)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G89" s="6" t="str">
+        <f>IF((N89)&gt;=70,IF((N89-50)&gt;50,50,IF((N89-50)&lt;0,0,(N89-50))), "" )</f>
+        <v/>
+      </c>
       <c r="I89">
         <v>10</v>
       </c>
@@ -4183,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <f t="shared" si="1"/>
+        <f>IF((H89+I89+J89+L89+M89+O89)&lt;70,IF((H89+I89+J89+L89+M89+O89)&gt;59,70,(H89+I89+J89+L89+M89+O89)),(H89+I89+J89+L89+M89+O89))</f>
         <v>10</v>
       </c>
     </row>
@@ -4197,10 +5279,22 @@
       <c r="C90" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="6"/>
+      <c r="D90" s="6">
+        <f>IF((N90)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E90" s="2">
+        <f>IF((N90)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F90" s="2">
+        <f>IF((N90)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G90" s="6">
+        <f>IF((N90)&gt;=70,IF((N90-50)&gt;50,50,IF((N90-50)&lt;0,0,(N90-50))), "" )</f>
+        <v>28</v>
+      </c>
       <c r="H90">
         <v>14</v>
       </c>
@@ -4217,7 +5311,7 @@
         <v>28</v>
       </c>
       <c r="N90">
-        <f t="shared" si="1"/>
+        <f>IF((H90+I90+J90+L90+M90+O90)&lt;70,IF((H90+I90+J90+L90+M90+O90)&gt;59,70,(H90+I90+J90+L90+M90+O90)),(H90+I90+J90+L90+M90+O90))</f>
         <v>78</v>
       </c>
     </row>
@@ -4231,10 +5325,22 @@
       <c r="C91" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="6"/>
+      <c r="D91" s="6">
+        <f>IF((N91)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E91" s="2">
+        <f>IF((N91)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F91" s="2">
+        <f>IF((N91)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G91" s="6">
+        <f>IF((N91)&gt;=70,IF((N91-50)&gt;50,50,IF((N91-50)&lt;0,0,(N91-50))), "" )</f>
+        <v>35</v>
+      </c>
       <c r="H91">
         <v>14</v>
       </c>
@@ -4254,7 +5360,7 @@
         <v>28</v>
       </c>
       <c r="N91">
-        <f t="shared" si="1"/>
+        <f>IF((H91+I91+J91+L91+M91+O91)&lt;70,IF((H91+I91+J91+L91+M91+O91)&gt;59,70,(H91+I91+J91+L91+M91+O91)),(H91+I91+J91+L91+M91+O91))</f>
         <v>85</v>
       </c>
     </row>
@@ -4268,10 +5374,22 @@
       <c r="C92" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="6"/>
+      <c r="D92" s="6" t="str">
+        <f>IF((N92)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f>IF((N92)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F92" s="2" t="str">
+        <f>IF((N92)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G92" s="6" t="str">
+        <f>IF((N92)&gt;=70,IF((N92-50)&gt;50,50,IF((N92-50)&lt;0,0,(N92-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H92">
         <v>14</v>
       </c>
@@ -4288,7 +5406,7 @@
         <v>15</v>
       </c>
       <c r="N92">
-        <f t="shared" si="1"/>
+        <f>IF((H92+I92+J92+L92+M92+O92)&lt;70,IF((H92+I92+J92+L92+M92+O92)&gt;59,70,(H92+I92+J92+L92+M92+O92)),(H92+I92+J92+L92+M92+O92))</f>
         <v>59</v>
       </c>
     </row>
@@ -4302,10 +5420,22 @@
       <c r="C93" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="6"/>
+      <c r="D93" s="6" t="str">
+        <f>IF((N93)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f>IF((N93)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F93" s="2" t="str">
+        <f>IF((N93)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G93" s="6" t="str">
+        <f>IF((N93)&gt;=70,IF((N93-50)&gt;50,50,IF((N93-50)&lt;0,0,(N93-50))), "" )</f>
+        <v/>
+      </c>
       <c r="H93">
         <v>15</v>
       </c>
@@ -4322,7 +5452,7 @@
         <v>17</v>
       </c>
       <c r="N93">
-        <f t="shared" si="1"/>
+        <f>IF((H93+I93+J93+L93+M93+O93)&lt;70,IF((H93+I93+J93+L93+M93+O93)&gt;59,70,(H93+I93+J93+L93+M93+O93)),(H93+I93+J93+L93+M93+O93))</f>
         <v>55</v>
       </c>
     </row>
@@ -4336,10 +5466,22 @@
       <c r="C94" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="6"/>
+      <c r="D94" s="6">
+        <f>IF((N94)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E94" s="2">
+        <f>IF((N94)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <f>IF((N94)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G94" s="6">
+        <f>IF((N94)&gt;=70,IF((N94-50)&gt;50,50,IF((N94-50)&lt;0,0,(N94-50))), "" )</f>
+        <v>22</v>
+      </c>
       <c r="H94">
         <v>14</v>
       </c>
@@ -4356,7 +5498,7 @@
         <v>28</v>
       </c>
       <c r="N94">
-        <f t="shared" si="1"/>
+        <f>IF((H94+I94+J94+L94+M94+O94)&lt;70,IF((H94+I94+J94+L94+M94+O94)&gt;59,70,(H94+I94+J94+L94+M94+O94)),(H94+I94+J94+L94+M94+O94))</f>
         <v>72</v>
       </c>
     </row>
@@ -4370,10 +5512,22 @@
       <c r="C95" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="6"/>
+      <c r="D95" s="6">
+        <f>IF((N95)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E95" s="2">
+        <f>IF((N95)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F95" s="2">
+        <f>IF((N95)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G95" s="6">
+        <f>IF((N95)&gt;=70,IF((N95-50)&gt;50,50,IF((N95-50)&lt;0,0,(N95-50))), "" )</f>
+        <v>24</v>
+      </c>
       <c r="H95">
         <v>18</v>
       </c>
@@ -4390,7 +5544,7 @@
         <v>20</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
+        <f>IF((H95+I95+J95+L95+M95+O95)&lt;70,IF((H95+I95+J95+L95+M95+O95)&gt;59,70,(H95+I95+J95+L95+M95+O95)),(H95+I95+J95+L95+M95+O95))</f>
         <v>74</v>
       </c>
     </row>
@@ -4404,24 +5558,53 @@
       <c r="C96" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="6"/>
+      <c r="D96" s="6" t="str">
+        <f>IF((N96)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f>IF((N96)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F96" s="2" t="str">
+        <f>IF((N96)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G96" s="6" t="str">
+        <f>IF((N96)&gt;=70,IF((N96-50)&gt;50,50,IF((N96-50)&lt;0,0,(N96-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="N96">
-        <f t="shared" si="1"/>
+        <f>IF((H96+I96+J96+L96+M96+O96)&lt;70,IF((H96+I96+J96+L96+M96+O96)&gt;59,70,(H96+I96+J96+L96+M96+O96)),(H96+I96+J96+L96+M96+O96))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="14"/>
       <c r="B97" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="D97" s="6" t="str">
+        <f>IF((N97)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f>IF((N97)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F97" s="2" t="str">
+        <f>IF((N97)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G97" s="6" t="str">
+        <f>IF((N97)&gt;=70,IF((N97-50)&gt;50,50,IF((N97-50)&lt;0,0,(N97-50))), "" )</f>
+        <v/>
       </c>
       <c r="J97">
         <v>15</v>
@@ -4429,38 +5612,91 @@
       <c r="L97">
         <v>14</v>
       </c>
-      <c r="M97">
+      <c r="N97">
+        <f>IF((H97+I97+J97+L97+M97+O97)&lt;70,IF((H97+I97+J97+L97+M97+O97)&gt;59,70,(H97+I97+J97+L97+M97+O97)),(H97+I97+J97+L97+M97+O97))</f>
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B98" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="J98">
+    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D98" s="6" t="str">
+        <f>IF((N98)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f>IF((N98)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F98" s="2" t="str">
+        <f>IF((N98)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G98" s="6" t="str">
+        <f>IF((N98)&gt;=70,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="M98">
+        <v>30</v>
+      </c>
+      <c r="N98">
+        <f>IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="14"/>
+      <c r="B99" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="6">
+        <f>IF((N99)&gt;=70,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E99" s="2">
+        <f>IF((N99)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F99" s="2">
+        <f>IF((N99)&gt;=70,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G99" s="6">
+        <f>IF((N99)&gt;=70,IF((N99-50)&gt;50,50,IF((N99-50)&lt;0,0,(N99-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="J99">
         <v>15</v>
       </c>
-      <c r="L98">
+      <c r="L99">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C99" s="13" t="s">
-        <v>208</v>
-      </c>
       <c r="M99">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="N99">
+        <f>IF((H99+I99+J99+L99+M99+O99)&lt;70,IF((H99+I99+J99+L99+M99+O99)&gt;59,70,(H99+I99+J99+L99+M99+O99)),(H99+I99+J99+L99+M99+O99))</f>
+        <v>70</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:O99">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
+    <sortState ref="A2:O99">
+      <sortCondition ref="A1:A99"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -1220,8 +1220,8 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1298,19 +1298,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f>IF((N2)&gt;=70,10,"")</f>
+        <f t="shared" ref="D2:D33" si="0">IF((N2)&gt;=70,10,"")</f>
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <f>IF((N2)&gt;=70,20,"")</f>
+        <f t="shared" ref="E2:E33" si="1">IF((N2)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <f>IF((N2)&gt;=70,20,"")</f>
+        <f t="shared" ref="F2:F33" si="2">IF((N2)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="G2" s="6">
-        <f>IF((N2)&gt;=70,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
+        <f t="shared" ref="G2:G33" si="3">IF((N2)&gt;=70,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H2">
@@ -1332,7 +1332,7 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <f>IF((H2+I2+J2+L2+M2+O2)&lt;70,IF((H2+I2+J2+L2+M2+O2)&gt;59,70,(H2+I2+J2+L2+M2+O2)),(H2+I2+J2+L2+M2+O2))</f>
+        <f t="shared" ref="N2:N33" si="4">IF((H2+I2+J2+L2+M2+O2)&lt;70,IF((H2+I2+J2+L2+M2+O2)&gt;59,70,(H2+I2+J2+L2+M2+O2)),(H2+I2+J2+L2+M2+O2))</f>
         <v>105</v>
       </c>
       <c r="O2">
@@ -1350,19 +1350,19 @@
         <v>17</v>
       </c>
       <c r="D3" s="6">
-        <f>IF((N3)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f>IF((N3)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>IF((N3)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f>IF((N3)&gt;=70,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H3">
@@ -1384,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="N3">
-        <f>IF((H3+I3+J3+L3+M3+O3)&lt;70,IF((H3+I3+J3+L3+M3+O3)&gt;59,70,(H3+I3+J3+L3+M3+O3)),(H3+I3+J3+L3+M3+O3))</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
@@ -1399,19 +1399,19 @@
         <v>19</v>
       </c>
       <c r="D4" s="6">
-        <f>IF((N4)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f>IF((N4)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f>IF((N4)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f>IF((N4)&gt;=70,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="H4">
@@ -1433,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f>IF((H4+I4+J4+L4+M4+O4)&lt;70,IF((H4+I4+J4+L4+M4+O4)&gt;59,70,(H4+I4+J4+L4+M4+O4)),(H4+I4+J4+L4+M4+O4))</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -1448,19 +1448,19 @@
         <v>21</v>
       </c>
       <c r="D5" s="6">
-        <f>IF((N5)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f>IF((N5)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f>IF((N5)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f>IF((N5)&gt;=70,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H5">
@@ -1482,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="N5">
-        <f>IF((H5+I5+J5+L5+M5+O5)&lt;70,IF((H5+I5+J5+L5+M5+O5)&gt;59,70,(H5+I5+J5+L5+M5+O5)),(H5+I5+J5+L5+M5+O5))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1497,19 +1497,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="6">
-        <f>IF((N6)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <f>IF((N6)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <f>IF((N6)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G6" s="6">
-        <f>IF((N6)&gt;=70,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H6">
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="N6">
-        <f>IF((H6+I6+J6+L6+M6+O6)&lt;70,IF((H6+I6+J6+L6+M6+O6)&gt;59,70,(H6+I6+J6+L6+M6+O6)),(H6+I6+J6+L6+M6+O6))</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -1546,26 +1546,26 @@
         <v>25</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f>IF((N7)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IF((N7)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF((N7)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f>IF((N7)&gt;=70,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IF((H7+I7+J7+L7+M7+O7)&lt;70,IF((H7+I7+J7+L7+M7+O7)&gt;59,70,(H7+I7+J7+L7+M7+O7)),(H7+I7+J7+L7+M7+O7))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1580,19 +1580,19 @@
         <v>27</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f>IF((N8)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E8" s="2" t="str">
-        <f>IF((N8)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF((N8)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G8" s="6" t="str">
-        <f>IF((N8)&gt;=70,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H8">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="N8">
-        <f>IF((H8+I8+J8+L8+M8+O8)&lt;70,IF((H8+I8+J8+L8+M8+O8)&gt;59,70,(H8+I8+J8+L8+M8+O8)),(H8+I8+J8+L8+M8+O8))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -1620,19 +1620,19 @@
         <v>29</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f>IF((N9)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E9" s="2" t="str">
-        <f>IF((N9)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF((N9)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" s="6" t="str">
-        <f>IF((N9)&gt;=70,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I9">
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f>IF((H9+I9+J9+L9+M9+O9)&lt;70,IF((H9+I9+J9+L9+M9+O9)&gt;59,70,(H9+I9+J9+L9+M9+O9)),(H9+I9+J9+L9+M9+O9))</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -1660,26 +1660,26 @@
         <v>31</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f>IF((N10)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E10" s="2" t="str">
-        <f>IF((N10)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IF((N10)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G10" s="6" t="str">
-        <f>IF((N10)&gt;=70,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IF((H10+I10+J10+L10+M10+O10)&lt;70,IF((H10+I10+J10+L10+M10+O10)&gt;59,70,(H10+I10+J10+L10+M10+O10)),(H10+I10+J10+L10+M10+O10))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1694,19 +1694,19 @@
         <v>33</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f>IF((N11)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E11" s="2" t="str">
-        <f>IF((N11)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F11" s="2" t="str">
-        <f>IF((N11)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G11" s="6" t="str">
-        <f>IF((N11)&gt;=70,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I11">
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <f>IF((H11+I11+J11+L11+M11+O11)&lt;70,IF((H11+I11+J11+L11+M11+O11)&gt;59,70,(H11+I11+J11+L11+M11+O11)),(H11+I11+J11+L11+M11+O11))</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -1734,19 +1734,19 @@
         <v>35</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f>IF((N12)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E12" s="2" t="str">
-        <f>IF((N12)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f>IF((N12)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G12" s="6" t="str">
-        <f>IF((N12)&gt;=70,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J12">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f>IF((H12+I12+J12+L12+M12+O12)&lt;70,IF((H12+I12+J12+L12+M12+O12)&gt;59,70,(H12+I12+J12+L12+M12+O12)),(H12+I12+J12+L12+M12+O12))</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -1771,19 +1771,19 @@
         <v>37</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f>IF((N13)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E13" s="2" t="str">
-        <f>IF((N13)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF((N13)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G13" s="6" t="str">
-        <f>IF((N13)&gt;=70,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H13">
@@ -1802,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="N13">
-        <f>IF((H13+I13+J13+L13+M13+O13)&lt;70,IF((H13+I13+J13+L13+M13+O13)&gt;59,70,(H13+I13+J13+L13+M13+O13)),(H13+I13+J13+L13+M13+O13))</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
@@ -1817,26 +1817,26 @@
         <v>39</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f>IF((N14)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E14" s="2" t="str">
-        <f>IF((N14)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF((N14)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" s="6" t="str">
-        <f>IF((N14)&gt;=70,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="N14">
-        <f>IF((H14+I14+J14+L14+M14+O14)&lt;70,IF((H14+I14+J14+L14+M14+O14)&gt;59,70,(H14+I14+J14+L14+M14+O14)),(H14+I14+J14+L14+M14+O14))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1851,19 +1851,19 @@
         <v>41</v>
       </c>
       <c r="D15" s="6">
-        <f>IF((N15)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <f>IF((N15)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F15" s="2">
-        <f>IF((N15)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G15" s="6">
-        <f>IF((N15)&gt;=70,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="H15">
@@ -1882,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <f>IF((H15+I15+J15+L15+M15+O15)&lt;70,IF((H15+I15+J15+L15+M15+O15)&gt;59,70,(H15+I15+J15+L15+M15+O15)),(H15+I15+J15+L15+M15+O15))</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
@@ -1897,26 +1897,26 @@
         <v>43</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f>IF((N16)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E16" s="2" t="str">
-        <f>IF((N16)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <f>IF((N16)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G16" s="6" t="str">
-        <f>IF((N16)&gt;=70,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="N16">
-        <f>IF((H16+I16+J16+L16+M16+O16)&lt;70,IF((H16+I16+J16+L16+M16+O16)&gt;59,70,(H16+I16+J16+L16+M16+O16)),(H16+I16+J16+L16+M16+O16))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1931,19 +1931,19 @@
         <v>45</v>
       </c>
       <c r="D17" s="6">
-        <f>IF((N17)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f>IF((N17)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <f>IF((N17)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G17" s="6">
-        <f>IF((N17)&gt;=70,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H17">
@@ -1965,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="N17">
-        <f>IF((H17+I17+J17+L17+M17+O17)&lt;70,IF((H17+I17+J17+L17+M17+O17)&gt;59,70,(H17+I17+J17+L17+M17+O17)),(H17+I17+J17+L17+M17+O17))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1980,19 +1980,19 @@
         <v>47</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f>IF((N18)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E18" s="2" t="str">
-        <f>IF((N18)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <f>IF((N18)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G18" s="6" t="str">
-        <f>IF((N18)&gt;=70,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H18">
@@ -2011,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="N18">
-        <f>IF((H18+I18+J18+L18+M18+O18)&lt;70,IF((H18+I18+J18+L18+M18+O18)&gt;59,70,(H18+I18+J18+L18+M18+O18)),(H18+I18+J18+L18+M18+O18))</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
     </row>
@@ -2026,19 +2026,19 @@
         <v>49</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f>IF((N19)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E19" s="2" t="str">
-        <f>IF((N19)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f>IF((N19)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G19" s="6" t="str">
-        <f>IF((N19)&gt;=70,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I19">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF((H19+I19+J19+L19+M19+O19)&lt;70,IF((H19+I19+J19+L19+M19+O19)&gt;59,70,(H19+I19+J19+L19+M19+O19)),(H19+I19+J19+L19+M19+O19))</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -2066,19 +2066,19 @@
         <v>51</v>
       </c>
       <c r="D20" s="6">
-        <f>IF((N20)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <f>IF((N20)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <f>IF((N20)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G20" s="6">
-        <f>IF((N20)&gt;=70,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I20">
@@ -2097,7 +2097,7 @@
         <v>29</v>
       </c>
       <c r="N20">
-        <f>IF((H20+I20+J20+L20+M20+O20)&lt;70,IF((H20+I20+J20+L20+M20+O20)&gt;59,70,(H20+I20+J20+L20+M20+O20)),(H20+I20+J20+L20+M20+O20))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2112,19 +2112,19 @@
         <v>53</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f>IF((N21)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" s="2" t="str">
-        <f>IF((N21)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F21" s="2" t="str">
-        <f>IF((N21)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G21" s="6" t="str">
-        <f>IF((N21)&gt;=70,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J21">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF((H21+I21+J21+L21+M21+O21)&lt;70,IF((H21+I21+J21+L21+M21+O21)&gt;59,70,(H21+I21+J21+L21+M21+O21)),(H21+I21+J21+L21+M21+O21))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2149,19 +2149,19 @@
         <v>55</v>
       </c>
       <c r="D22" s="6">
-        <f>IF((N22)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f>IF((N22)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f>IF((N22)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G22" s="6">
-        <f>IF((N22)&gt;=70,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J22">
@@ -2177,7 +2177,7 @@
         <v>23</v>
       </c>
       <c r="N22">
-        <f>IF((H22+I22+J22+L22+M22+O22)&lt;70,IF((H22+I22+J22+L22+M22+O22)&gt;59,70,(H22+I22+J22+L22+M22+O22)),(H22+I22+J22+L22+M22+O22))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2192,26 +2192,26 @@
         <v>57</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f>IF((N23)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23" s="2" t="str">
-        <f>IF((N23)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F23" s="2" t="str">
-        <f>IF((N23)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G23" s="6" t="str">
-        <f>IF((N23)&gt;=70,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF((H23+I23+J23+L23+M23+O23)&lt;70,IF((H23+I23+J23+L23+M23+O23)&gt;59,70,(H23+I23+J23+L23+M23+O23)),(H23+I23+J23+L23+M23+O23))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2226,19 +2226,19 @@
         <v>59</v>
       </c>
       <c r="D24" s="6">
-        <f>IF((N24)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <f>IF((N24)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f>IF((N24)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <f>IF((N24)&gt;=70,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="H24">
@@ -2257,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="N24">
-        <f>IF((H24+I24+J24+L24+M24+O24)&lt;70,IF((H24+I24+J24+L24+M24+O24)&gt;59,70,(H24+I24+J24+L24+M24+O24)),(H24+I24+J24+L24+M24+O24))</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -2272,26 +2272,26 @@
         <v>61</v>
       </c>
       <c r="D25" s="6" t="str">
-        <f>IF((N25)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E25" s="2" t="str">
-        <f>IF((N25)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F25" s="2" t="str">
-        <f>IF((N25)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G25" s="6" t="str">
-        <f>IF((N25)&gt;=70,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IF((H25+I25+J25+L25+M25+O25)&lt;70,IF((H25+I25+J25+L25+M25+O25)&gt;59,70,(H25+I25+J25+L25+M25+O25)),(H25+I25+J25+L25+M25+O25))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2306,19 +2306,19 @@
         <v>63</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f>IF((N26)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26" s="2" t="str">
-        <f>IF((N26)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f>IF((N26)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f>IF((N26)&gt;=70,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H26">
@@ -2337,7 +2337,7 @@
         <v>16</v>
       </c>
       <c r="N26">
-        <f>IF((H26+I26+J26+L26+M26+O26)&lt;70,IF((H26+I26+J26+L26+M26+O26)&gt;59,70,(H26+I26+J26+L26+M26+O26)),(H26+I26+J26+L26+M26+O26))</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
     </row>
@@ -2352,19 +2352,19 @@
         <v>65</v>
       </c>
       <c r="D27" s="6">
-        <f>IF((N27)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f>IF((N27)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f>IF((N27)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f>IF((N27)&gt;=70,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I27">
@@ -2383,7 +2383,7 @@
         <v>21</v>
       </c>
       <c r="N27">
-        <f>IF((H27+I27+J27+L27+M27+O27)&lt;70,IF((H27+I27+J27+L27+M27+O27)&gt;59,70,(H27+I27+J27+L27+M27+O27)),(H27+I27+J27+L27+M27+O27))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2398,19 +2398,19 @@
         <v>67</v>
       </c>
       <c r="D28" s="6">
-        <f>IF((N28)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f>IF((N28)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f>IF((N28)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f>IF((N28)&gt;=70,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H28">
@@ -2429,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="N28">
-        <f>IF((H28+I28+J28+L28+M28+O28)&lt;70,IF((H28+I28+J28+L28+M28+O28)&gt;59,70,(H28+I28+J28+L28+M28+O28)),(H28+I28+J28+L28+M28+O28))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2444,19 +2444,19 @@
         <v>69</v>
       </c>
       <c r="D29" s="6">
-        <f>IF((N29)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f>IF((N29)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f>IF((N29)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f>IF((N29)&gt;=70,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I29">
@@ -2475,7 +2475,7 @@
         <v>28</v>
       </c>
       <c r="N29">
-        <f>IF((H29+I29+J29+L29+M29+O29)&lt;70,IF((H29+I29+J29+L29+M29+O29)&gt;59,70,(H29+I29+J29+L29+M29+O29)),(H29+I29+J29+L29+M29+O29))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2490,19 +2490,19 @@
         <v>71</v>
       </c>
       <c r="D30" s="6">
-        <f>IF((N30)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <f>IF((N30)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F30" s="2">
-        <f>IF((N30)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G30" s="6">
-        <f>IF((N30)&gt;=70,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="H30">
@@ -2521,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="N30">
-        <f>IF((H30+I30+J30+L30+M30+O30)&lt;70,IF((H30+I30+J30+L30+M30+O30)&gt;59,70,(H30+I30+J30+L30+M30+O30)),(H30+I30+J30+L30+M30+O30))</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -2536,19 +2536,19 @@
         <v>73</v>
       </c>
       <c r="D31" s="6">
-        <f>IF((N31)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <f>IF((N31)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F31" s="2">
-        <f>IF((N31)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G31" s="6">
-        <f>IF((N31)&gt;=70,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="H31">
@@ -2570,7 +2570,7 @@
         <v>30</v>
       </c>
       <c r="N31">
-        <f>IF((H31+I31+J31+L31+M31+O31)&lt;70,IF((H31+I31+J31+L31+M31+O31)&gt;59,70,(H31+I31+J31+L31+M31+O31)),(H31+I31+J31+L31+M31+O31))</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -2585,19 +2585,19 @@
         <v>75</v>
       </c>
       <c r="D32" s="6">
-        <f>IF((N32)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f>IF((N32)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f>IF((N32)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f>IF((N32)&gt;=70,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="H32">
@@ -2619,7 +2619,7 @@
         <v>21</v>
       </c>
       <c r="N32">
-        <f>IF((H32+I32+J32+L32+M32+O32)&lt;70,IF((H32+I32+J32+L32+M32+O32)&gt;59,70,(H32+I32+J32+L32+M32+O32)),(H32+I32+J32+L32+M32+O32))</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -2634,19 +2634,19 @@
         <v>77</v>
       </c>
       <c r="D33" s="6">
-        <f>IF((N33)&gt;=70,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f>IF((N33)&gt;=70,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f>IF((N33)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G33" s="6">
-        <f>IF((N33)&gt;=70,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H33">
@@ -2668,7 +2668,7 @@
         <v>15</v>
       </c>
       <c r="N33">
-        <f>IF((H33+I33+J33+L33+M33+O33)&lt;70,IF((H33+I33+J33+L33+M33+O33)&gt;59,70,(H33+I33+J33+L33+M33+O33)),(H33+I33+J33+L33+M33+O33))</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
@@ -2683,19 +2683,19 @@
         <v>79</v>
       </c>
       <c r="D34" s="6">
-        <f>IF((N34)&gt;=70,10,"")</f>
+        <f t="shared" ref="D34:D65" si="5">IF((N34)&gt;=70,10,"")</f>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f>IF((N34)&gt;=70,20,"")</f>
+        <f t="shared" ref="E34:E65" si="6">IF((N34)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f>IF((N34)&gt;=70,20,"")</f>
+        <f t="shared" ref="F34:F65" si="7">IF((N34)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f>IF((N34)&gt;=70,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
+        <f t="shared" ref="G34:G65" si="8">IF((N34)&gt;=70,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H34">
@@ -2714,7 +2714,7 @@
         <v>11</v>
       </c>
       <c r="N34">
-        <f>IF((H34+I34+J34+L34+M34+O34)&lt;70,IF((H34+I34+J34+L34+M34+O34)&gt;59,70,(H34+I34+J34+L34+M34+O34)),(H34+I34+J34+L34+M34+O34))</f>
+        <f t="shared" ref="N34:N65" si="9">IF((H34+I34+J34+L34+M34+O34)&lt;70,IF((H34+I34+J34+L34+M34+O34)&gt;59,70,(H34+I34+J34+L34+M34+O34)),(H34+I34+J34+L34+M34+O34))</f>
         <v>70</v>
       </c>
     </row>
@@ -2729,19 +2729,19 @@
         <v>81</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f>IF((N35)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E35" s="2" t="str">
-        <f>IF((N35)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F35" s="2" t="str">
-        <f>IF((N35)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G35" s="6" t="str">
-        <f>IF((N35)&gt;=70,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I35">
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f>IF((H35+I35+J35+L35+M35+O35)&lt;70,IF((H35+I35+J35+L35+M35+O35)&gt;59,70,(H35+I35+J35+L35+M35+O35)),(H35+I35+J35+L35+M35+O35))</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -2766,19 +2766,19 @@
         <v>83</v>
       </c>
       <c r="D36" s="6">
-        <f>IF((N36)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E36" s="2">
-        <f>IF((N36)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F36" s="2">
-        <f>IF((N36)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G36" s="6">
-        <f>IF((N36)&gt;=70,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="H36">
@@ -2800,7 +2800,7 @@
         <v>29</v>
       </c>
       <c r="N36">
-        <f>IF((H36+I36+J36+L36+M36+O36)&lt;70,IF((H36+I36+J36+L36+M36+O36)&gt;59,70,(H36+I36+J36+L36+M36+O36)),(H36+I36+J36+L36+M36+O36))</f>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
     </row>
@@ -2815,19 +2815,19 @@
         <v>85</v>
       </c>
       <c r="D37" s="6">
-        <f>IF((N37)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E37" s="2">
-        <f>IF((N37)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <f>IF((N37)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G37" s="6">
-        <f>IF((N37)&gt;=70,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="H37">
@@ -2849,7 +2849,7 @@
         <v>29</v>
       </c>
       <c r="N37">
-        <f>IF((H37+I37+J37+L37+M37+O37)&lt;70,IF((H37+I37+J37+L37+M37+O37)&gt;59,70,(H37+I37+J37+L37+M37+O37)),(H37+I37+J37+L37+M37+O37))</f>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
     </row>
@@ -2864,19 +2864,19 @@
         <v>87</v>
       </c>
       <c r="D38" s="6">
-        <f>IF((N38)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f>IF((N38)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f>IF((N38)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f>IF((N38)&gt;=70,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="H38">
@@ -2898,7 +2898,7 @@
         <v>29</v>
       </c>
       <c r="N38">
-        <f>IF((H38+I38+J38+L38+M38+O38)&lt;70,IF((H38+I38+J38+L38+M38+O38)&gt;59,70,(H38+I38+J38+L38+M38+O38)),(H38+I38+J38+L38+M38+O38))</f>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
     </row>
@@ -2913,19 +2913,19 @@
         <v>89</v>
       </c>
       <c r="D39" s="6">
-        <f>IF((N39)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f>IF((N39)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <f>IF((N39)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G39" s="6">
-        <f>IF((N39)&gt;=70,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="H39">
@@ -2947,7 +2947,7 @@
         <v>29</v>
       </c>
       <c r="N39">
-        <f>IF((H39+I39+J39+L39+M39+O39)&lt;70,IF((H39+I39+J39+L39+M39+O39)&gt;59,70,(H39+I39+J39+L39+M39+O39)),(H39+I39+J39+L39+M39+O39))</f>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
     </row>
@@ -2962,19 +2962,19 @@
         <v>91</v>
       </c>
       <c r="D40" s="6" t="str">
-        <f>IF((N40)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E40" s="2" t="str">
-        <f>IF((N40)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F40" s="2" t="str">
-        <f>IF((N40)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G40" s="6" t="str">
-        <f>IF((N40)&gt;=70,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I40">
@@ -2984,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <f>IF((H40+I40+J40+L40+M40+O40)&lt;70,IF((H40+I40+J40+L40+M40+O40)&gt;59,70,(H40+I40+J40+L40+M40+O40)),(H40+I40+J40+L40+M40+O40))</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -2999,19 +2999,19 @@
         <v>93</v>
       </c>
       <c r="D41" s="6">
-        <f>IF((N41)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <f>IF((N41)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F41" s="2">
-        <f>IF((N41)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G41" s="6">
-        <f>IF((N41)&gt;=70,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H41">
@@ -3030,7 +3030,7 @@
         <v>15</v>
       </c>
       <c r="N41">
-        <f>IF((H41+I41+J41+L41+M41+O41)&lt;70,IF((H41+I41+J41+L41+M41+O41)&gt;59,70,(H41+I41+J41+L41+M41+O41)),(H41+I41+J41+L41+M41+O41))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3045,19 +3045,19 @@
         <v>95</v>
       </c>
       <c r="D42" s="6" t="str">
-        <f>IF((N42)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E42" s="2" t="str">
-        <f>IF((N42)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F42" s="2" t="str">
-        <f>IF((N42)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G42" s="6" t="str">
-        <f>IF((N42)&gt;=70,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H42">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f>IF((H42+I42+J42+L42+M42+O42)&lt;70,IF((H42+I42+J42+L42+M42+O42)&gt;59,70,(H42+I42+J42+L42+M42+O42)),(H42+I42+J42+L42+M42+O42))</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
     </row>
@@ -3082,19 +3082,19 @@
         <v>97</v>
       </c>
       <c r="D43" s="6">
-        <f>IF((N43)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f>IF((N43)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f>IF((N43)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f>IF((N43)&gt;=70,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H43">
@@ -3116,7 +3116,7 @@
         <v>15</v>
       </c>
       <c r="N43">
-        <f>IF((H43+I43+J43+L43+M43+O43)&lt;70,IF((H43+I43+J43+L43+M43+O43)&gt;59,70,(H43+I43+J43+L43+M43+O43)),(H43+I43+J43+L43+M43+O43))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3131,19 +3131,19 @@
         <v>99</v>
       </c>
       <c r="D44" s="6">
-        <f>IF((N44)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f>IF((N44)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f>IF((N44)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f>IF((N44)&gt;=70,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H44">
@@ -3162,7 +3162,7 @@
         <v>15</v>
       </c>
       <c r="N44">
-        <f>IF((H44+I44+J44+L44+M44+O44)&lt;70,IF((H44+I44+J44+L44+M44+O44)&gt;59,70,(H44+I44+J44+L44+M44+O44)),(H44+I44+J44+L44+M44+O44))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3177,19 +3177,19 @@
         <v>101</v>
       </c>
       <c r="D45" s="6">
-        <f>IF((N45)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <f>IF((N45)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <f>IF((N45)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f>IF((N45)&gt;=70,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="H45">
@@ -3211,7 +3211,7 @@
         <v>29</v>
       </c>
       <c r="N45">
-        <f>IF((H45+I45+J45+L45+M45+O45)&lt;70,IF((H45+I45+J45+L45+M45+O45)&gt;59,70,(H45+I45+J45+L45+M45+O45)),(H45+I45+J45+L45+M45+O45))</f>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
     </row>
@@ -3226,19 +3226,19 @@
         <v>103</v>
       </c>
       <c r="D46" s="6">
-        <f>IF((N46)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E46" s="2">
-        <f>IF((N46)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F46" s="2">
-        <f>IF((N46)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G46" s="6">
-        <f>IF((N46)&gt;=70,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="H46">
@@ -3260,7 +3260,7 @@
         <v>15</v>
       </c>
       <c r="N46">
-        <f>IF((H46+I46+J46+L46+M46+O46)&lt;70,IF((H46+I46+J46+L46+M46+O46)&gt;59,70,(H46+I46+J46+L46+M46+O46)),(H46+I46+J46+L46+M46+O46))</f>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
     </row>
@@ -3275,19 +3275,19 @@
         <v>105</v>
       </c>
       <c r="D47" s="6">
-        <f>IF((N47)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E47" s="2">
-        <f>IF((N47)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F47" s="2">
-        <f>IF((N47)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G47" s="6">
-        <f>IF((N47)&gt;=70,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="H47">
@@ -3309,7 +3309,7 @@
         <v>29</v>
       </c>
       <c r="N47">
-        <f>IF((H47+I47+J47+L47+M47+O47)&lt;70,IF((H47+I47+J47+L47+M47+O47)&gt;59,70,(H47+I47+J47+L47+M47+O47)),(H47+I47+J47+L47+M47+O47))</f>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
     </row>
@@ -3324,19 +3324,19 @@
         <v>107</v>
       </c>
       <c r="D48" s="6">
-        <f>IF((N48)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f>IF((N48)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F48" s="2">
-        <f>IF((N48)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G48" s="6">
-        <f>IF((N48)&gt;=70,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H48">
@@ -3358,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="N48">
-        <f>IF((H48+I48+J48+L48+M48+O48)&lt;70,IF((H48+I48+J48+L48+M48+O48)&gt;59,70,(H48+I48+J48+L48+M48+O48)),(H48+I48+J48+L48+M48+O48))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3373,19 +3373,19 @@
         <v>109</v>
       </c>
       <c r="D49" s="6">
-        <f>IF((N49)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f>IF((N49)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f>IF((N49)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f>IF((N49)&gt;=70,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="H49">
@@ -3407,7 +3407,7 @@
         <v>30</v>
       </c>
       <c r="N49">
-        <f>IF((H49+I49+J49+L49+M49+O49)&lt;70,IF((H49+I49+J49+L49+M49+O49)&gt;59,70,(H49+I49+J49+L49+M49+O49)),(H49+I49+J49+L49+M49+O49))</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
     </row>
@@ -3422,19 +3422,19 @@
         <v>111</v>
       </c>
       <c r="D50" s="6">
-        <f>IF((N50)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E50" s="2">
-        <f>IF((N50)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F50" s="2">
-        <f>IF((N50)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f>IF((N50)&gt;=70,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H50">
@@ -3453,7 +3453,7 @@
         <v>18</v>
       </c>
       <c r="N50">
-        <f>IF((H50+I50+J50+L50+M50+O50)&lt;70,IF((H50+I50+J50+L50+M50+O50)&gt;59,70,(H50+I50+J50+L50+M50+O50)),(H50+I50+J50+L50+M50+O50))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3468,19 +3468,19 @@
         <v>113</v>
       </c>
       <c r="D51" s="6">
-        <f>IF((N51)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f>IF((N51)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f>IF((N51)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f>IF((N51)&gt;=70,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I51">
@@ -3499,7 +3499,7 @@
         <v>15</v>
       </c>
       <c r="N51">
-        <f>IF((H51+I51+J51+L51+M51+O51)&lt;70,IF((H51+I51+J51+L51+M51+O51)&gt;59,70,(H51+I51+J51+L51+M51+O51)),(H51+I51+J51+L51+M51+O51))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3514,19 +3514,19 @@
         <v>115</v>
       </c>
       <c r="D52" s="6">
-        <f>IF((N52)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f>IF((N52)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f>IF((N52)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f>IF((N52)&gt;=70,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H52">
@@ -3545,7 +3545,7 @@
         <v>18</v>
       </c>
       <c r="N52">
-        <f>IF((H52+I52+J52+L52+M52+O52)&lt;70,IF((H52+I52+J52+L52+M52+O52)&gt;59,70,(H52+I52+J52+L52+M52+O52)),(H52+I52+J52+L52+M52+O52))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3560,26 +3560,26 @@
         <v>117</v>
       </c>
       <c r="D53" s="6" t="str">
-        <f>IF((N53)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E53" s="2" t="str">
-        <f>IF((N53)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F53" s="2" t="str">
-        <f>IF((N53)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G53" s="6" t="str">
-        <f>IF((N53)&gt;=70,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f>IF((H53+I53+J53+L53+M53+O53)&lt;70,IF((H53+I53+J53+L53+M53+O53)&gt;59,70,(H53+I53+J53+L53+M53+O53)),(H53+I53+J53+L53+M53+O53))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3594,19 +3594,19 @@
         <v>119</v>
       </c>
       <c r="D54" s="6">
-        <f>IF((N54)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f>IF((N54)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f>IF((N54)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f>IF((N54)&gt;=70,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H54">
@@ -3628,7 +3628,7 @@
         <v>13</v>
       </c>
       <c r="N54">
-        <f>IF((H54+I54+J54+L54+M54+O54)&lt;70,IF((H54+I54+J54+L54+M54+O54)&gt;59,70,(H54+I54+J54+L54+M54+O54)),(H54+I54+J54+L54+M54+O54))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3643,19 +3643,19 @@
         <v>121</v>
       </c>
       <c r="D55" s="6">
-        <f>IF((N55)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f>IF((N55)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f>IF((N55)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f>IF((N55)&gt;=70,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H55">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <f>IF((H55+I55+J55+L55+M55+O55)&lt;70,IF((H55+I55+J55+L55+M55+O55)&gt;59,70,(H55+I55+J55+L55+M55+O55)),(H55+I55+J55+L55+M55+O55))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3692,19 +3692,19 @@
         <v>123</v>
       </c>
       <c r="D56" s="6">
-        <f>IF((N56)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f>IF((N56)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f>IF((N56)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f>IF((N56)&gt;=70,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H56">
@@ -3723,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="N56">
-        <f>IF((H56+I56+J56+L56+M56+O56)&lt;70,IF((H56+I56+J56+L56+M56+O56)&gt;59,70,(H56+I56+J56+L56+M56+O56)),(H56+I56+J56+L56+M56+O56))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3738,19 +3738,19 @@
         <v>125</v>
       </c>
       <c r="D57" s="6" t="str">
-        <f>IF((N57)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E57" s="2" t="str">
-        <f>IF((N57)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F57" s="2" t="str">
-        <f>IF((N57)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G57" s="6" t="str">
-        <f>IF((N57)&gt;=70,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H57">
@@ -3763,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <f>IF((H57+I57+J57+L57+M57+O57)&lt;70,IF((H57+I57+J57+L57+M57+O57)&gt;59,70,(H57+I57+J57+L57+M57+O57)),(H57+I57+J57+L57+M57+O57))</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
     </row>
@@ -3778,19 +3778,19 @@
         <v>127</v>
       </c>
       <c r="D58" s="6">
-        <f>IF((N58)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f>IF((N58)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f>IF((N58)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f>IF((N58)&gt;=70,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="H58">
@@ -3812,7 +3812,7 @@
         <v>29</v>
       </c>
       <c r="N58">
-        <f>IF((H58+I58+J58+L58+M58+O58)&lt;70,IF((H58+I58+J58+L58+M58+O58)&gt;59,70,(H58+I58+J58+L58+M58+O58)),(H58+I58+J58+L58+M58+O58))</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
     </row>
@@ -3827,19 +3827,19 @@
         <v>129</v>
       </c>
       <c r="D59" s="6">
-        <f>IF((N59)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f>IF((N59)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f>IF((N59)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f>IF((N59)&gt;=70,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="H59">
@@ -3861,7 +3861,7 @@
         <v>29</v>
       </c>
       <c r="N59">
-        <f>IF((H59+I59+J59+L59+M59+O59)&lt;70,IF((H59+I59+J59+L59+M59+O59)&gt;59,70,(H59+I59+J59+L59+M59+O59)),(H59+I59+J59+L59+M59+O59))</f>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
     </row>
@@ -3876,19 +3876,19 @@
         <v>131</v>
       </c>
       <c r="D60" s="6">
-        <f>IF((N60)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f>IF((N60)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f>IF((N60)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f>IF((N60)&gt;=70,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="H60">
@@ -3910,7 +3910,7 @@
         <v>29</v>
       </c>
       <c r="N60">
-        <f>IF((H60+I60+J60+L60+M60+O60)&lt;70,IF((H60+I60+J60+L60+M60+O60)&gt;59,70,(H60+I60+J60+L60+M60+O60)),(H60+I60+J60+L60+M60+O60))</f>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
     </row>
@@ -3925,19 +3925,19 @@
         <v>133</v>
       </c>
       <c r="D61" s="6">
-        <f>IF((N61)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f>IF((N61)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f>IF((N61)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f>IF((N61)&gt;=70,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="H61">
@@ -3959,7 +3959,7 @@
         <v>29</v>
       </c>
       <c r="N61">
-        <f>IF((H61+I61+J61+L61+M61+O61)&lt;70,IF((H61+I61+J61+L61+M61+O61)&gt;59,70,(H61+I61+J61+L61+M61+O61)),(H61+I61+J61+L61+M61+O61))</f>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
     </row>
@@ -3974,19 +3974,19 @@
         <v>135</v>
       </c>
       <c r="D62" s="6">
-        <f>IF((N62)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f>IF((N62)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f>IF((N62)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f>IF((N62)&gt;=70,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="H62">
@@ -4008,7 +4008,7 @@
         <v>30</v>
       </c>
       <c r="N62">
-        <f>IF((H62+I62+J62+L62+M62+O62)&lt;70,IF((H62+I62+J62+L62+M62+O62)&gt;59,70,(H62+I62+J62+L62+M62+O62)),(H62+I62+J62+L62+M62+O62))</f>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
     </row>
@@ -4023,19 +4023,19 @@
         <v>137</v>
       </c>
       <c r="D63" s="6">
-        <f>IF((N63)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f>IF((N63)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f>IF((N63)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f>IF((N63)&gt;=70,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H63">
@@ -4054,7 +4054,7 @@
         <v>17</v>
       </c>
       <c r="N63">
-        <f>IF((H63+I63+J63+L63+M63+O63)&lt;70,IF((H63+I63+J63+L63+M63+O63)&gt;59,70,(H63+I63+J63+L63+M63+O63)),(H63+I63+J63+L63+M63+O63))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -4069,19 +4069,19 @@
         <v>139</v>
       </c>
       <c r="D64" s="6">
-        <f>IF((N64)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E64" s="2">
-        <f>IF((N64)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <f>IF((N64)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G64" s="6">
-        <f>IF((N64)&gt;=70,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="H64">
@@ -4100,7 +4100,7 @@
         <v>30</v>
       </c>
       <c r="N64">
-        <f>IF((H64+I64+J64+L64+M64+O64)&lt;70,IF((H64+I64+J64+L64+M64+O64)&gt;59,70,(H64+I64+J64+L64+M64+O64)),(H64+I64+J64+L64+M64+O64))</f>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
     </row>
@@ -4115,19 +4115,19 @@
         <v>141</v>
       </c>
       <c r="D65" s="6">
-        <f>IF((N65)&gt;=70,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f>IF((N65)&gt;=70,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <f>IF((N65)&gt;=70,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G65" s="6">
-        <f>IF((N65)&gt;=70,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="H65">
@@ -4149,7 +4149,7 @@
         <v>29</v>
       </c>
       <c r="N65">
-        <f>IF((H65+I65+J65+L65+M65+O65)&lt;70,IF((H65+I65+J65+L65+M65+O65)&gt;59,70,(H65+I65+J65+L65+M65+O65)),(H65+I65+J65+L65+M65+O65))</f>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
     </row>
@@ -4164,19 +4164,19 @@
         <v>143</v>
       </c>
       <c r="D66" s="6">
-        <f>IF((N66)&gt;=70,10,"")</f>
+        <f t="shared" ref="D66:D99" si="10">IF((N66)&gt;=70,10,"")</f>
         <v>10</v>
       </c>
       <c r="E66" s="2">
-        <f>IF((N66)&gt;=70,20,"")</f>
+        <f t="shared" ref="E66:E99" si="11">IF((N66)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="F66" s="2">
-        <f>IF((N66)&gt;=70,20,"")</f>
+        <f t="shared" ref="F66:F99" si="12">IF((N66)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="G66" s="6">
-        <f>IF((N66)&gt;=70,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
+        <f t="shared" ref="G66:G99" si="13">IF((N66)&gt;=70,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
         <v>25</v>
       </c>
       <c r="H66">
@@ -4198,7 +4198,7 @@
         <v>15</v>
       </c>
       <c r="N66">
-        <f>IF((H66+I66+J66+L66+M66+O66)&lt;70,IF((H66+I66+J66+L66+M66+O66)&gt;59,70,(H66+I66+J66+L66+M66+O66)),(H66+I66+J66+L66+M66+O66))</f>
+        <f t="shared" ref="N66:N97" si="14">IF((H66+I66+J66+L66+M66+O66)&lt;70,IF((H66+I66+J66+L66+M66+O66)&gt;59,70,(H66+I66+J66+L66+M66+O66)),(H66+I66+J66+L66+M66+O66))</f>
         <v>75</v>
       </c>
     </row>
@@ -4213,19 +4213,19 @@
         <v>145</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f>IF((N67)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E67" s="2" t="str">
-        <f>IF((N67)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F67" s="2" t="str">
-        <f>IF((N67)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G67" s="6" t="str">
-        <f>IF((N67)&gt;=70,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H67">
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f>IF((H67+I67+J67+L67+M67+O67)&lt;70,IF((H67+I67+J67+L67+M67+O67)&gt;59,70,(H67+I67+J67+L67+M67+O67)),(H67+I67+J67+L67+M67+O67))</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
     </row>
@@ -4250,19 +4250,19 @@
         <v>147</v>
       </c>
       <c r="D68" s="6">
-        <f>IF((N68)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E68" s="2">
-        <f>IF((N68)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F68" s="2">
-        <f>IF((N68)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G68" s="6">
-        <f>IF((N68)&gt;=70,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H68">
@@ -4284,7 +4284,7 @@
         <v>30</v>
       </c>
       <c r="N68">
-        <f>IF((H68+I68+J68+L68+M68+O68)&lt;70,IF((H68+I68+J68+L68+M68+O68)&gt;59,70,(H68+I68+J68+L68+M68+O68)),(H68+I68+J68+L68+M68+O68))</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
     </row>
@@ -4299,19 +4299,19 @@
         <v>149</v>
       </c>
       <c r="D69" s="6" t="str">
-        <f>IF((N69)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E69" s="2" t="str">
-        <f>IF((N69)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F69" s="2" t="str">
-        <f>IF((N69)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G69" s="6" t="str">
-        <f>IF((N69)&gt;=70,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H69">
@@ -4327,7 +4327,7 @@
         <v>17</v>
       </c>
       <c r="N69">
-        <f>IF((H69+I69+J69+L69+M69+O69)&lt;70,IF((H69+I69+J69+L69+M69+O69)&gt;59,70,(H69+I69+J69+L69+M69+O69)),(H69+I69+J69+L69+M69+O69))</f>
+        <f t="shared" si="14"/>
         <v>53</v>
       </c>
     </row>
@@ -4342,19 +4342,19 @@
         <v>151</v>
       </c>
       <c r="D70" s="6">
-        <f>IF((N70)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E70" s="2">
-        <f>IF((N70)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <f>IF((N70)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G70" s="6">
-        <f>IF((N70)&gt;=70,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H70">
@@ -4376,7 +4376,7 @@
         <v>30</v>
       </c>
       <c r="N70">
-        <f>IF((H70+I70+J70+L70+M70+O70)&lt;70,IF((H70+I70+J70+L70+M70+O70)&gt;59,70,(H70+I70+J70+L70+M70+O70)),(H70+I70+J70+L70+M70+O70))</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
     </row>
@@ -4391,19 +4391,19 @@
         <v>153</v>
       </c>
       <c r="D71" s="6">
-        <f>IF((N71)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E71" s="2">
-        <f>IF((N71)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <f>IF((N71)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G71" s="6">
-        <f>IF((N71)&gt;=70,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="H71">
@@ -4425,7 +4425,7 @@
         <v>30</v>
       </c>
       <c r="N71">
-        <f>IF((H71+I71+J71+L71+M71+O71)&lt;70,IF((H71+I71+J71+L71+M71+O71)&gt;59,70,(H71+I71+J71+L71+M71+O71)),(H71+I71+J71+L71+M71+O71))</f>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
     </row>
@@ -4440,19 +4440,19 @@
         <v>155</v>
       </c>
       <c r="D72" s="6">
-        <f>IF((N72)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E72" s="2">
-        <f>IF((N72)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <f>IF((N72)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G72" s="6">
-        <f>IF((N72)&gt;=70,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="H72">
@@ -4474,7 +4474,7 @@
         <v>29</v>
       </c>
       <c r="N72">
-        <f>IF((H72+I72+J72+L72+M72+O72)&lt;70,IF((H72+I72+J72+L72+M72+O72)&gt;59,70,(H72+I72+J72+L72+M72+O72)),(H72+I72+J72+L72+M72+O72))</f>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
     </row>
@@ -4489,19 +4489,19 @@
         <v>157</v>
       </c>
       <c r="D73" s="6">
-        <f>IF((N73)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <f>IF((N73)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f>IF((N73)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G73" s="6">
-        <f>IF((N73)&gt;=70,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="H73">
@@ -4523,7 +4523,7 @@
         <v>29</v>
       </c>
       <c r="N73">
-        <f>IF((H73+I73+J73+L73+M73+O73)&lt;70,IF((H73+I73+J73+L73+M73+O73)&gt;59,70,(H73+I73+J73+L73+M73+O73)),(H73+I73+J73+L73+M73+O73))</f>
+        <f t="shared" si="14"/>
         <v>91</v>
       </c>
     </row>
@@ -4538,19 +4538,19 @@
         <v>159</v>
       </c>
       <c r="D74" s="6">
-        <f>IF((N74)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E74" s="2">
-        <f>IF((N74)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F74" s="2">
-        <f>IF((N74)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G74" s="6">
-        <f>IF((N74)&gt;=70,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H74">
@@ -4572,7 +4572,7 @@
         <v>29</v>
       </c>
       <c r="N74">
-        <f>IF((H74+I74+J74+L74+M74+O74)&lt;70,IF((H74+I74+J74+L74+M74+O74)&gt;59,70,(H74+I74+J74+L74+M74+O74)),(H74+I74+J74+L74+M74+O74))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
     </row>
@@ -4587,19 +4587,19 @@
         <v>161</v>
       </c>
       <c r="D75" s="6">
-        <f>IF((N75)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E75" s="2">
-        <f>IF((N75)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f>IF((N75)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G75" s="6">
-        <f>IF((N75)&gt;=70,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="H75">
@@ -4621,7 +4621,7 @@
         <v>30</v>
       </c>
       <c r="N75">
-        <f>IF((H75+I75+J75+L75+M75+O75)&lt;70,IF((H75+I75+J75+L75+M75+O75)&gt;59,70,(H75+I75+J75+L75+M75+O75)),(H75+I75+J75+L75+M75+O75))</f>
+        <f t="shared" si="14"/>
         <v>91</v>
       </c>
     </row>
@@ -4636,19 +4636,19 @@
         <v>163</v>
       </c>
       <c r="D76" s="6">
-        <f>IF((N76)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E76" s="2">
-        <f>IF((N76)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F76" s="2">
-        <f>IF((N76)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G76" s="6">
-        <f>IF((N76)&gt;=70,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H76">
@@ -4670,7 +4670,7 @@
         <v>30</v>
       </c>
       <c r="N76">
-        <f>IF((H76+I76+J76+L76+M76+O76)&lt;70,IF((H76+I76+J76+L76+M76+O76)&gt;59,70,(H76+I76+J76+L76+M76+O76)),(H76+I76+J76+L76+M76+O76))</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
     </row>
@@ -4685,19 +4685,19 @@
         <v>165</v>
       </c>
       <c r="D77" s="6">
-        <f>IF((N77)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E77" s="2">
-        <f>IF((N77)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <f>IF((N77)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G77" s="6">
-        <f>IF((N77)&gt;=70,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H77">
@@ -4716,7 +4716,7 @@
         <v>16</v>
       </c>
       <c r="N77">
-        <f>IF((H77+I77+J77+L77+M77+O77)&lt;70,IF((H77+I77+J77+L77+M77+O77)&gt;59,70,(H77+I77+J77+L77+M77+O77)),(H77+I77+J77+L77+M77+O77))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4731,19 +4731,19 @@
         <v>167</v>
       </c>
       <c r="D78" s="6">
-        <f>IF((N78)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E78" s="2">
-        <f>IF((N78)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F78" s="2">
-        <f>IF((N78)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G78" s="6">
-        <f>IF((N78)&gt;=70,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="H78">
@@ -4765,7 +4765,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <f>IF((H78+I78+J78+L78+M78+O78)&lt;70,IF((H78+I78+J78+L78+M78+O78)&gt;59,70,(H78+I78+J78+L78+M78+O78)),(H78+I78+J78+L78+M78+O78))</f>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
     </row>
@@ -4780,19 +4780,19 @@
         <v>169</v>
       </c>
       <c r="D79" s="6">
-        <f>IF((N79)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E79" s="2">
-        <f>IF((N79)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F79" s="2">
-        <f>IF((N79)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G79" s="6">
-        <f>IF((N79)&gt;=70,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="H79">
@@ -4814,7 +4814,7 @@
         <v>15</v>
       </c>
       <c r="N79">
-        <f>IF((H79+I79+J79+L79+M79+O79)&lt;70,IF((H79+I79+J79+L79+M79+O79)&gt;59,70,(H79+I79+J79+L79+M79+O79)),(H79+I79+J79+L79+M79+O79))</f>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
     </row>
@@ -4829,19 +4829,19 @@
         <v>171</v>
       </c>
       <c r="D80" s="6">
-        <f>IF((N80)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E80" s="2">
-        <f>IF((N80)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f>IF((N80)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G80" s="6">
-        <f>IF((N80)&gt;=70,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H80">
@@ -4860,7 +4860,7 @@
         <v>20</v>
       </c>
       <c r="N80">
-        <f>IF((H80+I80+J80+L80+M80+O80)&lt;70,IF((H80+I80+J80+L80+M80+O80)&gt;59,70,(H80+I80+J80+L80+M80+O80)),(H80+I80+J80+L80+M80+O80))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4875,19 +4875,19 @@
         <v>173</v>
       </c>
       <c r="D81" s="6">
-        <f>IF((N81)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E81" s="2">
-        <f>IF((N81)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <f>IF((N81)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G81" s="6">
-        <f>IF((N81)&gt;=70,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H81">
@@ -4906,7 +4906,7 @@
         <v>17</v>
       </c>
       <c r="N81">
-        <f>IF((H81+I81+J81+L81+M81+O81)&lt;70,IF((H81+I81+J81+L81+M81+O81)&gt;59,70,(H81+I81+J81+L81+M81+O81)),(H81+I81+J81+L81+M81+O81))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4921,19 +4921,19 @@
         <v>175</v>
       </c>
       <c r="D82" s="6">
-        <f>IF((N82)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E82" s="2">
-        <f>IF((N82)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F82" s="2">
-        <f>IF((N82)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G82" s="6">
-        <f>IF((N82)&gt;=70,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H82">
@@ -4952,7 +4952,7 @@
         <v>20</v>
       </c>
       <c r="N82">
-        <f>IF((H82+I82+J82+L82+M82+O82)&lt;70,IF((H82+I82+J82+L82+M82+O82)&gt;59,70,(H82+I82+J82+L82+M82+O82)),(H82+I82+J82+L82+M82+O82))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4967,19 +4967,19 @@
         <v>177</v>
       </c>
       <c r="D83" s="6">
-        <f>IF((N83)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E83" s="2">
-        <f>IF((N83)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f>IF((N83)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G83" s="6">
-        <f>IF((N83)&gt;=70,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H83">
@@ -4998,7 +4998,7 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f>IF((H83+I83+J83+L83+M83+O83)&lt;70,IF((H83+I83+J83+L83+M83+O83)&gt;59,70,(H83+I83+J83+L83+M83+O83)),(H83+I83+J83+L83+M83+O83))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -5013,19 +5013,19 @@
         <v>179</v>
       </c>
       <c r="D84" s="6">
-        <f>IF((N84)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E84" s="2">
-        <f>IF((N84)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F84" s="2">
-        <f>IF((N84)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G84" s="6">
-        <f>IF((N84)&gt;=70,IF((N84-50)&gt;50,50,IF((N84-50)&lt;0,0,(N84-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H84">
@@ -5044,7 +5044,7 @@
         <v>20</v>
       </c>
       <c r="N84">
-        <f>IF((H84+I84+J84+L84+M84+O84)&lt;70,IF((H84+I84+J84+L84+M84+O84)&gt;59,70,(H84+I84+J84+L84+M84+O84)),(H84+I84+J84+L84+M84+O84))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -5059,19 +5059,19 @@
         <v>181</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f>IF((N85)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E85" s="2" t="str">
-        <f>IF((N85)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F85" s="2" t="str">
-        <f>IF((N85)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G85" s="6" t="str">
-        <f>IF((N85)&gt;=70,IF((N85-50)&gt;50,50,IF((N85-50)&lt;0,0,(N85-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H85">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <f>IF((H85+I85+J85+L85+M85+O85)&lt;70,IF((H85+I85+J85+L85+M85+O85)&gt;59,70,(H85+I85+J85+L85+M85+O85)),(H85+I85+J85+L85+M85+O85))</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
     </row>
@@ -5096,19 +5096,19 @@
         <v>183</v>
       </c>
       <c r="D86" s="6">
-        <f>IF((N86)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E86" s="2">
-        <f>IF((N86)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F86" s="2">
-        <f>IF((N86)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G86" s="6">
-        <f>IF((N86)&gt;=70,IF((N86-50)&gt;50,50,IF((N86-50)&lt;0,0,(N86-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H86">
@@ -5130,7 +5130,7 @@
         <v>30</v>
       </c>
       <c r="N86">
-        <f>IF((H86+I86+J86+L86+M86+O86)&lt;70,IF((H86+I86+J86+L86+M86+O86)&gt;59,70,(H86+I86+J86+L86+M86+O86)),(H86+I86+J86+L86+M86+O86))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
     </row>
@@ -5145,19 +5145,19 @@
         <v>185</v>
       </c>
       <c r="D87" s="6">
-        <f>IF((N87)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E87" s="2">
-        <f>IF((N87)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F87" s="2">
-        <f>IF((N87)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G87" s="6">
-        <f>IF((N87)&gt;=70,IF((N87-50)&gt;50,50,IF((N87-50)&lt;0,0,(N87-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H87">
@@ -5179,7 +5179,7 @@
         <v>30</v>
       </c>
       <c r="N87">
-        <f>IF((H87+I87+J87+L87+M87+O87)&lt;70,IF((H87+I87+J87+L87+M87+O87)&gt;59,70,(H87+I87+J87+L87+M87+O87)),(H87+I87+J87+L87+M87+O87))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
     </row>
@@ -5194,19 +5194,19 @@
         <v>187</v>
       </c>
       <c r="D88" s="6">
-        <f>IF((N88)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E88" s="2">
-        <f>IF((N88)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F88" s="2">
-        <f>IF((N88)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G88" s="6">
-        <f>IF((N88)&gt;=70,IF((N88-50)&gt;50,50,IF((N88-50)&lt;0,0,(N88-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H88">
@@ -5228,7 +5228,7 @@
         <v>30</v>
       </c>
       <c r="N88">
-        <f>IF((H88+I88+J88+L88+M88+O88)&lt;70,IF((H88+I88+J88+L88+M88+O88)&gt;59,70,(H88+I88+J88+L88+M88+O88)),(H88+I88+J88+L88+M88+O88))</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
     </row>
@@ -5243,19 +5243,19 @@
         <v>189</v>
       </c>
       <c r="D89" s="6" t="str">
-        <f>IF((N89)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E89" s="2" t="str">
-        <f>IF((N89)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F89" s="2" t="str">
-        <f>IF((N89)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G89" s="6" t="str">
-        <f>IF((N89)&gt;=70,IF((N89-50)&gt;50,50,IF((N89-50)&lt;0,0,(N89-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I89">
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <f>IF((H89+I89+J89+L89+M89+O89)&lt;70,IF((H89+I89+J89+L89+M89+O89)&gt;59,70,(H89+I89+J89+L89+M89+O89)),(H89+I89+J89+L89+M89+O89))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
     </row>
@@ -5280,19 +5280,19 @@
         <v>191</v>
       </c>
       <c r="D90" s="6">
-        <f>IF((N90)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E90" s="2">
-        <f>IF((N90)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F90" s="2">
-        <f>IF((N90)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G90" s="6">
-        <f>IF((N90)&gt;=70,IF((N90-50)&gt;50,50,IF((N90-50)&lt;0,0,(N90-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="H90">
@@ -5311,7 +5311,7 @@
         <v>28</v>
       </c>
       <c r="N90">
-        <f>IF((H90+I90+J90+L90+M90+O90)&lt;70,IF((H90+I90+J90+L90+M90+O90)&gt;59,70,(H90+I90+J90+L90+M90+O90)),(H90+I90+J90+L90+M90+O90))</f>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
     </row>
@@ -5326,19 +5326,19 @@
         <v>193</v>
       </c>
       <c r="D91" s="6">
-        <f>IF((N91)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E91" s="2">
-        <f>IF((N91)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F91" s="2">
-        <f>IF((N91)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G91" s="6">
-        <f>IF((N91)&gt;=70,IF((N91-50)&gt;50,50,IF((N91-50)&lt;0,0,(N91-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="H91">
@@ -5360,7 +5360,7 @@
         <v>28</v>
       </c>
       <c r="N91">
-        <f>IF((H91+I91+J91+L91+M91+O91)&lt;70,IF((H91+I91+J91+L91+M91+O91)&gt;59,70,(H91+I91+J91+L91+M91+O91)),(H91+I91+J91+L91+M91+O91))</f>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
     </row>
@@ -5375,19 +5375,19 @@
         <v>195</v>
       </c>
       <c r="D92" s="6" t="str">
-        <f>IF((N92)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E92" s="2" t="str">
-        <f>IF((N92)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F92" s="2" t="str">
-        <f>IF((N92)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G92" s="6" t="str">
-        <f>IF((N92)&gt;=70,IF((N92-50)&gt;50,50,IF((N92-50)&lt;0,0,(N92-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H92">
@@ -5406,7 +5406,7 @@
         <v>15</v>
       </c>
       <c r="N92">
-        <f>IF((H92+I92+J92+L92+M92+O92)&lt;70,IF((H92+I92+J92+L92+M92+O92)&gt;59,70,(H92+I92+J92+L92+M92+O92)),(H92+I92+J92+L92+M92+O92))</f>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
     </row>
@@ -5421,19 +5421,19 @@
         <v>197</v>
       </c>
       <c r="D93" s="6" t="str">
-        <f>IF((N93)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E93" s="2" t="str">
-        <f>IF((N93)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F93" s="2" t="str">
-        <f>IF((N93)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G93" s="6" t="str">
-        <f>IF((N93)&gt;=70,IF((N93-50)&gt;50,50,IF((N93-50)&lt;0,0,(N93-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H93">
@@ -5452,7 +5452,7 @@
         <v>17</v>
       </c>
       <c r="N93">
-        <f>IF((H93+I93+J93+L93+M93+O93)&lt;70,IF((H93+I93+J93+L93+M93+O93)&gt;59,70,(H93+I93+J93+L93+M93+O93)),(H93+I93+J93+L93+M93+O93))</f>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
     </row>
@@ -5467,19 +5467,19 @@
         <v>199</v>
       </c>
       <c r="D94" s="6">
-        <f>IF((N94)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E94" s="2">
-        <f>IF((N94)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F94" s="2">
-        <f>IF((N94)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G94" s="6">
-        <f>IF((N94)&gt;=70,IF((N94-50)&gt;50,50,IF((N94-50)&lt;0,0,(N94-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H94">
@@ -5498,7 +5498,7 @@
         <v>28</v>
       </c>
       <c r="N94">
-        <f>IF((H94+I94+J94+L94+M94+O94)&lt;70,IF((H94+I94+J94+L94+M94+O94)&gt;59,70,(H94+I94+J94+L94+M94+O94)),(H94+I94+J94+L94+M94+O94))</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
     </row>
@@ -5513,19 +5513,19 @@
         <v>201</v>
       </c>
       <c r="D95" s="6">
-        <f>IF((N95)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E95" s="2">
-        <f>IF((N95)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F95" s="2">
-        <f>IF((N95)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G95" s="6">
-        <f>IF((N95)&gt;=70,IF((N95-50)&gt;50,50,IF((N95-50)&lt;0,0,(N95-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="H95">
@@ -5544,7 +5544,7 @@
         <v>20</v>
       </c>
       <c r="N95">
-        <f>IF((H95+I95+J95+L95+M95+O95)&lt;70,IF((H95+I95+J95+L95+M95+O95)&gt;59,70,(H95+I95+J95+L95+M95+O95)),(H95+I95+J95+L95+M95+O95))</f>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
     </row>
@@ -5559,26 +5559,26 @@
         <v>203</v>
       </c>
       <c r="D96" s="6" t="str">
-        <f>IF((N96)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E96" s="2" t="str">
-        <f>IF((N96)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F96" s="2" t="str">
-        <f>IF((N96)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G96" s="6" t="str">
-        <f>IF((N96)&gt;=70,IF((N96-50)&gt;50,50,IF((N96-50)&lt;0,0,(N96-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="N96">
-        <f>IF((H96+I96+J96+L96+M96+O96)&lt;70,IF((H96+I96+J96+L96+M96+O96)&gt;59,70,(H96+I96+J96+L96+M96+O96)),(H96+I96+J96+L96+M96+O96))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5591,19 +5591,19 @@
         <v>207</v>
       </c>
       <c r="D97" s="6" t="str">
-        <f>IF((N97)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E97" s="2" t="str">
-        <f>IF((N97)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F97" s="2" t="str">
-        <f>IF((N97)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G97" s="6" t="str">
-        <f>IF((N97)&gt;=70,IF((N97-50)&gt;50,50,IF((N97-50)&lt;0,0,(N97-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J97">
@@ -5613,7 +5613,7 @@
         <v>14</v>
       </c>
       <c r="N97">
-        <f>IF((H97+I97+J97+L97+M97+O97)&lt;70,IF((H97+I97+J97+L97+M97+O97)&gt;59,70,(H97+I97+J97+L97+M97+O97)),(H97+I97+J97+L97+M97+O97))</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
     </row>
@@ -5624,26 +5624,26 @@
         <v>208</v>
       </c>
       <c r="D98" s="6" t="str">
-        <f>IF((N98)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E98" s="2" t="str">
-        <f>IF((N98)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F98" s="2" t="str">
-        <f>IF((N98)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G98" s="6" t="str">
-        <f>IF((N98)&gt;=70,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M98">
         <v>30</v>
       </c>
       <c r="N98">
-        <f>IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
+        <f t="shared" ref="N98:N129" si="15">IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
         <v>30</v>
       </c>
     </row>
@@ -5656,19 +5656,19 @@
         <v>205</v>
       </c>
       <c r="D99" s="6">
-        <f>IF((N99)&gt;=70,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E99" s="2">
-        <f>IF((N99)&gt;=70,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F99" s="2">
-        <f>IF((N99)&gt;=70,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G99" s="6">
-        <f>IF((N99)&gt;=70,IF((N99-50)&gt;50,50,IF((N99-50)&lt;0,0,(N99-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J99">
@@ -5681,7 +5681,7 @@
         <v>29</v>
       </c>
       <c r="N99">
-        <f>IF((H99+I99+J99+L99+M99+O99)&lt;70,IF((H99+I99+J99+L99+M99+O99)&gt;59,70,(H99+I99+J99+L99+M99+O99)),(H99+I99+J99+L99+M99+O99))</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="O99">

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -1220,8 +1220,8 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1604,9 +1604,12 @@
       <c r="L8">
         <v>17</v>
       </c>
+      <c r="M8">
+        <v>25</v>
+      </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,9 +3069,12 @@
       <c r="K42">
         <v>1</v>
       </c>
+      <c r="M42">
+        <v>25</v>
+      </c>
       <c r="N42">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5420,21 +5426,21 @@
       <c r="C93" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D93" s="6" t="str">
+      <c r="D93" s="6">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E93" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E93" s="2">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F93" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F93" s="2">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G93" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G93" s="6">
         <f t="shared" si="13"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>15</v>
@@ -5451,9 +5457,12 @@
       <c r="L93">
         <v>17</v>
       </c>
+      <c r="M93">
+        <v>25</v>
+      </c>
       <c r="N93">
         <f t="shared" si="14"/>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5643,7 +5652,7 @@
         <v>30</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N129" si="15">IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
+        <f t="shared" ref="N98:N99" si="15">IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
         <v>30</v>
       </c>
     </row>

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -1217,11 +1217,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1298,19 +1298,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D33" si="0">IF((N2)&gt;=70,10,"")</f>
+        <f>IF((N2)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E33" si="1">IF((N2)&gt;=70,20,"")</f>
+        <f>IF((N2)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F33" si="2">IF((N2)&gt;=70,20,"")</f>
+        <f>IF((N2)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G33" si="3">IF((N2)&gt;=70,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
+        <f>IF((N2)&gt;=40,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H2">
@@ -1332,7 +1332,7 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="4">IF((H2+I2+J2+L2+M2+O2)&lt;70,IF((H2+I2+J2+L2+M2+O2)&gt;59,70,(H2+I2+J2+L2+M2+O2)),(H2+I2+J2+L2+M2+O2))</f>
+        <f t="shared" ref="N2:N33" si="0">IF((H2+I2+J2+L2+M2+O2)&lt;70,IF((H2+I2+J2+L2+M2+O2)&gt;59,70,(H2+I2+J2+L2+M2+O2)),(H2+I2+J2+L2+M2+O2))</f>
         <v>105</v>
       </c>
       <c r="O2">
@@ -1350,19 +1350,19 @@
         <v>17</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D66" si="1">IF((N3)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E3:E66" si="2">IF((N3)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F3:F66" si="3">IF((N3)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G3:G66" si="4">IF((N3)&gt;=40,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
         <v>23</v>
       </c>
       <c r="H3">
@@ -1384,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="N3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -1399,19 +1399,19 @@
         <v>19</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="H4">
@@ -1433,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -1448,19 +1448,19 @@
         <v>21</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H5">
@@ -1482,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1497,19 +1497,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H6">
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -1546,26 +1546,26 @@
         <v>25</v>
       </c>
       <c r="D7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G7" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1579,21 +1579,21 @@
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G8" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -1608,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -1623,19 +1623,19 @@
         <v>29</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G9" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I9">
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -1663,26 +1663,26 @@
         <v>31</v>
       </c>
       <c r="D10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G10" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1697,19 +1697,19 @@
         <v>33</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I11">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -1737,19 +1737,19 @@
         <v>35</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G12" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J12">
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -1773,21 +1773,21 @@
       <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G13" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>14</v>
@@ -1805,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -1820,26 +1820,26 @@
         <v>39</v>
       </c>
       <c r="D14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1854,19 +1854,19 @@
         <v>41</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="H15">
@@ -1885,7 +1885,7 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
@@ -1900,26 +1900,26 @@
         <v>43</v>
       </c>
       <c r="D16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G16" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1934,19 +1934,19 @@
         <v>45</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H17">
@@ -1968,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1982,21 +1982,21 @@
       <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G18" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>14</v>
@@ -2014,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -2029,19 +2029,19 @@
         <v>49</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G19" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I19">
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2069,19 +2069,19 @@
         <v>51</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I20">
@@ -2100,7 +2100,7 @@
         <v>29</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2115,19 +2115,19 @@
         <v>53</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G21" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J21">
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2152,19 +2152,19 @@
         <v>55</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J22">
@@ -2180,7 +2180,7 @@
         <v>23</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2195,26 +2195,26 @@
         <v>57</v>
       </c>
       <c r="D23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2229,19 +2229,19 @@
         <v>59</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H24">
@@ -2260,7 +2260,7 @@
         <v>20</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -2275,26 +2275,26 @@
         <v>61</v>
       </c>
       <c r="D25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G25" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2308,21 +2308,21 @@
       <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>14</v>
@@ -2340,7 +2340,7 @@
         <v>16</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -2355,19 +2355,19 @@
         <v>65</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I27">
@@ -2386,7 +2386,7 @@
         <v>21</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2401,19 +2401,19 @@
         <v>67</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H28">
@@ -2432,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2447,19 +2447,19 @@
         <v>69</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I29">
@@ -2478,7 +2478,7 @@
         <v>28</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2493,38 +2493,38 @@
         <v>71</v>
       </c>
       <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>18</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="H30">
-        <v>18</v>
-      </c>
-      <c r="J30">
-        <v>18</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>18</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -2539,19 +2539,19 @@
         <v>73</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="H31">
@@ -2573,7 +2573,7 @@
         <v>30</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2588,19 +2588,19 @@
         <v>75</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H32">
@@ -2622,7 +2622,7 @@
         <v>21</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -2637,19 +2637,19 @@
         <v>77</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="H33">
@@ -2671,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -2686,19 +2686,19 @@
         <v>79</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" ref="D34:D65" si="5">IF((N34)&gt;=70,10,"")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E65" si="6">IF((N34)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F65" si="7">IF((N34)&gt;=70,20,"")</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G65" si="8">IF((N34)&gt;=70,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H34">
@@ -2714,10 +2714,10 @@
         <v>15</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="9">IF((H34+I34+J34+L34+M34+O34)&lt;70,IF((H34+I34+J34+L34+M34+O34)&gt;59,70,(H34+I34+J34+L34+M34+O34)),(H34+I34+J34+L34+M34+O34))</f>
+        <f t="shared" ref="N34:N65" si="5">IF((H34+I34+J34+L34+M34+O34)&lt;70,IF((H34+I34+J34+L34+M34+O34)&gt;59,70,(H34+I34+J34+L34+M34+O34)),(H34+I34+J34+L34+M34+O34))</f>
         <v>70</v>
       </c>
     </row>
@@ -2732,29 +2732,29 @@
         <v>81</v>
       </c>
       <c r="D35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F35" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G35" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -2769,19 +2769,19 @@
         <v>83</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="H36">
@@ -2803,7 +2803,7 @@
         <v>29</v>
       </c>
       <c r="N36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
     </row>
@@ -2818,19 +2818,19 @@
         <v>85</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="H37">
@@ -2852,7 +2852,7 @@
         <v>29</v>
       </c>
       <c r="N37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
     </row>
@@ -2867,19 +2867,19 @@
         <v>87</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H38">
@@ -2901,7 +2901,7 @@
         <v>29</v>
       </c>
       <c r="N38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
@@ -2916,19 +2916,19 @@
         <v>89</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="H39">
@@ -2950,7 +2950,7 @@
         <v>29</v>
       </c>
       <c r="N39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
     </row>
@@ -2965,29 +2965,29 @@
         <v>91</v>
       </c>
       <c r="D40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G40" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -3002,19 +3002,19 @@
         <v>93</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H41">
@@ -3033,7 +3033,7 @@
         <v>15</v>
       </c>
       <c r="N41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3047,21 +3047,21 @@
       <c r="C42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F42" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G42" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="D42" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>18</v>
@@ -3073,7 +3073,7 @@
         <v>25</v>
       </c>
       <c r="N42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
@@ -3088,19 +3088,19 @@
         <v>97</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H43">
@@ -3122,7 +3122,7 @@
         <v>15</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3137,19 +3137,19 @@
         <v>99</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H44">
@@ -3168,7 +3168,7 @@
         <v>15</v>
       </c>
       <c r="N44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3183,19 +3183,19 @@
         <v>101</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="H45">
@@ -3217,7 +3217,7 @@
         <v>29</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
     </row>
@@ -3232,19 +3232,19 @@
         <v>103</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="H46">
@@ -3266,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="N46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
     </row>
@@ -3281,19 +3281,19 @@
         <v>105</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="H47">
@@ -3315,7 +3315,7 @@
         <v>29</v>
       </c>
       <c r="N47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
     </row>
@@ -3330,20 +3330,20 @@
         <v>107</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -3361,11 +3361,11 @@
         <v>15</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N48">
-        <f t="shared" si="9"/>
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3379,19 +3379,19 @@
         <v>109</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="H49">
@@ -3413,7 +3413,7 @@
         <v>30</v>
       </c>
       <c r="N49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
@@ -3428,19 +3428,19 @@
         <v>111</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H50">
@@ -3459,7 +3459,7 @@
         <v>18</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3474,19 +3474,19 @@
         <v>113</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I51">
@@ -3505,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="N51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3520,19 +3520,19 @@
         <v>115</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H52">
@@ -3551,7 +3551,7 @@
         <v>18</v>
       </c>
       <c r="N52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3566,26 +3566,26 @@
         <v>117</v>
       </c>
       <c r="D53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G53" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F53" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G53" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3600,19 +3600,19 @@
         <v>119</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H54">
@@ -3634,7 +3634,7 @@
         <v>13</v>
       </c>
       <c r="N54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3649,19 +3649,19 @@
         <v>121</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H55">
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3698,19 +3698,19 @@
         <v>123</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H56">
@@ -3729,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="N56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3744,19 +3744,19 @@
         <v>125</v>
       </c>
       <c r="D57" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F57" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G57" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H57">
@@ -3769,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
     </row>
@@ -3784,19 +3784,19 @@
         <v>127</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="H58">
@@ -3818,7 +3818,7 @@
         <v>29</v>
       </c>
       <c r="N58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
@@ -3833,19 +3833,19 @@
         <v>129</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="H59">
@@ -3867,7 +3867,7 @@
         <v>29</v>
       </c>
       <c r="N59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
     </row>
@@ -3882,19 +3882,19 @@
         <v>131</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="H60">
@@ -3916,7 +3916,7 @@
         <v>29</v>
       </c>
       <c r="N60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
     </row>
@@ -3931,19 +3931,19 @@
         <v>133</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="H61">
@@ -3965,7 +3965,7 @@
         <v>29</v>
       </c>
       <c r="N61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
     </row>
@@ -3980,19 +3980,19 @@
         <v>135</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="H62">
@@ -4014,7 +4014,7 @@
         <v>30</v>
       </c>
       <c r="N62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
     </row>
@@ -4029,19 +4029,19 @@
         <v>137</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H63">
@@ -4060,7 +4060,7 @@
         <v>17</v>
       </c>
       <c r="N63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -4075,19 +4075,19 @@
         <v>139</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="H64">
@@ -4106,7 +4106,7 @@
         <v>30</v>
       </c>
       <c r="N64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
     </row>
@@ -4121,19 +4121,19 @@
         <v>141</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H65">
@@ -4155,7 +4155,7 @@
         <v>29</v>
       </c>
       <c r="N65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
     </row>
@@ -4170,19 +4170,19 @@
         <v>143</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" ref="D66:D99" si="10">IF((N66)&gt;=70,10,"")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" ref="E66:E99" si="11">IF((N66)&gt;=70,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F99" si="12">IF((N66)&gt;=70,20,"")</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66:G99" si="13">IF((N66)&gt;=70,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H66">
@@ -4204,7 +4204,7 @@
         <v>15</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="14">IF((H66+I66+J66+L66+M66+O66)&lt;70,IF((H66+I66+J66+L66+M66+O66)&gt;59,70,(H66+I66+J66+L66+M66+O66)),(H66+I66+J66+L66+M66+O66))</f>
+        <f t="shared" ref="N66:N97" si="6">IF((H66+I66+J66+L66+M66+O66)&lt;70,IF((H66+I66+J66+L66+M66+O66)&gt;59,70,(H66+I66+J66+L66+M66+O66)),(H66+I66+J66+L66+M66+O66))</f>
         <v>75</v>
       </c>
     </row>
@@ -4219,19 +4219,19 @@
         <v>145</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D67:D100" si="7">IF((N67)&gt;=40,10,"")</f>
         <v/>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E67:E100" si="8">IF((N67)&gt;=40,20,"")</f>
         <v/>
       </c>
       <c r="F67" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F67:F100" si="9">IF((N67)&gt;=40,20,"")</f>
         <v/>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G67:G99" si="10">IF((N67)&gt;=40,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
         <v/>
       </c>
       <c r="H67">
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -4256,19 +4256,19 @@
         <v>147</v>
       </c>
       <c r="D68" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G68" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E68" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F68" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G68" s="6">
-        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H68">
@@ -4290,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="N68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
     </row>
@@ -4304,21 +4304,21 @@
       <c r="C69" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="6" t="str">
+      <c r="D69" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G69" s="6">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E69" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F69" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G69" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="H69">
         <v>16</v>
@@ -4333,7 +4333,7 @@
         <v>17</v>
       </c>
       <c r="N69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
     </row>
@@ -4348,19 +4348,19 @@
         <v>151</v>
       </c>
       <c r="D70" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G70" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F70" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G70" s="6">
-        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H70">
@@ -4382,7 +4382,7 @@
         <v>30</v>
       </c>
       <c r="N70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
     </row>
@@ -4397,19 +4397,19 @@
         <v>153</v>
       </c>
       <c r="D71" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G71" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F71" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G71" s="6">
-        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="H71">
@@ -4431,7 +4431,7 @@
         <v>30</v>
       </c>
       <c r="N71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
@@ -4446,19 +4446,19 @@
         <v>155</v>
       </c>
       <c r="D72" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G72" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G72" s="6">
-        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="H72">
@@ -4480,7 +4480,7 @@
         <v>29</v>
       </c>
       <c r="N72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
     </row>
@@ -4495,19 +4495,19 @@
         <v>157</v>
       </c>
       <c r="D73" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G73" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F73" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G73" s="6">
-        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="H73">
@@ -4529,7 +4529,7 @@
         <v>29</v>
       </c>
       <c r="N73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
     </row>
@@ -4544,19 +4544,19 @@
         <v>159</v>
       </c>
       <c r="D74" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G74" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E74" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F74" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H74">
@@ -4578,7 +4578,7 @@
         <v>29</v>
       </c>
       <c r="N74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
@@ -4593,19 +4593,19 @@
         <v>161</v>
       </c>
       <c r="D75" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G75" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G75" s="6">
-        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="H75">
@@ -4627,7 +4627,7 @@
         <v>30</v>
       </c>
       <c r="N75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
     </row>
@@ -4642,19 +4642,19 @@
         <v>163</v>
       </c>
       <c r="D76" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G76" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E76" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F76" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G76" s="6">
-        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H76">
@@ -4676,7 +4676,7 @@
         <v>30</v>
       </c>
       <c r="N76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
     </row>
@@ -4691,19 +4691,19 @@
         <v>165</v>
       </c>
       <c r="D77" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G77" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F77" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G77" s="6">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H77">
@@ -4722,7 +4722,7 @@
         <v>16</v>
       </c>
       <c r="N77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4737,19 +4737,19 @@
         <v>167</v>
       </c>
       <c r="D78" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G78" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F78" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G78" s="6">
-        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="H78">
@@ -4771,7 +4771,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
     </row>
@@ -4786,19 +4786,19 @@
         <v>169</v>
       </c>
       <c r="D79" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G79" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G79" s="6">
-        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="H79">
@@ -4820,7 +4820,7 @@
         <v>15</v>
       </c>
       <c r="N79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
     </row>
@@ -4835,20 +4835,20 @@
         <v>171</v>
       </c>
       <c r="D80" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G80" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E80" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F80" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G80" s="6">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>18</v>
@@ -4865,9 +4865,12 @@
       <c r="L80">
         <v>20</v>
       </c>
+      <c r="M80">
+        <v>20</v>
+      </c>
       <c r="N80">
-        <f t="shared" si="14"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4881,20 +4884,20 @@
         <v>173</v>
       </c>
       <c r="D81" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G81" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E81" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F81" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G81" s="6">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>18</v>
@@ -4911,9 +4914,12 @@
       <c r="L81">
         <v>17</v>
       </c>
+      <c r="M81">
+        <v>20</v>
+      </c>
       <c r="N81">
-        <f t="shared" si="14"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4927,19 +4933,19 @@
         <v>175</v>
       </c>
       <c r="D82" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G82" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E82" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F82" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G82" s="6">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H82">
@@ -4958,7 +4964,7 @@
         <v>20</v>
       </c>
       <c r="N82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4973,20 +4979,20 @@
         <v>177</v>
       </c>
       <c r="D83" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G83" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E83" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F83" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G83" s="6">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>18</v>
@@ -5003,9 +5009,12 @@
       <c r="L83">
         <v>20</v>
       </c>
+      <c r="M83">
+        <v>20</v>
+      </c>
       <c r="N83">
-        <f t="shared" si="14"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5019,20 +5028,20 @@
         <v>179</v>
       </c>
       <c r="D84" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G84" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E84" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F84" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G84" s="6">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>18</v>
@@ -5049,9 +5058,12 @@
       <c r="L84">
         <v>20</v>
       </c>
+      <c r="M84">
+        <v>20</v>
+      </c>
       <c r="N84">
-        <f t="shared" si="14"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5065,30 +5077,33 @@
         <v>181</v>
       </c>
       <c r="D85" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G85" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F85" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G85" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="H85">
         <v>18</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
+      <c r="M85">
+        <v>20</v>
+      </c>
       <c r="N85">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5102,19 +5117,19 @@
         <v>183</v>
       </c>
       <c r="D86" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G86" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E86" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F86" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G86" s="6">
-        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H86">
@@ -5136,7 +5151,7 @@
         <v>30</v>
       </c>
       <c r="N86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
@@ -5151,19 +5166,19 @@
         <v>185</v>
       </c>
       <c r="D87" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G87" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E87" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F87" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G87" s="6">
-        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H87">
@@ -5185,7 +5200,7 @@
         <v>30</v>
       </c>
       <c r="N87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
@@ -5200,19 +5215,19 @@
         <v>187</v>
       </c>
       <c r="D88" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G88" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E88" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F88" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G88" s="6">
-        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H88">
@@ -5234,7 +5249,7 @@
         <v>30</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
     </row>
@@ -5249,21 +5264,21 @@
         <v>189</v>
       </c>
       <c r="D89" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F89" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G89" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F89" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G89" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="I89">
         <v>10</v>
       </c>
@@ -5271,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -5286,19 +5301,19 @@
         <v>191</v>
       </c>
       <c r="D90" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G90" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F90" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G90" s="6">
-        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="H90">
@@ -5317,7 +5332,7 @@
         <v>28</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
     </row>
@@ -5332,19 +5347,19 @@
         <v>193</v>
       </c>
       <c r="D91" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G91" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E91" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F91" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G91" s="6">
-        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="H91">
@@ -5366,7 +5381,7 @@
         <v>28</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
     </row>
@@ -5380,21 +5395,21 @@
       <c r="C92" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D92" s="6" t="str">
+      <c r="D92" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G92" s="6">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E92" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F92" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G92" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="H92">
         <v>14</v>
@@ -5412,7 +5427,7 @@
         <v>15</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
     </row>
@@ -5427,19 +5442,19 @@
         <v>197</v>
       </c>
       <c r="D93" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G93" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E93" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F93" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G93" s="6">
-        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="H93">
@@ -5461,7 +5476,7 @@
         <v>25</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -5476,19 +5491,19 @@
         <v>199</v>
       </c>
       <c r="D94" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G94" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E94" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F94" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G94" s="6">
-        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H94">
@@ -5507,7 +5522,7 @@
         <v>28</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
     </row>
@@ -5522,19 +5537,19 @@
         <v>201</v>
       </c>
       <c r="D95" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G95" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E95" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F95" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G95" s="6">
-        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="H95">
@@ -5553,7 +5568,7 @@
         <v>20</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
     </row>
@@ -5568,26 +5583,26 @@
         <v>203</v>
       </c>
       <c r="D96" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F96" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G96" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E96" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F96" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G96" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5600,19 +5615,19 @@
         <v>207</v>
       </c>
       <c r="D97" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F97" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G97" s="6" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E97" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F97" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G97" s="6" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J97">
@@ -5622,7 +5637,7 @@
         <v>14</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
     </row>
@@ -5633,26 +5648,26 @@
         <v>208</v>
       </c>
       <c r="D98" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F98" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G98" s="6" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E98" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F98" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G98" s="6" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M98">
         <v>30</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N99" si="15">IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
+        <f t="shared" ref="N98:N99" si="11">IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
         <v>30</v>
       </c>
     </row>
@@ -5665,19 +5680,19 @@
         <v>205</v>
       </c>
       <c r="D99" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G99" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E99" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F99" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G99" s="6">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J99">
@@ -5690,11 +5705,25 @@
         <v>29</v>
       </c>
       <c r="N99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="O99">
         <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D100" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F100" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -1220,8 +1220,8 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="G50" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>16</v>
@@ -3458,9 +3458,12 @@
       <c r="L50">
         <v>18</v>
       </c>
+      <c r="M50">
+        <v>26</v>
+      </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3533,7 +3536,7 @@
       </c>
       <c r="G52" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>16</v>
@@ -3550,9 +3553,12 @@
       <c r="L52">
         <v>18</v>
       </c>
+      <c r="M52">
+        <v>26</v>
+      </c>
       <c r="N52">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4042,7 +4048,7 @@
       </c>
       <c r="G63" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>16</v>
@@ -4059,9 +4065,12 @@
       <c r="L63">
         <v>17</v>
       </c>
+      <c r="M63">
+        <v>26</v>
+      </c>
       <c r="N63">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
+++ b/OYM/_DocumentosComunes/_PE (Autosaved).xlsx
@@ -777,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -813,8 +813,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,8 +1224,8 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1289,13 +1293,13 @@
     </row>
     <row r="2" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D2" s="6">
         <f>IF((N2)&gt;=40,10,"")</f>
@@ -1311,10 +1315,10 @@
       </c>
       <c r="G2" s="6">
         <f>IF((N2)&gt;=40,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2" s="5">
         <v>10</v>
@@ -1323,56 +1327,50 @@
         <v>20</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">IF((H2+I2+J2+L2+M2+O2)&lt;70,IF((H2+I2+J2+L2+M2+O2)&gt;59,70,(H2+I2+J2+L2+M2+O2)),(H2+I2+J2+L2+M2+O2))</f>
-        <v>105</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
+        <f>IF((H2+I2+J2+L2+M2+O2)&lt;70,IF((H2+I2+J2+L2+M2+O2)&gt;59,70,(H2+I2+J2+L2+M2+O2)),(H2+I2+J2+L2+M2+O2))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D66" si="1">IF((N3)&gt;=40,10,"")</f>
+        <f>IF((N3)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="2">IF((N3)&gt;=40,20,"")</f>
+        <f>IF((N3)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="3">IF((N3)&gt;=40,20,"")</f>
+        <f>IF((N3)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G66" si="4">IF((N3)&gt;=40,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
-        <v>23</v>
+        <f>IF((N3)&gt;=40,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1381,60 +1379,60 @@
         <v>18</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <f>IF((H3+I3+J3+L3+M3+O3)&lt;70,IF((H3+I3+J3+L3+M3+O3)&gt;59,70,(H3+I3+J3+L3+M3+O3)),(H3+I3+J3+L3+M3+O3))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N4)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N4)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N4)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <f>IF((N4)&gt;=40,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <f>IF((H4+I4+J4+L4+M4+O4)&lt;70,IF((H4+I4+J4+L4+M4+O4)&gt;59,70,(H4+I4+J4+L4+M4+O4)),(H4+I4+J4+L4+M4+O4))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1448,19 +1446,19 @@
         <v>21</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N5)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N5)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N5)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="4"/>
+        <f>IF((N5)&gt;=40,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H5">
@@ -1482,35 +1480,35 @@
         <v>14</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f>IF((H5+I5+J5+L5+M5+O5)&lt;70,IF((H5+I5+J5+L5+M5+O5)&gt;59,70,(H5+I5+J5+L5+M5+O5)),(H5+I5+J5+L5+M5+O5))</f>
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6">
+        <f>IF((N6)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <f>IF((N6)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <f>IF((N6)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G6" s="6">
+        <f>IF((N6)&gt;=40,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
         <v>23</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="4"/>
-        <v>25</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -1519,361 +1517,439 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>15</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>IF((H6+I6+J6+L6+M6+O6)&lt;70,IF((H6+I6+J6+L6+M6+O6)&gt;59,70,(H6+I6+J6+L6+M6+O6)),(H6+I6+J6+L6+M6+O6))</f>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6">
+        <f>IF((N7)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <f>IF((N7)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <f>IF((N7)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="6">
+        <f>IF((N7)&gt;=40,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G7" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF((H7+I7+J7+L7+M7+O7)&lt;70,IF((H7+I7+J7+L7+M7+O7)&gt;59,70,(H7+I7+J7+L7+M7+O7)),(H7+I7+J7+L7+M7+O7))</f>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N8)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N8)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N8)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>IF((N8)&gt;=40,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
+        <v>23</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
         <v>15</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>17</v>
-      </c>
-      <c r="M8">
-        <v>25</v>
-      </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f>IF((H8+I8+J8+L8+M8+O8)&lt;70,IF((H8+I8+J8+L8+M8+O8)&gt;59,70,(H8+I8+J8+L8+M8+O8)),(H8+I8+J8+L8+M8+O8))</f>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G9" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I9">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="D9" s="6">
+        <f>IF((N9)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f>IF((N9)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <f>IF((N9)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
+        <f>IF((N9)&gt;=40,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>IF((H9+I9+J9+L9+M9+O9)&lt;70,IF((H9+I9+J9+L9+M9+O9)&gt;59,70,(H9+I9+J9+L9+M9+O9)),(H9+I9+J9+L9+M9+O9))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G10" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>97</v>
+      </c>
+      <c r="D10" s="6">
+        <f>IF((N10)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <f>IF((N10)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <f>IF((N10)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G10" s="6">
+        <f>IF((N10)&gt;=40,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>15</v>
+      </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF((H10+I10+J10+L10+M10+O10)&lt;70,IF((H10+I10+J10+L10+M10+O10)&gt;59,70,(H10+I10+J10+L10+M10+O10)),(H10+I10+J10+L10+M10+O10))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G11" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I11">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="D11" s="6">
+        <f>IF((N11)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <f>IF((N11)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <f>IF((N11)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G11" s="6">
+        <f>IF((N11)&gt;=40,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>IF((H11+I11+J11+L11+M11+O11)&lt;70,IF((H11+I11+J11+L11+M11+O11)&gt;59,70,(H11+I11+J11+L11+M11+O11)),(H11+I11+J11+L11+M11+O11))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G12" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>103</v>
+      </c>
+      <c r="D12" s="6">
+        <f>IF((N12)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <f>IF((N12)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <f>IF((N12)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G12" s="6">
+        <f>IF((N12)&gt;=40,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>IF((H12+I12+J12+L12+M12+O12)&lt;70,IF((H12+I12+J12+L12+M12+O12)&gt;59,70,(H12+I12+J12+L12+M12+O12)),(H12+I12+J12+L12+M12+O12))</f>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N13)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N13)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N13)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>14</v>
+        <f>IF((N13)&gt;=40,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>IF((H13+I13+J13+L13+M13+O13)&lt;70,IF((H13+I13+J13+L13+M13+O13)&gt;59,70,(H13+I13+J13+L13+M13+O13)),(H13+I13+J13+L13+M13+O13))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G14" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>143</v>
+      </c>
+      <c r="D14" s="6">
+        <f>IF((N14)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <f>IF((N14)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <f>IF((N14)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G14" s="6">
+        <f>IF((N14)&gt;=40,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF((H14+I14+J14+L14+M14+O14)&lt;70,IF((H14+I14+J14+L14+M14+O14)&gt;59,70,(H14+I14+J14+L14+M14+O14)),(H14+I14+J14+L14+M14+O14))</f>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N15)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N15)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N15)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f>IF((N15)&gt;=40,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
+        <v>21</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1882,45 +1958,60 @@
         <v>14</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <f>IF((H15+I15+J15+L15+M15+O15)&lt;70,IF((H15+I15+J15+L15+M15+O15)&gt;59,70,(H15+I15+J15+L15+M15+O15)),(H15+I15+J15+L15+M15+O15))</f>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
+        <v>90</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="6">
+        <f>IF((N16)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f>IF((N16)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <f>IF((N16)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G16" s="6">
+        <f>IF((N16)&gt;=40,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H16">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G16" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
       <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF((H16+I16+J16+L16+M16+O16)&lt;70,IF((H16+I16+J16+L16+M16+O16)&gt;59,70,(H16+I16+J16+L16+M16+O16)),(H16+I16+J16+L16+M16+O16))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1934,19 +2025,19 @@
         <v>45</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N17)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N17)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N17)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="4"/>
+        <f>IF((N17)&gt;=40,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H17">
@@ -1968,207 +2059,228 @@
         <v>20</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f>IF((H17+I17+J17+L17+M17+O17)&lt;70,IF((H17+I17+J17+L17+M17+O17)&gt;59,70,(H17+I17+J17+L17+M17+O17)),(H17+I17+J17+L17+M17+O17))</f>
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N18)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N18)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N18)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF((N18)&gt;=40,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>IF((H18+I18+J18+L18+M18+O18)&lt;70,IF((H18+I18+J18+L18+M18+O18)&gt;59,70,(H18+I18+J18+L18+M18+O18)),(H18+I18+J18+L18+M18+O18))</f>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G19" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I19">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="D19" s="6">
+        <f>IF((N19)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <f>IF((N19)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <f>IF((N19)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G19" s="6">
+        <f>IF((N19)&gt;=40,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
       <c r="N19">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>IF((H19+I19+J19+L19+M19+O19)&lt;70,IF((H19+I19+J19+L19+M19+O19)&gt;59,70,(H19+I19+J19+L19+M19+O19)),(H19+I19+J19+L19+M19+O19))</f>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N20)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N20)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N20)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
+        <f>IF((N20)&gt;=40,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f>IF((H20+I20+J20+L20+M20+O20)&lt;70,IF((H20+I20+J20+L20+M20+O20)&gt;59,70,(H20+I20+J20+L20+M20+O20)),(H20+I20+J20+L20+M20+O20))</f>
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G21" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="D21" s="6">
+        <f>IF((N21)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <f>IF((N21)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <f>IF((N21)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G21" s="6">
+        <f>IF((N21)&gt;=40,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
+        <v>27</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>IF((H21+I21+J21+L21+M21+O21)&lt;70,IF((H21+I21+J21+L21+M21+O21)&gt;59,70,(H21+I21+J21+L21+M21+O21)),(H21+I21+J21+L21+M21+O21))</f>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N22)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N22)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N22)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J22">
-        <v>20</v>
+        <f>IF((N22)&gt;=40,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2177,78 +2289,96 @@
         <v>17</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f>IF((H22+I22+J22+L22+M22+O22)&lt;70,IF((H22+I22+J22+L22+M22+O22)&gt;59,70,(H22+I22+J22+L22+M22+O22)),(H22+I22+J22+L22+M22+O22))</f>
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G23" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>171</v>
+      </c>
+      <c r="D23" s="6">
+        <f>IF((N23)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <f>IF((N23)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <f>IF((N23)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <f>IF((N23)&gt;=40,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF((H23+I23+J23+L23+M23+O23)&lt;70,IF((H23+I23+J23+L23+M23+O23)&gt;59,70,(H23+I23+J23+L23+M23+O23)),(H23+I23+J23+L23+M23+O23))</f>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N24)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N24)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N24)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f>IF((N24)&gt;=40,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>18</v>
       </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
       <c r="J24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2260,943 +2390,970 @@
         <v>20</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f>IF((H24+I24+J24+L24+M24+O24)&lt;70,IF((H24+I24+J24+L24+M24+O24)&gt;59,70,(H24+I24+J24+L24+M24+O24)),(H24+I24+J24+L24+M24+O24))</f>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G25" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>177</v>
+      </c>
+      <c r="D25" s="6">
+        <f>IF((N25)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <f>IF((N25)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <f>IF((N25)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G25" s="6">
+        <f>IF((N25)&gt;=40,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
+        <v>33</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF((H25+I25+J25+L25+M25+O25)&lt;70,IF((H25+I25+J25+L25+M25+O25)&gt;59,70,(H25+I25+J25+L25+M25+O25)),(H25+I25+J25+L25+M25+O25))</f>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N26)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N26)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N26)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>IF((N26)&gt;=40,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>20</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f>IF((H26+I26+J26+L26+M26+O26)&lt;70,IF((H26+I26+J26+L26+M26+O26)&gt;59,70,(H26+I26+J26+L26+M26+O26)),(H26+I26+J26+L26+M26+O26))</f>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>14</v>
+        <v>181</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f>IF((N27)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>IF((N27)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f>IF((N27)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f>IF((N27)&gt;=40,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="H27">
+        <v>18</v>
       </c>
       <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>IF((H27+I27+J27+L27+M27+O27)&lt;70,IF((H27+I27+J27+L27+M27+O27)&gt;59,70,(H27+I27+J27+L27+M27+O27)),(H27+I27+J27+L27+M27+O27))</f>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N28)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N28)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N28)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>IF((N28)&gt;=40,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
+        <v>24</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J28">
         <v>18</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>18</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>IF((H28+I28+J28+L28+M28+O28)&lt;70,IF((H28+I28+J28+L28+M28+O28)&gt;59,70,(H28+I28+J28+L28+M28+O28)),(H28+I28+J28+L28+M28+O28))</f>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N29)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N29)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N29)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="4"/>
+        <f>IF((N29)&gt;=40,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f>IF((H29+I29+J29+L29+M29+O29)&lt;70,IF((H29+I29+J29+L29+M29+O29)&gt;59,70,(H29+I29+J29+L29+M29+O29)),(H29+I29+J29+L29+M29+O29))</f>
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N30)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N30)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N30)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f>IF((N30)&gt;=40,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>18</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f>IF((H30+I30+J30+L30+M30+O30)&lt;70,IF((H30+I30+J30+L30+M30+O30)&gt;59,70,(H30+I30+J30+L30+M30+O30)),(H30+I30+J30+L30+M30+O30))</f>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N31)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N31)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N31)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="H31">
-        <v>18</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
+        <f>IF((N31)&gt;=40,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>IF((H31+I31+J31+L31+M31+O31)&lt;70,IF((H31+I31+J31+L31+M31+O31)&gt;59,70,(H31+I31+J31+L31+M31+O31)),(H31+I31+J31+L31+M31+O31))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N32)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N32)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N32)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>IF((N32)&gt;=40,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H32">
         <v>15</v>
       </c>
       <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>IF((H32+I32+J32+L32+M32+O32)&lt;70,IF((H32+I32+J32+L32+M32+O32)&gt;59,70,(H32+I32+J32+L32+M32+O32)),(H32+I32+J32+L32+M32+O32))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N33)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N33)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N33)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f>IF((N33)&gt;=40,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <f>IF((H33+I33+J33+L33+M33+O33)&lt;70,IF((H33+I33+J33+L33+M33+O33)&gt;59,70,(H33+I33+J33+L33+M33+O33)),(H33+I33+J33+L33+M33+O33))</f>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N34)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N34)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N34)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>IF((N34)&gt;=40,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
+        <v>30</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="5">IF((H34+I34+J34+L34+M34+O34)&lt;70,IF((H34+I34+J34+L34+M34+O34)&gt;59,70,(H34+I34+J34+L34+M34+O34)),(H34+I34+J34+L34+M34+O34))</f>
-        <v>70</v>
+        <f>IF((H34+I34+J34+L34+M34+O34)&lt;70,IF((H34+I34+J34+L34+M34+O34)&gt;59,70,(H34+I34+J34+L34+M34+O34)),(H34+I34+J34+L34+M34+O34))</f>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G35" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>111</v>
+      </c>
+      <c r="D35" s="6">
+        <f>IF((N35)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <f>IF((N35)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <f>IF((N35)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G35" s="6">
+        <f>IF((N35)&gt;=40,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>18</v>
+      </c>
+      <c r="M35">
+        <v>26</v>
       </c>
       <c r="N35">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IF((H35+I35+J35+L35+M35+O35)&lt;70,IF((H35+I35+J35+L35+M35+O35)&gt;59,70,(H35+I35+J35+L35+M35+O35)),(H35+I35+J35+L35+M35+O35))</f>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N36)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N36)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N36)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <f>IF((N36)&gt;=40,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N36">
-        <f t="shared" si="5"/>
-        <v>89</v>
+        <f>IF((H36+I36+J36+L36+M36+O36)&lt;70,IF((H36+I36+J36+L36+M36+O36)&gt;59,70,(H36+I36+J36+L36+M36+O36)),(H36+I36+J36+L36+M36+O36))</f>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N37)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N37)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N37)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f>IF((N37)&gt;=40,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N37">
-        <f t="shared" si="5"/>
-        <v>95</v>
+        <f>IF((H37+I37+J37+L37+M37+O37)&lt;70,IF((H37+I37+J37+L37+M37+O37)&gt;59,70,(H37+I37+J37+L37+M37+O37)),(H37+I37+J37+L37+M37+O37))</f>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N38)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N38)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N38)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="H38">
+        <f>IF((N38)&gt;=40,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
         <v>16</v>
       </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <v>18</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>15</v>
-      </c>
       <c r="M38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N38">
-        <f t="shared" si="5"/>
-        <v>88</v>
+        <f>IF((H38+I38+J38+L38+M38+O38)&lt;70,IF((H38+I38+J38+L38+M38+O38)&gt;59,70,(H38+I38+J38+L38+M38+O38)),(H38+I38+J38+L38+M38+O38))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N39)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N39)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N39)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f>IF((N39)&gt;=40,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
+        <v>28</v>
       </c>
       <c r="H39">
-        <v>16</v>
-      </c>
-      <c r="I39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J39">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N39">
-        <f t="shared" si="5"/>
-        <v>83</v>
+        <f>IF((H39+I39+J39+L39+M39+O39)&lt;70,IF((H39+I39+J39+L39+M39+O39)&gt;59,70,(H39+I39+J39+L39+M39+O39)),(H39+I39+J39+L39+M39+O39))</f>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G40" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>193</v>
+      </c>
+      <c r="D40" s="6">
+        <f>IF((N40)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <f>IF((N40)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <f>IF((N40)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G40" s="6">
+        <f>IF((N40)&gt;=40,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
+        <v>35</v>
+      </c>
+      <c r="H40">
+        <v>14</v>
       </c>
       <c r="I40">
         <v>10</v>
       </c>
+      <c r="J40">
+        <v>13</v>
+      </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
       </c>
       <c r="N40">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IF((H40+I40+J40+L40+M40+O40)&lt;70,IF((H40+I40+J40+L40+M40+O40)&gt;59,70,(H40+I40+J40+L40+M40+O40)),(H40+I40+J40+L40+M40+O40))</f>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N41)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N41)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N41)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>IF((N41)&gt;=40,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
+        <v>22</v>
       </c>
       <c r="H41">
         <v>14</v>
       </c>
       <c r="J41">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N41">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f>IF((H41+I41+J41+L41+M41+O41)&lt;70,IF((H41+I41+J41+L41+M41+O41)&gt;59,70,(H41+I41+J41+L41+M41+O41)),(H41+I41+J41+L41+M41+O41))</f>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N42)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N42)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N42)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>18</v>
+        <f>IF((N42)&gt;=40,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>14</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N42">
-        <f t="shared" si="5"/>
-        <v>43</v>
+        <f>IF((H42+I42+J42+L42+M42+O42)&lt;70,IF((H42+I42+J42+L42+M42+O42)&gt;59,70,(H42+I42+J42+L42+M42+O42)),(H42+I42+J42+L42+M42+O42))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N43)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N43)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N43)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>IF((N43)&gt;=40,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
+        <v>39</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I43">
         <v>10</v>
       </c>
       <c r="J43">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N43">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f>IF((H43+I43+J43+L43+M43+O43)&lt;70,IF((H43+I43+J43+L43+M43+O43)&gt;59,70,(H43+I43+J43+L43+M43+O43)),(H43+I43+J43+L43+M43+O43))</f>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N44)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N44)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N44)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>IF((N44)&gt;=40,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
+        <v>45</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
       </c>
       <c r="J44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <v>18</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N44">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f>IF((H44+I44+J44+L44+M44+O44)&lt;70,IF((H44+I44+J44+L44+M44+O44)&gt;59,70,(H44+I44+J44+L44+M44+O44)),(H44+I44+J44+L44+M44+O44))</f>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N45)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N45)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N45)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f>IF((N45)&gt;=40,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>16</v>
@@ -3211,89 +3368,89 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M45">
         <v>29</v>
       </c>
       <c r="N45">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <f>IF((H45+I45+J45+L45+M45+O45)&lt;70,IF((H45+I45+J45+L45+M45+O45)&gt;59,70,(H45+I45+J45+L45+M45+O45)),(H45+I45+J45+L45+M45+O45))</f>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N46)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N46)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N46)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f>IF((N46)&gt;=40,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I46">
         <v>10</v>
       </c>
       <c r="J46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N46">
-        <f t="shared" si="5"/>
-        <v>73</v>
+        <f>IF((H46+I46+J46+L46+M46+O46)&lt;70,IF((H46+I46+J46+L46+M46+O46)&gt;59,70,(H46+I46+J46+L46+M46+O46)),(H46+I46+J46+L46+M46+O46))</f>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N47)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N47)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N47)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="4"/>
+        <f>IF((N47)&gt;=40,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
         <v>37</v>
       </c>
       <c r="H47">
@@ -3315,136 +3472,136 @@
         <v>29</v>
       </c>
       <c r="N47">
-        <f t="shared" si="5"/>
+        <f>IF((H47+I47+J47+L47+M47+O47)&lt;70,IF((H47+I47+J47+L47+M47+O47)&gt;59,70,(H47+I47+J47+L47+M47+O47)),(H47+I47+J47+L47+M47+O47))</f>
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N48)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N48)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N48)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f>IF((N48)&gt;=40,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48">
         <v>10</v>
       </c>
       <c r="J48">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
         <v>14</v>
       </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>15</v>
-      </c>
       <c r="M48">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N48">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF((H48+I48+J48+L48+M48+O48)&lt;70,IF((H48+I48+J48+L48+M48+O48)&gt;59,70,(H48+I48+J48+L48+M48+O48)),(H48+I48+J48+L48+M48+O48))</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N49)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N49)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N49)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="4"/>
+        <f>IF((N49)&gt;=40,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="H49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49">
         <v>10</v>
       </c>
       <c r="J49">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49">
+        <v>16</v>
+      </c>
+      <c r="M49">
+        <v>29</v>
+      </c>
+      <c r="N49">
+        <f>IF((H49+I49+J49+L49+M49+O49)&lt;70,IF((H49+I49+J49+L49+M49+O49)&gt;59,70,(H49+I49+J49+L49+M49+O49)),(H49+I49+J49+L49+M49+O49))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>57</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="6">
+        <f>IF((N50)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
+        <f>IF((N50)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F50" s="2">
+        <f>IF((N50)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G50" s="6">
+        <f>IF((N50)&gt;=40,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
+        <v>44</v>
+      </c>
+      <c r="H50">
         <v>17</v>
-      </c>
-      <c r="M49">
-        <v>30</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>48</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="H50">
-        <v>16</v>
       </c>
       <c r="I50">
         <v>10</v>
@@ -3456,41 +3613,44 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N50">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF((H50+I50+J50+L50+M50+O50)&lt;70,IF((H50+I50+J50+L50+M50+O50)&gt;59,70,(H50+I50+J50+L50+M50+O50)),(H50+I50+J50+L50+M50+O50))</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N51)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N51)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N51)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>IF((N51)&gt;=40,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
+        <v>41</v>
+      </c>
+      <c r="H51">
+        <v>17</v>
       </c>
       <c r="I51">
         <v>10</v>
@@ -3499,130 +3659,145 @@
         <v>18</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>17</v>
       </c>
       <c r="M51">
+        <v>29</v>
+      </c>
+      <c r="N51">
+        <f>IF((H51+I51+J51+L51+M51+O51)&lt;70,IF((H51+I51+J51+L51+M51+O51)&gt;59,70,(H51+I51+J51+L51+M51+O51)),(H51+I51+J51+L51+M51+O51))</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>59</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="6">
+        <f>IF((N52)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <f>IF((N52)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F52" s="2">
+        <f>IF((N52)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G52" s="6">
+        <f>IF((N52)&gt;=40,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
+        <v>41</v>
+      </c>
+      <c r="H52">
+        <v>17</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>17</v>
+      </c>
+      <c r="M52">
+        <v>29</v>
+      </c>
+      <c r="N52">
+        <f>IF((H52+I52+J52+L52+M52+O52)&lt;70,IF((H52+I52+J52+L52+M52+O52)&gt;59,70,(H52+I52+J52+L52+M52+O52)),(H52+I52+J52+L52+M52+O52))</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>63</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="6">
+        <f>IF((N53)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E53" s="2">
+        <f>IF((N53)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F53" s="2">
+        <f>IF((N53)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G53" s="6">
+        <f>IF((N53)&gt;=40,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
+        <v>32</v>
+      </c>
+      <c r="H53">
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
         <v>15</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="5"/>
+      <c r="M53">
+        <v>29</v>
+      </c>
+      <c r="N53">
+        <f>IF((H53+I53+J53+L53+M53+O53)&lt;70,IF((H53+I53+J53+L53+M53+O53)&gt;59,70,(H53+I53+J53+L53+M53+O53)),(H53+I53+J53+L53+M53+O53))</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>50</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G52" s="6">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H52">
-        <v>16</v>
-      </c>
-      <c r="I52">
-        <v>10</v>
-      </c>
-      <c r="J52">
-        <v>16</v>
-      </c>
-      <c r="K52">
-        <v>2</v>
-      </c>
-      <c r="L52">
-        <v>18</v>
-      </c>
-      <c r="M52">
-        <v>26</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>51</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G53" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>52</v>
-      </c>
       <c r="B54" s="8" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N54)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N54)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N54)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>IF((N54)&gt;=40,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
+        <v>37</v>
       </c>
       <c r="H54">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54">
         <v>10</v>
@@ -3634,372 +3809,376 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
+        <f>IF((H54+I54+J54+L54+M54+O54)&lt;70,IF((H54+I54+J54+L54+M54+O54)&gt;59,70,(H54+I54+J54+L54+M54+O54)),(H54+I54+J54+L54+M54+O54))</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>71</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="6">
+        <f>IF((N55)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <f>IF((N55)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F55" s="2">
+        <f>IF((N55)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G55" s="6">
+        <f>IF((N55)&gt;=40,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
+        <v>41</v>
+      </c>
+      <c r="H55">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>18</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>16</v>
+      </c>
+      <c r="M55">
+        <v>29</v>
+      </c>
+      <c r="N55">
+        <f>IF((H55+I55+J55+L55+M55+O55)&lt;70,IF((H55+I55+J55+L55+M55+O55)&gt;59,70,(H55+I55+J55+L55+M55+O55)),(H55+I55+J55+L55+M55+O55))</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>72</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="6">
+        <f>IF((N56)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E56" s="2">
+        <f>IF((N56)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F56" s="2">
+        <f>IF((N56)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G56" s="6">
+        <f>IF((N56)&gt;=40,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>18</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>15</v>
+      </c>
+      <c r="M56">
+        <v>29</v>
+      </c>
+      <c r="N56">
+        <f>IF((H56+I56+J56+L56+M56+O56)&lt;70,IF((H56+I56+J56+L56+M56+O56)&gt;59,70,(H56+I56+J56+L56+M56+O56)),(H56+I56+J56+L56+M56+O56))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="6">
+        <f>IF((N57)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E57" s="2">
+        <f>IF((N57)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F57" s="2">
+        <f>IF((N57)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G57" s="6">
+        <f>IF((N57)&gt;=40,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="J57">
+        <v>15</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>29</v>
+      </c>
+      <c r="N57">
+        <f>IF((H57+I57+J57+L57+M57+O57)&lt;70,IF((H57+I57+J57+L57+M57+O57)&gt;59,70,(H57+I57+J57+L57+M57+O57)),(H57+I57+J57+L57+M57+O57))</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>53</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G55" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H55">
+      <c r="O57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>0</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6">
+        <f>IF((N58)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
+        <f>IF((N58)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F58" s="2">
+        <f>IF((N58)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G58" s="6">
+        <f>IF((N58)&gt;=40,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
+        <v>50</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58" s="14">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <f>IF((H58+I58+J58+L58+M58+O58)&lt;70,IF((H58+I58+J58+L58+M58+O58)&gt;59,70,(H58+I58+J58+L58+M58+O58)),(H58+I58+J58+L58+M58+O58))</f>
+        <v>105</v>
+      </c>
+      <c r="O58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>2</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="6">
+        <f>IF((N59)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
+        <f>IF((N59)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F59" s="2">
+        <f>IF((N59)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G59" s="6">
+        <f>IF((N59)&gt;=40,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
+        <v>41</v>
+      </c>
+      <c r="H59">
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59">
         <v>15</v>
-      </c>
-      <c r="I55">
-        <v>10</v>
-      </c>
-      <c r="J55">
-        <v>20</v>
-      </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>14</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>54</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G56" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H56">
-        <v>15</v>
-      </c>
-      <c r="I56">
-        <v>10</v>
-      </c>
-      <c r="K56">
-        <v>2</v>
-      </c>
-      <c r="L56">
-        <v>17</v>
-      </c>
-      <c r="M56">
-        <v>20</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>55</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F57" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G57" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H57">
-        <v>15</v>
-      </c>
-      <c r="J57">
-        <v>18</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>56</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G58" s="6">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="H58">
-        <v>17</v>
-      </c>
-      <c r="I58">
-        <v>10</v>
-      </c>
-      <c r="J58">
-        <v>18</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>16</v>
-      </c>
-      <c r="M58">
-        <v>29</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>57</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G59" s="6">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="H59">
-        <v>17</v>
-      </c>
-      <c r="I59">
-        <v>10</v>
-      </c>
-      <c r="J59">
-        <v>18</v>
       </c>
       <c r="K59">
         <v>2</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M59">
+        <v>30</v>
+      </c>
+      <c r="N59">
+        <f>IF((H59+I59+J59+L59+M59+O59)&lt;70,IF((H59+I59+J59+L59+M59+O59)&gt;59,70,(H59+I59+J59+L59+M59+O59)),(H59+I59+J59+L59+M59+O59))</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>13</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="6">
+        <f>IF((N60)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E60" s="2">
+        <f>IF((N60)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F60" s="2">
+        <f>IF((N60)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G60" s="6">
+        <f>IF((N60)&gt;=40,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
+        <v>27</v>
+      </c>
+      <c r="H60">
+        <v>18</v>
+      </c>
+      <c r="J60">
+        <v>15</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60">
+        <f>IF((H60+I60+J60+L60+M60+O60)&lt;70,IF((H60+I60+J60+L60+M60+O60)&gt;59,70,(H60+I60+J60+L60+M60+O60)),(H60+I60+J60+L60+M60+O60))</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
         <v>29</v>
       </c>
-      <c r="N59">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>58</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G60" s="6">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="H60">
-        <v>17</v>
-      </c>
-      <c r="I60">
-        <v>10</v>
-      </c>
-      <c r="J60">
-        <v>18</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>17</v>
-      </c>
-      <c r="M60">
-        <v>29</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>59</v>
-      </c>
       <c r="B61" s="8" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N61)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N61)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N61)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <f>IF((N61)&gt;=40,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I61">
         <v>10</v>
       </c>
       <c r="J61">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N61">
-        <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF((H61+I61+J61+L61+M61+O61)&lt;70,IF((H61+I61+J61+L61+M61+O61)&gt;59,70,(H61+I61+J61+L61+M61+O61)),(H61+I61+J61+L61+M61+O61))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N62)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N62)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N62)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="4"/>
-        <v>44</v>
+        <f>IF((N62)&gt;=40,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>18</v>
@@ -4008,50 +4187,50 @@
         <v>10</v>
       </c>
       <c r="J62">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K62">
         <v>2</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M62">
         <v>30</v>
       </c>
       <c r="N62">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF((H62+I62+J62+L62+M62+O62)&lt;70,IF((H62+I62+J62+L62+M62+O62)&gt;59,70,(H62+I62+J62+L62+M62+O62)),(H62+I62+J62+L62+M62+O62))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N63)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N63)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N63)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f>IF((N63)&gt;=40,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63">
         <v>10</v>
@@ -4063,17 +4242,17 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N63">
-        <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF((H63+I63+J63+L63+M63+O63)&lt;70,IF((H63+I63+J63+L63+M63+O63)&gt;59,70,(H63+I63+J63+L63+M63+O63)),(H63+I63+J63+L63+M63+O63))</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -4084,19 +4263,19 @@
         <v>139</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N64)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N64)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N64)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="4"/>
+        <f>IF((N64)&gt;=40,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
         <v>27</v>
       </c>
       <c r="H64">
@@ -4115,84 +4294,84 @@
         <v>30</v>
       </c>
       <c r="N64">
-        <f t="shared" si="5"/>
+        <f>IF((H64+I64+J64+L64+M64+O64)&lt;70,IF((H64+I64+J64+L64+M64+O64)&gt;59,70,(H64+I64+J64+L64+M64+O64)),(H64+I64+J64+L64+M64+O64))</f>
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N65)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N65)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N65)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f>IF((N65)&gt;=40,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
+        <v>42</v>
       </c>
       <c r="H65">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65">
         <v>10</v>
       </c>
       <c r="J65">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N65">
-        <f t="shared" si="5"/>
-        <v>82</v>
+        <f>IF((H65+I65+J65+L65+M65+O65)&lt;70,IF((H65+I65+J65+L65+M65+O65)&gt;59,70,(H65+I65+J65+L65+M65+O65)),(H65+I65+J65+L65+M65+O65))</f>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="1"/>
+        <f>IF((N66)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N66)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="3"/>
+        <f>IF((N66)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f>IF((N66)&gt;=40,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
+        <v>42</v>
       </c>
       <c r="H66">
         <v>16</v>
@@ -4201,84 +4380,96 @@
         <v>10</v>
       </c>
       <c r="J66">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="6">IF((H66+I66+J66+L66+M66+O66)&lt;70,IF((H66+I66+J66+L66+M66+O66)&gt;59,70,(H66+I66+J66+L66+M66+O66)),(H66+I66+J66+L66+M66+O66))</f>
-        <v>75</v>
+        <f>IF((H66+I66+J66+L66+M66+O66)&lt;70,IF((H66+I66+J66+L66+M66+O66)&gt;59,70,(H66+I66+J66+L66+M66+O66)),(H66+I66+J66+L66+M66+O66))</f>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="6" t="str">
-        <f t="shared" ref="D67:D100" si="7">IF((N67)&gt;=40,10,"")</f>
-        <v/>
-      </c>
-      <c r="E67" s="2" t="str">
-        <f t="shared" ref="E67:E100" si="8">IF((N67)&gt;=40,20,"")</f>
-        <v/>
-      </c>
-      <c r="F67" s="2" t="str">
-        <f t="shared" ref="F67:F100" si="9">IF((N67)&gt;=40,20,"")</f>
-        <v/>
-      </c>
-      <c r="G67" s="6" t="str">
-        <f t="shared" ref="G67:G99" si="10">IF((N67)&gt;=40,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
-        <v/>
+        <v>153</v>
+      </c>
+      <c r="D67" s="6">
+        <f>IF((N67)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E67" s="2">
+        <f>IF((N67)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F67" s="2">
+        <f>IF((N67)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G67" s="6">
+        <f>IF((N67)&gt;=40,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>13</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
+      <c r="L67">
+        <v>15</v>
+      </c>
+      <c r="M67">
+        <v>30</v>
+      </c>
       <c r="N67">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f>IF((H67+I67+J67+L67+M67+O67)&lt;70,IF((H67+I67+J67+L67+M67+O67)&gt;59,70,(H67+I67+J67+L67+M67+O67)),(H67+I67+J67+L67+M67+O67))</f>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N68)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N68)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N68)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="10"/>
-        <v>42</v>
+        <f>IF((N68)&gt;=40,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
+        <v>41</v>
       </c>
       <c r="H68">
         <v>16</v>
@@ -4290,87 +4481,93 @@
         <v>18</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M68">
         <v>30</v>
       </c>
       <c r="N68">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f>IF((H68+I68+J68+L68+M68+O68)&lt;70,IF((H68+I68+J68+L68+M68+O68)&gt;59,70,(H68+I68+J68+L68+M68+O68)),(H68+I68+J68+L68+M68+O68))</f>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N69)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N69)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N69)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>IF((N69)&gt;=40,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>16</v>
       </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
       <c r="J69">
         <v>20</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M69">
+        <v>30</v>
       </c>
       <c r="N69">
-        <f t="shared" si="6"/>
-        <v>53</v>
+        <f>IF((H69+I69+J69+L69+M69+O69)&lt;70,IF((H69+I69+J69+L69+M69+O69)&gt;59,70,(H69+I69+J69+L69+M69+O69)),(H69+I69+J69+L69+M69+O69))</f>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N70)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N70)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N70)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="10"/>
-        <v>42</v>
+        <f>IF((N70)&gt;=40,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>16</v>
@@ -4385,41 +4582,41 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M70">
         <v>30</v>
       </c>
       <c r="N70">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f>IF((H70+I70+J70+L70+M70+O70)&lt;70,IF((H70+I70+J70+L70+M70+O70)&gt;59,70,(H70+I70+J70+L70+M70+O70)),(H70+I70+J70+L70+M70+O70))</f>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N71)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N71)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N71)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="10"/>
-        <v>34</v>
+        <f>IF((N71)&gt;=40,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>16</v>
@@ -4428,99 +4625,99 @@
         <v>10</v>
       </c>
       <c r="J71">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M71">
         <v>30</v>
       </c>
       <c r="N71">
-        <f t="shared" si="6"/>
-        <v>84</v>
+        <f>IF((H71+I71+J71+L71+M71+O71)&lt;70,IF((H71+I71+J71+L71+M71+O71)&gt;59,70,(H71+I71+J71+L71+M71+O71)),(H71+I71+J71+L71+M71+O71))</f>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N72)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N72)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N72)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="10"/>
-        <v>37</v>
+        <f>IF((N72)&gt;=40,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72">
         <v>10</v>
       </c>
       <c r="J72">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>16</v>
       </c>
       <c r="M72">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N72">
-        <f t="shared" si="6"/>
-        <v>87</v>
+        <f>IF((H72+I72+J72+L72+M72+O72)&lt;70,IF((H72+I72+J72+L72+M72+O72)&gt;59,70,(H72+I72+J72+L72+M72+O72)),(H72+I72+J72+L72+M72+O72))</f>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N73)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N73)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N73)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="10"/>
-        <v>41</v>
+        <f>IF((N73)&gt;=40,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73">
         <v>10</v>
@@ -4532,760 +4729,606 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N73">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>72</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E74" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F74" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="H74">
-        <v>18</v>
-      </c>
-      <c r="I74">
-        <v>10</v>
-      </c>
-      <c r="J74">
-        <v>18</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>15</v>
+        <f>IF((H73+I73+J73+L73+M73+O73)&lt;70,IF((H73+I73+J73+L73+M73+O73)&gt;59,70,(H73+I73+J73+L73+M73+O73)),(H73+I73+J73+L73+M73+O73))</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f>IF((N74)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f>IF((N74)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F74" s="2" t="str">
+        <f>IF((N74)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G74" s="6" t="str">
+        <f>IF((N74)&gt;=40,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
+        <v/>
       </c>
       <c r="M74">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N74">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f>IF((H74+I74+J74+L74+M74+O74)&lt;70,IF((H74+I74+J74+L74+M74+O74)&gt;59,70,(H74+I74+J74+L74+M74+O74)),(H74+I74+J74+L74+M74+O74))</f>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G75" s="6">
-        <f t="shared" si="10"/>
-        <v>41</v>
-      </c>
-      <c r="H75">
-        <v>16</v>
-      </c>
-      <c r="I75">
-        <v>10</v>
-      </c>
-      <c r="J75">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="D75" s="6" t="str">
+        <f>IF((N75)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f>IF((N75)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F75" s="2" t="str">
+        <f>IF((N75)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G75" s="6" t="str">
+        <f>IF((N75)&gt;=40,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
+        <v/>
       </c>
       <c r="K75">
-        <v>2</v>
-      </c>
-      <c r="L75">
-        <v>17</v>
-      </c>
-      <c r="M75">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="6"/>
-        <v>91</v>
+        <f>IF((H75+I75+J75+L75+M75+O75)&lt;70,IF((H75+I75+J75+L75+M75+O75)&gt;59,70,(H75+I75+J75+L75+M75+O75)),(H75+I75+J75+L75+M75+O75))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D76" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E76" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F76" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G76" s="6">
-        <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="H76">
+        <v>29</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f>IF((N76)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f>IF((N76)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f>IF((N76)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G76" s="6" t="str">
+        <f>IF((N76)&gt;=40,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f>IF((H76+I76+J76+L76+M76+O76)&lt;70,IF((H76+I76+J76+L76+M76+O76)&gt;59,70,(H76+I76+J76+L76+M76+O76)),(H76+I76+J76+L76+M76+O76))</f>
         <v>16</v>
-      </c>
-      <c r="I76">
-        <v>10</v>
-      </c>
-      <c r="J76">
-        <v>20</v>
-      </c>
-      <c r="K76">
-        <v>2</v>
-      </c>
-      <c r="L76">
-        <v>16</v>
-      </c>
-      <c r="M76">
-        <v>30</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="6"/>
-        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D77" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F77" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G77" s="6">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="H77">
-        <v>16</v>
-      </c>
-      <c r="I77">
-        <v>10</v>
-      </c>
-      <c r="J77">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f>IF((N77)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f>IF((N77)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F77" s="2" t="str">
+        <f>IF((N77)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G77" s="6" t="str">
+        <f>IF((N77)&gt;=40,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
+        <v/>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77">
-        <v>16</v>
-      </c>
       <c r="N77">
-        <f t="shared" si="6"/>
-        <v>70</v>
+        <f>IF((H77+I77+J77+L77+M77+O77)&lt;70,IF((H77+I77+J77+L77+M77+O77)&gt;59,70,(H77+I77+J77+L77+M77+O77)),(H77+I77+J77+L77+M77+O77))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F78" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G78" s="6">
-        <f t="shared" si="10"/>
-        <v>38</v>
-      </c>
-      <c r="H78">
+        <v>33</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <f>IF((N78)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f>IF((N78)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F78" s="2" t="str">
+        <f>IF((N78)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G78" s="6" t="str">
+        <f>IF((N78)&gt;=40,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <f>IF((H78+I78+J78+L78+M78+O78)&lt;70,IF((H78+I78+J78+L78+M78+O78)&gt;59,70,(H78+I78+J78+L78+M78+O78)),(H78+I78+J78+L78+M78+O78))</f>
         <v>16</v>
-      </c>
-      <c r="I78">
-        <v>10</v>
-      </c>
-      <c r="J78">
-        <v>16</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>16</v>
-      </c>
-      <c r="M78">
-        <v>30</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="6"/>
-        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D79" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G79" s="6">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="H79">
-        <v>16</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="D79" s="6" t="str">
+        <f>IF((N79)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f>IF((N79)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f>IF((N79)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G79" s="6" t="str">
+        <f>IF((N79)&gt;=40,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
+        <v/>
       </c>
       <c r="J79">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="L79">
-        <v>14</v>
-      </c>
-      <c r="M79">
-        <v>15</v>
-      </c>
       <c r="N79">
-        <f t="shared" si="6"/>
-        <v>71</v>
+        <f>IF((H79+I79+J79+L79+M79+O79)&lt;70,IF((H79+I79+J79+L79+M79+O79)&gt;59,70,(H79+I79+J79+L79+M79+O79)),(H79+I79+J79+L79+M79+O79))</f>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N80)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N80)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N80)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="10"/>
-        <v>31</v>
+        <f>IF((N80)&gt;=40,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
+        <v>4</v>
       </c>
       <c r="H80">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I80">
         <v>10</v>
       </c>
       <c r="J80">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>20</v>
-      </c>
-      <c r="M80">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N80">
-        <f t="shared" si="6"/>
-        <v>81</v>
+        <f>IF((H80+I80+J80+L80+M80+O80)&lt;70,IF((H80+I80+J80+L80+M80+O80)&gt;59,70,(H80+I80+J80+L80+M80+O80)),(H80+I80+J80+L80+M80+O80))</f>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E81" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F81" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G81" s="6">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="H81">
-        <v>18</v>
-      </c>
-      <c r="I81">
-        <v>10</v>
-      </c>
-      <c r="J81">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f>IF((N81)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f>IF((N81)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f>IF((N81)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="6" t="str">
+        <f>IF((N81)&gt;=40,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
+        <v/>
       </c>
       <c r="K81">
-        <v>2</v>
-      </c>
-      <c r="L81">
-        <v>17</v>
-      </c>
-      <c r="M81">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <f>IF((H81+I81+J81+L81+M81+O81)&lt;70,IF((H81+I81+J81+L81+M81+O81)&gt;59,70,(H81+I81+J81+L81+M81+O81)),(H81+I81+J81+L81+M81+O81))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D82" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E82" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F82" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G82" s="6">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="H82">
-        <v>16</v>
-      </c>
-      <c r="I82">
-        <v>10</v>
-      </c>
-      <c r="J82">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <f>IF((N82)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f>IF((N82)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F82" s="2" t="str">
+        <f>IF((N82)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G82" s="6" t="str">
+        <f>IF((N82)&gt;=40,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
+        <v/>
       </c>
       <c r="K82">
-        <v>2</v>
-      </c>
-      <c r="L82">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" si="6"/>
-        <v>70</v>
+        <f>IF((H82+I82+J82+L82+M82+O82)&lt;70,IF((H82+I82+J82+L82+M82+O82)&gt;59,70,(H82+I82+J82+L82+M82+O82)),(H82+I82+J82+L82+M82+O82))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N83)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N83)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N83)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="10"/>
-        <v>33</v>
+        <f>IF((N83)&gt;=40,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I83">
         <v>10</v>
       </c>
       <c r="J83">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>20</v>
-      </c>
-      <c r="M83">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N83">
-        <f t="shared" si="6"/>
-        <v>83</v>
+        <f>IF((H83+I83+J83+L83+M83+O83)&lt;70,IF((H83+I83+J83+L83+M83+O83)&gt;59,70,(H83+I83+J83+L83+M83+O83)),(H83+I83+J83+L83+M83+O83))</f>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D84" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E84" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F84" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G84" s="6">
-        <f t="shared" si="10"/>
-        <v>33</v>
-      </c>
-      <c r="H84">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="str">
+        <f>IF((N84)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f>IF((N84)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F84" s="2" t="str">
+        <f>IF((N84)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G84" s="6" t="str">
+        <f>IF((N84)&gt;=40,IF((N84-50)&gt;50,50,IF((N84-50)&lt;0,0,(N84-50))), "" )</f>
+        <v/>
       </c>
       <c r="I84">
         <v>10</v>
       </c>
       <c r="J84">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K84">
-        <v>2</v>
-      </c>
-      <c r="L84">
-        <v>20</v>
-      </c>
-      <c r="M84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <f t="shared" si="6"/>
-        <v>83</v>
+        <f>IF((H84+I84+J84+L84+M84+O84)&lt;70,IF((H84+I84+J84+L84+M84+O84)&gt;59,70,(H84+I84+J84+L84+M84+O84)),(H84+I84+J84+L84+M84+O84))</f>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N85)&gt;=40,10,"")</f>
         <v/>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N85)&gt;=40,20,"")</f>
         <v/>
       </c>
       <c r="F85" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF((N85)&gt;=40,20,"")</f>
         <v/>
       </c>
       <c r="G85" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H85">
-        <v>18</v>
+        <f>IF((N85)&gt;=40,IF((N85-50)&gt;50,50,IF((N85-50)&lt;0,0,(N85-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="J85">
+        <v>6</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
-      <c r="M85">
-        <v>20</v>
-      </c>
       <c r="N85">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <f>IF((H85+I85+J85+L85+M85+O85)&lt;70,IF((H85+I85+J85+L85+M85+O85)&gt;59,70,(H85+I85+J85+L85+M85+O85)),(H85+I85+J85+L85+M85+O85))</f>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E86" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F86" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G86" s="6">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="H86">
-        <v>16</v>
-      </c>
-      <c r="I86">
-        <v>10</v>
-      </c>
-      <c r="J86">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="D86" s="6" t="str">
+        <f>IF((N86)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f>IF((N86)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F86" s="2" t="str">
+        <f>IF((N86)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G86" s="6" t="str">
+        <f>IF((N86)&gt;=40,IF((N86-50)&gt;50,50,IF((N86-50)&lt;0,0,(N86-50))), "" )</f>
+        <v/>
       </c>
       <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>16</v>
-      </c>
-      <c r="M86">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f>IF((H86+I86+J86+L86+M86+O86)&lt;70,IF((H86+I86+J86+L86+M86+O86)&gt;59,70,(H86+I86+J86+L86+M86+O86)),(H86+I86+J86+L86+M86+O86))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E87" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F87" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G87" s="6">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="H87">
-        <v>16</v>
-      </c>
-      <c r="I87">
-        <v>10</v>
-      </c>
-      <c r="J87">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="D87" s="6" t="str">
+        <f>IF((N87)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f>IF((N87)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F87" s="2" t="str">
+        <f>IF((N87)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G87" s="6" t="str">
+        <f>IF((N87)&gt;=40,IF((N87-50)&gt;50,50,IF((N87-50)&lt;0,0,(N87-50))), "" )</f>
+        <v/>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
-      <c r="L87">
-        <v>16</v>
-      </c>
-      <c r="M87">
-        <v>30</v>
-      </c>
       <c r="N87">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f>IF((H87+I87+J87+L87+M87+O87)&lt;70,IF((H87+I87+J87+L87+M87+O87)&gt;59,70,(H87+I87+J87+L87+M87+O87)),(H87+I87+J87+L87+M87+O87))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N88)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N88)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N88)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="10"/>
-        <v>42</v>
+        <f>IF((N88)&gt;=40,IF((N88-50)&gt;50,50,IF((N88-50)&lt;0,0,(N88-50))), "" )</f>
+        <v>3</v>
       </c>
       <c r="H88">
+        <v>14</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88">
+        <v>13</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
         <v>16</v>
       </c>
-      <c r="I88">
-        <v>10</v>
-      </c>
-      <c r="J88">
-        <v>18</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>18</v>
-      </c>
-      <c r="M88">
-        <v>30</v>
-      </c>
       <c r="N88">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f>IF((H88+I88+J88+L88+M88+O88)&lt;70,IF((H88+I88+J88+L88+M88+O88)&gt;59,70,(H88+I88+J88+L88+M88+O88)),(H88+I88+J88+L88+M88+O88))</f>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="D89" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N89)&gt;=40,10,"")</f>
         <v/>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N89)&gt;=40,20,"")</f>
         <v/>
       </c>
       <c r="F89" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF((N89)&gt;=40,20,"")</f>
         <v/>
       </c>
       <c r="G89" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF((N89)&gt;=40,IF((N89-50)&gt;50,50,IF((N89-50)&lt;0,0,(N89-50))), "" )</f>
         <v/>
       </c>
       <c r="I89">
@@ -5295,414 +5338,387 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <f t="shared" si="6"/>
+        <f>IF((H89+I89+J89+L89+M89+O89)&lt;70,IF((H89+I89+J89+L89+M89+O89)&gt;59,70,(H89+I89+J89+L89+M89+O89)),(H89+I89+J89+L89+M89+O89))</f>
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F90" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G90" s="6">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="H90">
-        <v>14</v>
-      </c>
-      <c r="J90">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="D90" s="6" t="str">
+        <f>IF((N90)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f>IF((N90)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F90" s="2" t="str">
+        <f>IF((N90)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G90" s="6" t="str">
+        <f>IF((N90)&gt;=40,IF((N90-50)&gt;50,50,IF((N90-50)&lt;0,0,(N90-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="I90">
+        <v>10</v>
       </c>
       <c r="K90">
-        <v>2</v>
-      </c>
-      <c r="L90">
-        <v>18</v>
-      </c>
-      <c r="M90">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <f t="shared" si="6"/>
-        <v>78</v>
+        <f>IF((H90+I90+J90+L90+M90+O90)&lt;70,IF((H90+I90+J90+L90+M90+O90)&gt;59,70,(H90+I90+J90+L90+M90+O90)),(H90+I90+J90+L90+M90+O90))</f>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D91" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E91" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F91" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G91" s="6">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="H91">
-        <v>14</v>
-      </c>
-      <c r="I91">
-        <v>10</v>
-      </c>
-      <c r="J91">
-        <v>13</v>
+        <v>117</v>
+      </c>
+      <c r="D91" s="6" t="str">
+        <f>IF((N91)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f>IF((N91)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F91" s="2" t="str">
+        <f>IF((N91)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G91" s="6" t="str">
+        <f>IF((N91)&gt;=40,IF((N91-50)&gt;50,50,IF((N91-50)&lt;0,0,(N91-50))), "" )</f>
+        <v/>
       </c>
       <c r="K91">
-        <v>2</v>
-      </c>
-      <c r="L91">
-        <v>20</v>
-      </c>
-      <c r="M91">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <f t="shared" si="6"/>
-        <v>85</v>
+        <f>IF((H91+I91+J91+L91+M91+O91)&lt;70,IF((H91+I91+J91+L91+M91+O91)&gt;59,70,(H91+I91+J91+L91+M91+O91)),(H91+I91+J91+L91+M91+O91))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E92" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F92" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G92" s="6">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <v>125</v>
+      </c>
+      <c r="D92" s="6" t="str">
+        <f>IF((N92)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f>IF((N92)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F92" s="2" t="str">
+        <f>IF((N92)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G92" s="6" t="str">
+        <f>IF((N92)&gt;=40,IF((N92-50)&gt;50,50,IF((N92-50)&lt;0,0,(N92-50))), "" )</f>
+        <v/>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J92">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
-      <c r="L92">
-        <v>17</v>
-      </c>
-      <c r="M92">
-        <v>15</v>
-      </c>
       <c r="N92">
-        <f t="shared" si="6"/>
-        <v>59</v>
+        <f>IF((H92+I92+J92+L92+M92+O92)&lt;70,IF((H92+I92+J92+L92+M92+O92)&gt;59,70,(H92+I92+J92+L92+M92+O92)),(H92+I92+J92+L92+M92+O92))</f>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E93" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F93" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G93" s="6">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <v>145</v>
+      </c>
+      <c r="D93" s="6" t="str">
+        <f>IF((N93)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f>IF((N93)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F93" s="2" t="str">
+        <f>IF((N93)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G93" s="6" t="str">
+        <f>IF((N93)&gt;=40,IF((N93-50)&gt;50,50,IF((N93-50)&lt;0,0,(N93-50))), "" )</f>
+        <v/>
       </c>
       <c r="H93">
-        <v>15</v>
-      </c>
-      <c r="I93">
-        <v>10</v>
-      </c>
-      <c r="J93">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
-      <c r="L93">
-        <v>17</v>
-      </c>
-      <c r="M93">
-        <v>25</v>
-      </c>
       <c r="N93">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <f>IF((H93+I93+J93+L93+M93+O93)&lt;70,IF((H93+I93+J93+L93+M93+O93)&gt;59,70,(H93+I93+J93+L93+M93+O93)),(H93+I93+J93+L93+M93+O93))</f>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N94)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N94)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N94)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="10"/>
-        <v>22</v>
+        <f>IF((N94)&gt;=40,IF((N94-50)&gt;50,50,IF((N94-50)&lt;0,0,(N94-50))), "" )</f>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J94">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>20</v>
-      </c>
-      <c r="M94">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N94">
-        <f t="shared" si="6"/>
-        <v>72</v>
+        <f>IF((H94+I94+J94+L94+M94+O94)&lt;70,IF((H94+I94+J94+L94+M94+O94)&gt;59,70,(H94+I94+J94+L94+M94+O94)),(H94+I94+J94+L94+M94+O94))</f>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="7"/>
+        <f>IF((N95)&gt;=40,10,"")</f>
         <v>10</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" si="8"/>
+        <f>IF((N95)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="9"/>
+        <f>IF((N95)&gt;=40,20,"")</f>
         <v>20</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f>IF((N95)&gt;=40,IF((N95-50)&gt;50,50,IF((N95-50)&lt;0,0,(N95-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H95">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
       </c>
       <c r="J95">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="L95">
-        <v>18</v>
-      </c>
-      <c r="M95">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N95">
-        <f t="shared" si="6"/>
-        <v>74</v>
+        <f>IF((H95+I95+J95+L95+M95+O95)&lt;70,IF((H95+I95+J95+L95+M95+O95)&gt;59,70,(H95+I95+J95+L95+M95+O95)),(H95+I95+J95+L95+M95+O95))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
+        <v>80</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96" s="6">
+        <f>IF((N96)&gt;=40,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E96" s="2">
+        <f>IF((N96)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F96" s="2">
+        <f>IF((N96)&gt;=40,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G96" s="6">
+        <f>IF((N96)&gt;=40,IF((N96-50)&gt;50,50,IF((N96-50)&lt;0,0,(N96-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H96">
+        <v>16</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>18</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>20</v>
+      </c>
+      <c r="N96">
+        <f>IF((H96+I96+J96+L96+M96+O96)&lt;70,IF((H96+I96+J96+L96+M96+O96)&gt;59,70,(H96+I96+J96+L96+M96+O96)),(H96+I96+J96+L96+M96+O96))</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="16">
+        <v>87</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" s="6" t="str">
+        <f>IF((N97)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f>IF((N97)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F97" s="2" t="str">
+        <f>IF((N97)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G97" s="6" t="str">
+        <f>IF((N97)&gt;=40,IF((N97-50)&gt;50,50,IF((N97-50)&lt;0,0,(N97-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <f>IF((H97+I97+J97+L97+M97+O97)&lt;70,IF((H97+I97+J97+L97+M97+O97)&gt;59,70,(H97+I97+J97+L97+M97+O97)),(H97+I97+J97+L97+M97+O97))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="16">
         <v>94</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B98" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C98" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D96" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E96" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F96" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G96" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="6"/>
+      <c r="D98" s="6" t="str">
+        <f>IF((N98)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f>IF((N98)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F98" s="2" t="str">
+        <f>IF((N98)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G98" s="6" t="str">
+        <f>IF((N98)&gt;=40,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <f>IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" s="14"/>
-      <c r="B97" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D97" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E97" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F97" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G97" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J97">
-        <v>15</v>
-      </c>
-      <c r="L97">
-        <v>14</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E98" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F98" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G98" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M98">
-        <v>30</v>
-      </c>
-      <c r="N98">
-        <f t="shared" ref="N98:N99" si="11">IF((H98+I98+J98+L98+M98+O98)&lt;70,IF((H98+I98+J98+L98+M98+O98)&gt;59,70,(H98+I98+J98+L98+M98+O98)),(H98+I98+J98+L98+M98+O98))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E99" s="2">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F99" s="2">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G99" s="6">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <v>207</v>
+      </c>
+      <c r="D99" s="6" t="str">
+        <f>IF((N99)&gt;=40,10,"")</f>
+        <v/>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f>IF((N99)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="F99" s="2" t="str">
+        <f>IF((N99)&gt;=40,20,"")</f>
+        <v/>
+      </c>
+      <c r="G99" s="6" t="str">
+        <f>IF((N99)&gt;=40,IF((N99-50)&gt;50,50,IF((N99-50)&lt;0,0,(N99-50))), "" )</f>
+        <v/>
       </c>
       <c r="J99">
         <v>15</v>
@@ -5710,28 +5726,22 @@
       <c r="L99">
         <v>14</v>
       </c>
-      <c r="M99">
+      <c r="N99">
+        <f>IF((H99+I99+J99+L99+M99+O99)&lt;70,IF((H99+I99+J99+L99+M99+O99)&gt;59,70,(H99+I99+J99+L99+M99+O99)),(H99+I99+J99+L99+M99+O99))</f>
         <v>29</v>
       </c>
-      <c r="N99">
-        <f t="shared" si="11"/>
-        <v>70</v>
-      </c>
-      <c r="O99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D100" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N100)&gt;=40,10,"")</f>
         <v/>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N100)&gt;=40,20,"")</f>
         <v/>
       </c>
       <c r="F100" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>IF((N100)&gt;=40,20,"")</f>
         <v/>
       </c>
     </row>
@@ -5741,8 +5751,8 @@
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
-    <sortState ref="A2:O99">
-      <sortCondition ref="A1:A99"/>
+    <sortState ref="A2:O100">
+      <sortCondition ref="M1:M99"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
